--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\США\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;State&amp;Territorial_Quarters&quot;" sheetId="5" r:id="rId1"/>
@@ -2185,7 +2185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2266,6 +2266,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -2469,7 +2476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2643,6 +2650,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7291,7 +7301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -8556,11 +8566,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9008,7 +9018,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -9035,8 +9045,8 @@
       <c r="F18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="1">
-        <v>0</v>
+      <c r="G18" s="64">
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -9064,7 +9074,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -9092,10 +9102,10 @@
         <v>14</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9120,10 +9130,10 @@
         <v>13</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9234,7 +9244,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9305,10 +9315,10 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="9" t="str">
         <f t="shared" ref="I3:I59" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
@@ -9409,10 +9419,10 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="9" t="str">
         <f t="shared" si="0"/>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -5,19 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\USA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="&quot;State&amp;Territorial_Quarters&quot;" sheetId="5" r:id="rId1"/>
-    <sheet name="&quot;The_Beautiful_Quarters&quot;" sheetId="6" r:id="rId2"/>
-    <sheet name="&quot;Presidential_Dollars&quot;" sheetId="1" r:id="rId3"/>
-    <sheet name="&quot;Sacagawea&amp;Native_Dollars&quot;" sheetId="2" r:id="rId4"/>
-    <sheet name="&quot;American_Innovation_Dollars&quot;" sheetId="3" r:id="rId5"/>
-    <sheet name="Links" sheetId="4" r:id="rId6"/>
+    <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
+    <sheet name="&quot;Westward_Journey_Nickels&quot;" sheetId="8" r:id="rId2"/>
+    <sheet name="&quot;State&amp;Territorial_Quarters&quot;" sheetId="5" r:id="rId3"/>
+    <sheet name="&quot;The_Beautiful_Quarters&quot;" sheetId="6" r:id="rId4"/>
+    <sheet name="&quot;Presidential_Dollars&quot;" sheetId="1" r:id="rId5"/>
+    <sheet name="&quot;Sacagawea&amp;Native_Dollars&quot;" sheetId="2" r:id="rId6"/>
+    <sheet name="&quot;American_Innovation_Dollars&quot;" sheetId="3" r:id="rId7"/>
+    <sheet name="Links" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,6 +34,294 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Philadelphia mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> Denver mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>San Francisco mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Philadelphia mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> Denver mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>San Francisco mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Philadelphia mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> Denver mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>San Francisco mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Philadelphia mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> Denver mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>San Francisco mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -123,7 +413,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -297,190 +587,6 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Philadelphia mint</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> Denver mint</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Philadelphia mint</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> Denver mint</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Philadelphia mint</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> Denver mint</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Philadelphia mint</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> Denver mint</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -573,8 +679,192 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Philadelphia mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> Denver mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Philadelphia mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> Denver mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Philadelphia mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> Denver mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Philadelphia mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> Denver mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="565">
   <si>
     <t>Trustees’ Garden</t>
   </si>
@@ -2179,6 +2469,96 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1¢</t>
+  </si>
+  <si>
+    <t>CentKentucky Childhood (Log Cabin)</t>
+  </si>
+  <si>
+    <t>284,800,000</t>
+  </si>
+  <si>
+    <t>350,000,000</t>
+  </si>
+  <si>
+    <t>(Formative) Indiana Years</t>
+  </si>
+  <si>
+    <t>376,000,000</t>
+  </si>
+  <si>
+    <t>363,600,000</t>
+  </si>
+  <si>
+    <t>Professional Life in Illinois</t>
+  </si>
+  <si>
+    <t>316,000,000</t>
+  </si>
+  <si>
+    <t>336,000,000</t>
+  </si>
+  <si>
+    <t>Presidency</t>
+  </si>
+  <si>
+    <t>129,600,000</t>
+  </si>
+  <si>
+    <t>198,000,000</t>
+  </si>
+  <si>
+    <t>Lincoln Cent</t>
+  </si>
+  <si>
+    <t>5¢</t>
+  </si>
+  <si>
+    <t>Jefferson Nickel</t>
+  </si>
+  <si>
+    <t>Peace Medal</t>
+  </si>
+  <si>
+    <t>361,440,000</t>
+  </si>
+  <si>
+    <t>372,000,000</t>
+  </si>
+  <si>
+    <t>Keelboat</t>
+  </si>
+  <si>
+    <t>366,720,000</t>
+  </si>
+  <si>
+    <t>344,880,000</t>
+  </si>
+  <si>
+    <t>American Bison</t>
+  </si>
+  <si>
+    <t>448,320,000</t>
+  </si>
+  <si>
+    <t>487,680,000</t>
+  </si>
+  <si>
+    <t>Ocean in View</t>
+  </si>
+  <si>
+    <t>394,080,000</t>
+  </si>
+  <si>
+    <t>411,120,000</t>
+  </si>
+  <si>
+    <t>usmint</t>
+  </si>
+  <si>
+    <t>Very low convenience set of tables with actual mintages</t>
   </si>
 </sst>
 </file>
@@ -2476,7 +2856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2574,6 +2954,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2651,23 +3037,80 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="28">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2797,6 +3240,47 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2811,16 +3295,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица4" displayName="Таблица4" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица4" displayName="Таблица4" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="27"/>
+    <tableColumn id="2" name="Link" dataDxfId="26" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3123,50 +3607,583 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="10" width="3.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="68" t="s">
+        <v>535</v>
+      </c>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="44"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="37">
+        <v>2009</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="72" t="s">
+        <v>537</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>538</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="73">
+        <v>0</v>
+      </c>
+      <c r="I3" s="73">
+        <v>1</v>
+      </c>
+      <c r="J3" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="9" t="str">
+        <f t="shared" ref="K3:K6" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="37">
+        <v>2009</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="72" t="s">
+        <v>540</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>541</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H4" s="73">
+        <v>1</v>
+      </c>
+      <c r="I4" s="73">
+        <v>1</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="37">
+        <v>2009</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="72" t="s">
+        <v>543</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>544</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H5" s="73">
+        <v>1</v>
+      </c>
+      <c r="I5" s="73">
+        <v>0</v>
+      </c>
+      <c r="J5" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="37">
+        <v>2009</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="72" t="s">
+        <v>546</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>547</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" s="73">
+        <v>1</v>
+      </c>
+      <c r="I6" s="73">
+        <v>1</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:J5">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:J5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="H3:J6">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="10" width="3.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="58" t="s">
+        <v>549</v>
+      </c>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="44"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="37">
+        <v>2004</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="75" t="s">
+        <v>552</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>553</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="73">
+        <v>1</v>
+      </c>
+      <c r="I3" s="73">
+        <v>0</v>
+      </c>
+      <c r="J3" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="9" t="str">
+        <f t="shared" ref="K3:K6" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="37">
+        <v>2004</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="75" t="s">
+        <v>555</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>556</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H4" s="73">
+        <v>1</v>
+      </c>
+      <c r="I4" s="73">
+        <v>0</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="37">
+        <v>2005</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="75" t="s">
+        <v>558</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>559</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H5" s="73">
+        <v>1</v>
+      </c>
+      <c r="I5" s="73">
+        <v>0</v>
+      </c>
+      <c r="J5" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="37">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="75" t="s">
+        <v>561</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" s="73">
+        <v>1</v>
+      </c>
+      <c r="I6" s="73">
+        <v>1</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:J6">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J42" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K9" sqref="K9"/>
+      <selection pane="topRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="20" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="16" customWidth="1"/>
-    <col min="10" max="28" width="8.7109375" style="16" customWidth="1"/>
-    <col min="29" max="16384" width="14.42578125" style="16"/>
+    <col min="1" max="1" width="5.453125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="19" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="20" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="16" customWidth="1"/>
+    <col min="10" max="28" width="8.7265625" style="16" customWidth="1"/>
+    <col min="29" max="16384" width="14.453125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="45" t="s">
         <v>353</v>
       </c>
-      <c r="H1" s="44"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="38"/>
+      <c r="H1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="5" t="s">
         <v>355</v>
       </c>
@@ -3186,7 +4203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>1999</v>
       </c>
@@ -3215,7 +4232,7 @@
       </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>1999</v>
       </c>
@@ -3243,7 +4260,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>1999</v>
       </c>
@@ -3271,7 +4288,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>1999</v>
       </c>
@@ -3299,7 +4316,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>1999</v>
       </c>
@@ -3327,7 +4344,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>2000</v>
       </c>
@@ -3355,7 +4372,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>2000</v>
       </c>
@@ -3383,7 +4400,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>2000</v>
       </c>
@@ -3411,7 +4428,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>2000</v>
       </c>
@@ -3439,7 +4456,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>2000</v>
       </c>
@@ -3467,7 +4484,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>2001</v>
       </c>
@@ -3495,7 +4512,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>2001</v>
       </c>
@@ -3523,7 +4540,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>2001</v>
       </c>
@@ -3551,7 +4568,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>2001</v>
       </c>
@@ -3579,7 +4596,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <v>2001</v>
       </c>
@@ -3607,7 +4624,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <v>2002</v>
       </c>
@@ -3635,7 +4652,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <v>2002</v>
       </c>
@@ -3663,7 +4680,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
         <v>2002</v>
       </c>
@@ -3691,7 +4708,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <v>2002</v>
       </c>
@@ -3719,7 +4736,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <v>2002</v>
       </c>
@@ -3747,7 +4764,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
         <v>2003</v>
       </c>
@@ -3775,7 +4792,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
         <v>2003</v>
       </c>
@@ -3803,7 +4820,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <v>2003</v>
       </c>
@@ -3831,7 +4848,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
         <v>2003</v>
       </c>
@@ -3859,7 +4876,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
         <v>2003</v>
       </c>
@@ -3887,7 +4904,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
         <v>2004</v>
       </c>
@@ -3915,7 +4932,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
         <v>2004</v>
       </c>
@@ -3943,7 +4960,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
         <v>2004</v>
       </c>
@@ -3971,7 +4988,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
         <v>2004</v>
       </c>
@@ -3999,7 +5016,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
         <v>2004</v>
       </c>
@@ -4027,7 +5044,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
         <v>2005</v>
       </c>
@@ -4055,7 +5072,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
         <v>2005</v>
       </c>
@@ -4083,7 +5100,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
         <v>2005</v>
       </c>
@@ -4111,7 +5128,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
         <v>2005</v>
       </c>
@@ -4139,7 +5156,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
         <v>2005</v>
       </c>
@@ -4167,7 +5184,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
         <v>2006</v>
       </c>
@@ -4195,7 +5212,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
         <v>2006</v>
       </c>
@@ -4223,7 +5240,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
         <v>2006</v>
       </c>
@@ -4251,7 +5268,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
         <v>2006</v>
       </c>
@@ -4279,7 +5296,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
         <v>2006</v>
       </c>
@@ -4307,7 +5324,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
         <v>2007</v>
       </c>
@@ -4335,7 +5352,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
         <v>2007</v>
       </c>
@@ -4363,7 +5380,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="13">
         <v>2007</v>
       </c>
@@ -4391,7 +5408,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="13">
         <v>2007</v>
       </c>
@@ -4419,7 +5436,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
         <v>2007</v>
       </c>
@@ -4447,7 +5464,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="13">
         <v>2008</v>
       </c>
@@ -4475,7 +5492,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13">
         <v>2008</v>
       </c>
@@ -4503,7 +5520,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="13">
         <v>2008</v>
       </c>
@@ -4531,7 +5548,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="13">
         <v>2008</v>
       </c>
@@ -4559,7 +5576,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13">
         <v>2008</v>
       </c>
@@ -4587,7 +5604,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13">
         <v>2009</v>
       </c>
@@ -4615,7 +5632,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="13">
         <v>2009</v>
       </c>
@@ -4643,7 +5660,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13">
         <v>2009</v>
       </c>
@@ -4671,7 +5688,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13">
         <v>2009</v>
       </c>
@@ -4699,7 +5716,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="13">
         <v>2009</v>
       </c>
@@ -4727,7 +5744,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13">
         <v>2009</v>
       </c>
@@ -4755,7 +5772,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
     </row>
@@ -4768,7 +5785,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H58">
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4790,56 +5807,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N25" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N42" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C15" sqref="C15"/>
+      <selection pane="topRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="8" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="2" customWidth="1"/>
-    <col min="5" max="8" width="12.42578125" style="6" customWidth="1"/>
-    <col min="9" max="12" width="3.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="2" customWidth="1"/>
-    <col min="14" max="30" width="8.7109375" style="2" customWidth="1"/>
-    <col min="31" max="16384" width="14.42578125" style="2"/>
+    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="8" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="12.453125" style="6" customWidth="1"/>
+    <col min="9" max="12" width="3.81640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" style="2" customWidth="1"/>
+    <col min="14" max="30" width="8.7265625" style="2" customWidth="1"/>
+    <col min="31" max="16384" width="14.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="51"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="38"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="53"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="5" t="s">
         <v>355</v>
       </c>
@@ -4871,7 +5889,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2010</v>
       </c>
@@ -4917,7 +5935,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>2010</v>
       </c>
@@ -4963,7 +5981,7 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>2010</v>
       </c>
@@ -5009,7 +6027,7 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>2010</v>
       </c>
@@ -5055,7 +6073,7 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>2010</v>
       </c>
@@ -5101,7 +6119,7 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>2011</v>
       </c>
@@ -5143,7 +6161,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>2011</v>
       </c>
@@ -5185,7 +6203,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>2011</v>
       </c>
@@ -5227,7 +6245,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>2011</v>
       </c>
@@ -5269,7 +6287,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>2011</v>
       </c>
@@ -5311,7 +6329,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>2012</v>
       </c>
@@ -5353,7 +6371,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>2012</v>
       </c>
@@ -5395,7 +6413,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>2012</v>
       </c>
@@ -5437,7 +6455,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>2012</v>
       </c>
@@ -5479,7 +6497,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <v>2012</v>
       </c>
@@ -5521,7 +6539,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <v>2013</v>
       </c>
@@ -5563,7 +6581,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <v>2013</v>
       </c>
@@ -5605,7 +6623,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
         <v>2013</v>
       </c>
@@ -5647,7 +6665,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <v>2013</v>
       </c>
@@ -5689,7 +6707,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <v>2013</v>
       </c>
@@ -5731,7 +6749,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
         <v>2014</v>
       </c>
@@ -5773,7 +6791,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
         <v>2014</v>
       </c>
@@ -5815,7 +6833,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <v>2014</v>
       </c>
@@ -5857,7 +6875,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
         <v>2014</v>
       </c>
@@ -5899,7 +6917,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
         <v>2014</v>
       </c>
@@ -5941,7 +6959,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
         <v>2015</v>
       </c>
@@ -5983,7 +7001,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
         <v>2015</v>
       </c>
@@ -6025,7 +7043,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
         <v>2015</v>
       </c>
@@ -6067,7 +7085,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
         <v>2015</v>
       </c>
@@ -6109,7 +7127,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
         <v>2015</v>
       </c>
@@ -6151,7 +7169,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
         <v>2016</v>
       </c>
@@ -6193,7 +7211,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
         <v>2016</v>
       </c>
@@ -6235,7 +7253,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
         <v>2016</v>
       </c>
@@ -6277,7 +7295,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
         <v>2016</v>
       </c>
@@ -6319,7 +7337,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
         <v>2016</v>
       </c>
@@ -6361,7 +7379,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
         <v>2017</v>
       </c>
@@ -6403,7 +7421,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
         <v>2017</v>
       </c>
@@ -6445,7 +7463,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
         <v>2017</v>
       </c>
@@ -6487,7 +7505,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
         <v>2017</v>
       </c>
@@ -6529,7 +7547,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
         <v>2017</v>
       </c>
@@ -6571,7 +7589,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
         <v>2018</v>
       </c>
@@ -6611,7 +7629,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
         <v>2018</v>
       </c>
@@ -6651,7 +7669,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="13">
         <v>2018</v>
       </c>
@@ -6691,7 +7709,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="13">
         <v>2018</v>
       </c>
@@ -6731,7 +7749,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
         <v>2018</v>
       </c>
@@ -6771,7 +7789,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="13">
         <v>2019</v>
       </c>
@@ -6807,7 +7825,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13">
         <v>2019</v>
       </c>
@@ -6843,7 +7861,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="13">
         <v>2019</v>
       </c>
@@ -6879,7 +7897,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="13">
         <v>2019</v>
       </c>
@@ -6915,7 +7933,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13">
         <v>2019</v>
       </c>
@@ -6951,7 +7969,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13">
         <v>2020</v>
       </c>
@@ -6985,7 +8003,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="13">
         <v>2020</v>
       </c>
@@ -7019,7 +8037,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13">
         <v>2020</v>
       </c>
@@ -7053,7 +8071,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13">
         <v>2020</v>
       </c>
@@ -7087,7 +8105,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="13">
         <v>2020</v>
       </c>
@@ -7121,7 +8139,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13">
         <v>2021</v>
       </c>
@@ -7155,7 +8173,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -7173,7 +8191,7 @@
     <mergeCell ref="I1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:J12 L48 L50:L51 I13:K58">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7190,7 +8208,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7207,7 +8225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K12">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7224,12 +8242,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L47">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L58">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7246,7 +8264,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7275,7 +8293,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7297,51 +8315,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
+      <selection activeCell="C15" sqref="C15"/>
+      <selection pane="topRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="8" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="8" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="20" customWidth="1"/>
     <col min="7" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="27" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="10" max="27" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="52" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="54" t="s">
         <v>455</v>
       </c>
-      <c r="H1" s="53"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="38"/>
+      <c r="H1" s="55"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="5" t="s">
         <v>355</v>
       </c>
@@ -7361,7 +8380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2007</v>
       </c>
@@ -7391,7 +8410,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>2007</v>
       </c>
@@ -7421,7 +8440,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>2007</v>
       </c>
@@ -7451,7 +8470,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>2007</v>
       </c>
@@ -7481,7 +8500,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>2008</v>
       </c>
@@ -7511,7 +8530,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>2008</v>
       </c>
@@ -7541,7 +8560,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>2008</v>
       </c>
@@ -7571,7 +8590,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>2008</v>
       </c>
@@ -7601,7 +8620,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>2009</v>
       </c>
@@ -7631,7 +8650,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>2009</v>
       </c>
@@ -7661,7 +8680,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>2009</v>
       </c>
@@ -7691,7 +8710,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>2009</v>
       </c>
@@ -7721,7 +8740,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>2010</v>
       </c>
@@ -7751,7 +8770,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>2010</v>
       </c>
@@ -7781,7 +8800,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <v>2010</v>
       </c>
@@ -7811,7 +8830,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <v>2010</v>
       </c>
@@ -7841,7 +8860,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <v>2011</v>
       </c>
@@ -7871,7 +8890,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
         <v>2011</v>
       </c>
@@ -7901,7 +8920,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <v>2011</v>
       </c>
@@ -7931,7 +8950,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <v>2011</v>
       </c>
@@ -7961,7 +8980,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
         <v>2012</v>
       </c>
@@ -7991,7 +9010,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
         <v>2012</v>
       </c>
@@ -8021,7 +9040,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <v>2012</v>
       </c>
@@ -8051,7 +9070,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
         <v>2012</v>
       </c>
@@ -8081,7 +9100,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
         <v>2013</v>
       </c>
@@ -8111,7 +9130,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
         <v>2013</v>
       </c>
@@ -8141,7 +9160,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
         <v>2013</v>
       </c>
@@ -8171,7 +9190,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
         <v>2013</v>
       </c>
@@ -8201,7 +9220,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
         <v>2014</v>
       </c>
@@ -8231,7 +9250,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
         <v>2014</v>
       </c>
@@ -8261,7 +9280,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
         <v>2014</v>
       </c>
@@ -8291,7 +9310,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
         <v>2014</v>
       </c>
@@ -8321,7 +9340,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
         <v>2015</v>
       </c>
@@ -8351,7 +9370,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
         <v>2015</v>
       </c>
@@ -8381,7 +9400,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
         <v>2015</v>
       </c>
@@ -8411,7 +9430,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
         <v>2015</v>
       </c>
@@ -8441,7 +9460,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
         <v>2016</v>
       </c>
@@ -8471,7 +9490,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
         <v>2016</v>
       </c>
@@ -8501,7 +9520,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
         <v>2016</v>
       </c>
@@ -8540,7 +9559,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H41">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8562,51 +9581,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C15" sqref="C15"/>
+      <selection pane="topRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="8" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="8" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" customWidth="1"/>
     <col min="7" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="18" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="10" max="18" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="54" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="58" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="60" t="s">
         <v>455</v>
       </c>
-      <c r="H1" s="58"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="60"/>
+      <c r="H1" s="60"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="59"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="5" t="s">
         <v>355</v>
       </c>
@@ -8626,7 +9646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26">
         <v>2000</v>
       </c>
@@ -8652,7 +9672,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="26">
         <v>2001</v>
       </c>
@@ -8678,7 +9698,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="26">
         <v>2002</v>
       </c>
@@ -8704,7 +9724,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="26">
         <v>2003</v>
       </c>
@@ -8730,7 +9750,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="26">
         <v>2004</v>
       </c>
@@ -8756,7 +9776,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="26">
         <v>2005</v>
       </c>
@@ -8782,7 +9802,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26">
         <v>2006</v>
       </c>
@@ -8808,7 +9828,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26">
         <v>2007</v>
       </c>
@@ -8834,7 +9854,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="26">
         <v>2008</v>
       </c>
@@ -8860,7 +9880,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26">
         <v>2009</v>
       </c>
@@ -8888,7 +9908,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26">
         <v>2010</v>
       </c>
@@ -8916,7 +9936,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26">
         <v>2011</v>
       </c>
@@ -8944,7 +9964,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26">
         <v>2012</v>
       </c>
@@ -8972,7 +9992,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="26">
         <v>2013</v>
       </c>
@@ -9000,7 +10020,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="26">
         <v>2014</v>
       </c>
@@ -9028,7 +10048,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="26">
         <v>2015</v>
       </c>
@@ -9045,7 +10065,7 @@
       <c r="F18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="38">
         <v>1</v>
       </c>
       <c r="H18" s="1">
@@ -9056,7 +10076,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="26">
         <v>2016</v>
       </c>
@@ -9084,7 +10104,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26">
         <v>2017</v>
       </c>
@@ -9112,7 +10132,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="26">
         <v>2018</v>
       </c>
@@ -9140,7 +10160,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="26">
         <v>2019</v>
       </c>
@@ -9177,7 +10197,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9194,17 +10214,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9221,12 +10241,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9236,50 +10256,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection activeCell="C15" sqref="C15"/>
+      <selection pane="topRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="27" customWidth="1"/>
-    <col min="2" max="3" width="24.85546875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="29" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="27" customWidth="1"/>
+    <col min="2" max="3" width="24.81640625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="29" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="29" customWidth="1"/>
     <col min="7" max="8" width="5" style="29" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="61" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="65" t="s">
         <v>455</v>
       </c>
-      <c r="H1" s="63"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="38"/>
+      <c r="H1" s="65"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="59"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="5" t="s">
         <v>355</v>
       </c>
@@ -9299,7 +10320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32">
         <v>2018</v>
       </c>
@@ -9325,7 +10346,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32">
         <v>2019</v>
       </c>
@@ -9351,7 +10372,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32">
         <v>2019</v>
       </c>
@@ -9377,7 +10398,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32">
         <v>2019</v>
       </c>
@@ -9403,7 +10424,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32">
         <v>2019</v>
       </c>
@@ -9429,7 +10450,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32">
         <v>2020</v>
       </c>
@@ -9453,7 +10474,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32">
         <v>2020</v>
       </c>
@@ -9477,7 +10498,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32">
         <v>2020</v>
       </c>
@@ -9501,7 +10522,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32">
         <v>2020</v>
       </c>
@@ -9525,7 +10546,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="32">
         <v>2021</v>
       </c>
@@ -9549,7 +10570,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32">
         <v>2021</v>
       </c>
@@ -9573,7 +10594,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32">
         <v>2021</v>
       </c>
@@ -9597,7 +10618,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32">
         <v>2021</v>
       </c>
@@ -9621,7 +10642,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32">
         <v>2022</v>
       </c>
@@ -9645,7 +10666,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32">
         <v>2022</v>
       </c>
@@ -9669,7 +10690,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="32">
         <v>2022</v>
       </c>
@@ -9693,7 +10714,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32">
         <v>2022</v>
       </c>
@@ -9717,7 +10738,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32">
         <v>2023</v>
       </c>
@@ -9741,7 +10762,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32">
         <v>2023</v>
       </c>
@@ -9765,7 +10786,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="32">
         <v>2023</v>
       </c>
@@ -9789,7 +10810,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="32">
         <v>2023</v>
       </c>
@@ -9813,7 +10834,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="32">
         <v>2024</v>
       </c>
@@ -9837,7 +10858,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="32">
         <v>2024</v>
       </c>
@@ -9861,7 +10882,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="32">
         <v>2024</v>
       </c>
@@ -9885,7 +10906,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="32">
         <v>2024</v>
       </c>
@@ -9909,7 +10930,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="32">
         <v>2025</v>
       </c>
@@ -9933,7 +10954,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="32">
         <v>2025</v>
       </c>
@@ -9957,7 +10978,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="32">
         <v>2025</v>
       </c>
@@ -9981,7 +11002,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="32">
         <v>2025</v>
       </c>
@@ -10005,7 +11026,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="32">
         <v>2026</v>
       </c>
@@ -10029,7 +11050,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="32">
         <v>2026</v>
       </c>
@@ -10053,7 +11074,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="32">
         <v>2026</v>
       </c>
@@ -10077,7 +11098,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="32">
         <v>2026</v>
       </c>
@@ -10101,7 +11122,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="32">
         <v>2027</v>
       </c>
@@ -10125,7 +11146,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="32">
         <v>2027</v>
       </c>
@@ -10149,7 +11170,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="32">
         <v>2027</v>
       </c>
@@ -10173,7 +11194,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="32">
         <v>2027</v>
       </c>
@@ -10197,7 +11218,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="32">
         <v>2028</v>
       </c>
@@ -10221,7 +11242,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="32">
         <v>2028</v>
       </c>
@@ -10245,7 +11266,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="32">
         <v>2028</v>
       </c>
@@ -10269,7 +11290,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="32">
         <v>2028</v>
       </c>
@@ -10293,7 +11314,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="32">
         <v>2029</v>
       </c>
@@ -10317,7 +11338,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="32">
         <v>2029</v>
       </c>
@@ -10341,7 +11362,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="32">
         <v>2029</v>
       </c>
@@ -10365,7 +11386,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="32">
         <v>2029</v>
       </c>
@@ -10389,7 +11410,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="32">
         <v>2030</v>
       </c>
@@ -10413,7 +11434,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="32">
         <v>2030</v>
       </c>
@@ -10437,7 +11458,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="32">
         <v>2030</v>
       </c>
@@ -10461,7 +11482,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="32">
         <v>2030</v>
       </c>
@@ -10485,7 +11506,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="32">
         <v>2031</v>
       </c>
@@ -10509,7 +11530,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="32">
         <v>2031</v>
       </c>
@@ -10533,7 +11554,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="32">
         <v>2031</v>
       </c>
@@ -10557,7 +11578,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="32">
         <v>2031</v>
       </c>
@@ -10581,7 +11602,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="32">
         <v>2032</v>
       </c>
@@ -10605,7 +11626,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="32">
         <v>2032</v>
       </c>
@@ -10629,7 +11650,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="32">
         <v>2032</v>
       </c>
@@ -10653,7 +11674,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="32">
         <v>2032</v>
       </c>
@@ -10686,7 +11707,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H59">
-    <cfRule type="containsText" dxfId="3" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10708,22 +11729,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>525</v>
       </c>
@@ -10734,7 +11755,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -10745,7 +11766,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -10756,7 +11777,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -10765,6 +11786,17 @@
       </c>
       <c r="C4" s="35" t="s">
         <v>529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -10772,10 +11804,11 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="573">
   <si>
     <t>Trustees’ Garden</t>
   </si>
@@ -2559,6 +2559,30 @@
   </si>
   <si>
     <t>Very low convenience set of tables with actual mintages</t>
+  </si>
+  <si>
+    <t>182,200,000</t>
+  </si>
+  <si>
+    <t>165,800,000</t>
+  </si>
+  <si>
+    <t>142,800,000</t>
+  </si>
+  <si>
+    <t>114,400,000</t>
+  </si>
+  <si>
+    <t>116,600,000</t>
+  </si>
+  <si>
+    <t>129,400,000</t>
+  </si>
+  <si>
+    <t>223,400,000</t>
+  </si>
+  <si>
+    <t>251,600,000</t>
   </si>
 </sst>
 </file>
@@ -2960,17 +2984,20 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2978,13 +3005,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2999,7 +3059,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3007,13 +3066,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3037,80 +3090,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="24">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3273,13 +3266,12 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3302,9 +3294,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="27"/>
-    <tableColumn id="2" name="Link" dataDxfId="26" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="25"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3626,31 +3618,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53" t="s">
         <v>535</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="44"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
         <v>355</v>
       </c>
@@ -3666,13 +3658,13 @@
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="39" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="2"/>
@@ -3688,22 +3680,22 @@
         <v>536</v>
       </c>
       <c r="D3" s="22"/>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="40" t="s">
         <v>537</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="40" t="s">
         <v>538</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="H3" s="73">
-        <v>0</v>
-      </c>
-      <c r="I3" s="73">
-        <v>1</v>
-      </c>
-      <c r="J3" s="73" t="s">
+      <c r="H3" s="41">
+        <v>0</v>
+      </c>
+      <c r="I3" s="41">
+        <v>1</v>
+      </c>
+      <c r="J3" s="41" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="9" t="str">
@@ -3722,22 +3714,22 @@
         <v>539</v>
       </c>
       <c r="D4" s="22"/>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="40" t="s">
         <v>540</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="40" t="s">
         <v>541</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="H4" s="73">
-        <v>1</v>
-      </c>
-      <c r="I4" s="73">
-        <v>1</v>
-      </c>
-      <c r="J4" s="73" t="s">
+      <c r="H4" s="41">
+        <v>1</v>
+      </c>
+      <c r="I4" s="41">
+        <v>1</v>
+      </c>
+      <c r="J4" s="41" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="9" t="str">
@@ -3756,22 +3748,22 @@
         <v>542</v>
       </c>
       <c r="D5" s="22"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="40" t="s">
         <v>543</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="40" t="s">
         <v>544</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="H5" s="73">
-        <v>1</v>
-      </c>
-      <c r="I5" s="73">
-        <v>0</v>
-      </c>
-      <c r="J5" s="73" t="s">
+      <c r="H5" s="41">
+        <v>1</v>
+      </c>
+      <c r="I5" s="41">
+        <v>0</v>
+      </c>
+      <c r="J5" s="41" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="9" t="str">
@@ -3790,22 +3782,22 @@
         <v>545</v>
       </c>
       <c r="D6" s="22"/>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="40" t="s">
         <v>546</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="40" t="s">
         <v>547</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="H6" s="73">
-        <v>1</v>
-      </c>
-      <c r="I6" s="73">
-        <v>1</v>
-      </c>
-      <c r="J6" s="73" t="s">
+      <c r="H6" s="41">
+        <v>1</v>
+      </c>
+      <c r="I6" s="41">
+        <v>1</v>
+      </c>
+      <c r="J6" s="41" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="9" t="str">
@@ -3822,7 +3814,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J5">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3839,7 +3831,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3856,7 +3848,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3873,7 +3865,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3904,7 +3896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3921,31 +3913,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="47"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
       <c r="H1" s="58" t="s">
         <v>549</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="44"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
         <v>355</v>
       </c>
@@ -3961,13 +3953,13 @@
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="39" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="2"/>
@@ -3983,22 +3975,22 @@
         <v>551</v>
       </c>
       <c r="D3" s="22"/>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="42" t="s">
         <v>552</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="42" t="s">
         <v>553</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="H3" s="73">
-        <v>1</v>
-      </c>
-      <c r="I3" s="73">
-        <v>0</v>
-      </c>
-      <c r="J3" s="73" t="s">
+      <c r="H3" s="41">
+        <v>1</v>
+      </c>
+      <c r="I3" s="41">
+        <v>0</v>
+      </c>
+      <c r="J3" s="41" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="9" t="str">
@@ -4017,22 +4009,22 @@
         <v>554</v>
       </c>
       <c r="D4" s="22"/>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="42" t="s">
         <v>555</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="42" t="s">
         <v>556</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="H4" s="73">
-        <v>1</v>
-      </c>
-      <c r="I4" s="73">
-        <v>0</v>
-      </c>
-      <c r="J4" s="73" t="s">
+      <c r="H4" s="41">
+        <v>1</v>
+      </c>
+      <c r="I4" s="41">
+        <v>0</v>
+      </c>
+      <c r="J4" s="41" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="9" t="str">
@@ -4051,22 +4043,22 @@
         <v>557</v>
       </c>
       <c r="D5" s="22"/>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="42" t="s">
         <v>558</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="42" t="s">
         <v>559</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="H5" s="73">
-        <v>1</v>
-      </c>
-      <c r="I5" s="73">
-        <v>0</v>
-      </c>
-      <c r="J5" s="73" t="s">
+      <c r="H5" s="41">
+        <v>1</v>
+      </c>
+      <c r="I5" s="41">
+        <v>0</v>
+      </c>
+      <c r="J5" s="41" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="9" t="str">
@@ -4085,22 +4077,22 @@
         <v>560</v>
       </c>
       <c r="D6" s="22"/>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="42" t="s">
         <v>561</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="42" t="s">
         <v>562</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="H6" s="73">
-        <v>1</v>
-      </c>
-      <c r="I6" s="73">
-        <v>1</v>
-      </c>
-      <c r="J6" s="73" t="s">
+      <c r="H6" s="41">
+        <v>1</v>
+      </c>
+      <c r="I6" s="41">
+        <v>1</v>
+      </c>
+      <c r="J6" s="41" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="9" t="str">
@@ -4117,7 +4109,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J6">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4142,7 +4134,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J45" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K9" sqref="K9"/>
       <selection pane="topRight" activeCell="K9" sqref="K9"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
@@ -4162,28 +4154,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="45" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="H1" s="46"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
         <v>355</v>
       </c>
@@ -5785,7 +5777,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H58">
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5816,7 +5808,7 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5832,32 +5824,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="53"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
         <v>355</v>
       </c>
@@ -7802,8 +7794,12 @@
       <c r="D48" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>566</v>
+      </c>
       <c r="G48" s="5"/>
       <c r="H48" s="10" t="s">
         <v>246</v>
@@ -7838,8 +7834,12 @@
       <c r="D49" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>567</v>
+      </c>
       <c r="G49" s="5"/>
       <c r="H49" s="10" t="s">
         <v>246</v>
@@ -7874,8 +7874,12 @@
       <c r="D50" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>569</v>
+      </c>
       <c r="G50" s="5"/>
       <c r="H50" s="10" t="s">
         <v>246</v>
@@ -7910,8 +7914,12 @@
       <c r="D51" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>567</v>
+      </c>
       <c r="G51" s="5"/>
       <c r="H51" s="10" t="s">
         <v>246</v>
@@ -7946,8 +7954,12 @@
       <c r="D52" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>571</v>
+      </c>
       <c r="G52" s="5"/>
       <c r="H52" s="10" t="s">
         <v>246</v>
@@ -8191,7 +8203,7 @@
     <mergeCell ref="I1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:J12 L48 L50:L51 I13:K58">
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8208,7 +8220,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8225,7 +8237,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K12">
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8242,12 +8254,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L47">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L58">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8264,7 +8276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8293,7 +8305,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8320,7 +8332,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
@@ -8339,28 +8351,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="67" t="s">
         <v>455</v>
       </c>
-      <c r="H1" s="55"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
         <v>355</v>
       </c>
@@ -9559,7 +9571,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H41">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9586,7 +9598,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
@@ -9608,25 +9620,25 @@
       <c r="A1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="47"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="60" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="71" t="s">
         <v>455</v>
       </c>
-      <c r="H1" s="60"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59"/>
-      <c r="B2" s="62"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="5" t="s">
         <v>355</v>
       </c>
@@ -10197,7 +10209,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10214,17 +10226,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10241,12 +10253,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10260,12 +10272,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10282,25 +10294,25 @@
       <c r="A1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="75"/>
+      <c r="G1" s="76" t="s">
         <v>455</v>
       </c>
-      <c r="H1" s="65"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
         <v>355</v>
       </c>
@@ -11707,7 +11719,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H59">
-    <cfRule type="containsText" dxfId="5" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11795,7 +11807,7 @@
       <c r="B5" s="34" t="s">
         <v>563</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="43" t="s">
         <v>564</v>
       </c>
     </row>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\USA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="574">
   <si>
     <t>Trustees’ Garden</t>
   </si>
@@ -2583,6 +2583,9 @@
   </si>
   <si>
     <t>251,600,000</t>
+  </si>
+  <si>
+    <t>Elizabeth Peratrovich - Anti-Discrimination Law Of 1945</t>
   </si>
 </sst>
 </file>
@@ -3095,7 +3098,31 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD6E3BC"/>
+          <bgColor rgb="FFD6E3BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDE9D9"/>
+          <bgColor rgb="FFFDE9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3294,9 +3321,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="5"/>
+    <tableColumn id="2" name="Link" dataDxfId="4" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3608,16 +3635,16 @@
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="10" width="3.81640625" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
@@ -3640,7 +3667,7 @@
       <c r="J1" s="55"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
@@ -3669,7 +3696,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="37">
         <v>2009</v>
       </c>
@@ -3703,7 +3730,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>2009</v>
       </c>
@@ -3737,7 +3764,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="37">
         <v>2009</v>
       </c>
@@ -3771,7 +3798,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>2009</v>
       </c>
@@ -3814,7 +3841,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J5">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3831,7 +3858,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3848,7 +3875,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3865,7 +3892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3903,16 +3930,16 @@
       <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="10" width="3.81640625" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
@@ -3935,7 +3962,7 @@
       <c r="J1" s="59"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
@@ -3964,7 +3991,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="37">
         <v>2004</v>
       </c>
@@ -3998,7 +4025,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>2004</v>
       </c>
@@ -4032,7 +4059,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="37">
         <v>2005</v>
       </c>
@@ -4066,7 +4093,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>2005</v>
       </c>
@@ -4109,7 +4136,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J6">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4138,22 +4165,22 @@
       <selection activeCell="K9" sqref="K9"/>
       <selection pane="topRight" activeCell="K9" sqref="K9"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="19" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="20" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="16" customWidth="1"/>
-    <col min="10" max="28" width="8.7265625" style="16" customWidth="1"/>
-    <col min="29" max="16384" width="14.453125" style="16"/>
+    <col min="1" max="1" width="5.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="19" customWidth="1"/>
+    <col min="3" max="4" width="24.85546875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="20" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="16" customWidth="1"/>
+    <col min="10" max="28" width="8.7109375" style="16" customWidth="1"/>
+    <col min="29" max="16384" width="14.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
@@ -4173,7 +4200,7 @@
       </c>
       <c r="H1" s="61"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
@@ -4195,7 +4222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1999</v>
       </c>
@@ -4224,7 +4251,7 @@
       </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1999</v>
       </c>
@@ -4252,7 +4279,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>1999</v>
       </c>
@@ -4280,7 +4307,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>1999</v>
       </c>
@@ -4308,7 +4335,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>1999</v>
       </c>
@@ -4336,7 +4363,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>2000</v>
       </c>
@@ -4364,7 +4391,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>2000</v>
       </c>
@@ -4392,7 +4419,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>2000</v>
       </c>
@@ -4420,7 +4447,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>2000</v>
       </c>
@@ -4448,7 +4475,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>2000</v>
       </c>
@@ -4476,7 +4503,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>2001</v>
       </c>
@@ -4504,7 +4531,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>2001</v>
       </c>
@@ -4532,7 +4559,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>2001</v>
       </c>
@@ -4560,7 +4587,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>2001</v>
       </c>
@@ -4588,7 +4615,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>2001</v>
       </c>
@@ -4616,7 +4643,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>2002</v>
       </c>
@@ -4644,7 +4671,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2002</v>
       </c>
@@ -4672,7 +4699,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>2002</v>
       </c>
@@ -4700,7 +4727,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>2002</v>
       </c>
@@ -4728,7 +4755,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>2002</v>
       </c>
@@ -4756,7 +4783,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>2003</v>
       </c>
@@ -4784,7 +4811,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>2003</v>
       </c>
@@ -4812,7 +4839,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>2003</v>
       </c>
@@ -4840,7 +4867,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>2003</v>
       </c>
@@ -4868,7 +4895,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>2003</v>
       </c>
@@ -4896,7 +4923,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>2004</v>
       </c>
@@ -4924,7 +4951,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>2004</v>
       </c>
@@ -4952,7 +4979,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>2004</v>
       </c>
@@ -4980,7 +5007,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>2004</v>
       </c>
@@ -5008,7 +5035,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>2004</v>
       </c>
@@ -5036,7 +5063,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>2005</v>
       </c>
@@ -5064,7 +5091,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>2005</v>
       </c>
@@ -5092,7 +5119,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>2005</v>
       </c>
@@ -5120,7 +5147,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>2005</v>
       </c>
@@ -5148,7 +5175,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>2005</v>
       </c>
@@ -5176,7 +5203,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>2006</v>
       </c>
@@ -5204,7 +5231,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>2006</v>
       </c>
@@ -5232,7 +5259,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>2006</v>
       </c>
@@ -5260,7 +5287,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>2006</v>
       </c>
@@ -5288,7 +5315,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>2006</v>
       </c>
@@ -5316,7 +5343,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>2007</v>
       </c>
@@ -5344,7 +5371,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>2007</v>
       </c>
@@ -5372,7 +5399,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>2007</v>
       </c>
@@ -5400,7 +5427,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>2007</v>
       </c>
@@ -5428,7 +5455,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>2007</v>
       </c>
@@ -5456,7 +5483,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>2008</v>
       </c>
@@ -5484,7 +5511,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>2008</v>
       </c>
@@ -5512,7 +5539,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>2008</v>
       </c>
@@ -5540,7 +5567,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>2008</v>
       </c>
@@ -5568,7 +5595,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>2008</v>
       </c>
@@ -5596,7 +5623,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>2009</v>
       </c>
@@ -5624,7 +5651,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>2009</v>
       </c>
@@ -5652,7 +5679,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>2009</v>
       </c>
@@ -5680,7 +5707,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>2009</v>
       </c>
@@ -5708,7 +5735,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>2009</v>
       </c>
@@ -5736,7 +5763,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>2009</v>
       </c>
@@ -5764,7 +5791,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
     </row>
@@ -5777,7 +5804,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H58">
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5808,22 +5835,23 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomRight" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="8" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="2" customWidth="1"/>
-    <col min="5" max="8" width="12.453125" style="6" customWidth="1"/>
-    <col min="9" max="12" width="3.81640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" style="2" customWidth="1"/>
-    <col min="14" max="30" width="8.7265625" style="2" customWidth="1"/>
-    <col min="31" max="16384" width="14.453125" style="2"/>
+    <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="2" customWidth="1"/>
+    <col min="5" max="8" width="12.42578125" style="6" customWidth="1"/>
+    <col min="9" max="12" width="3.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="2" customWidth="1"/>
+    <col min="14" max="30" width="8.7109375" style="2" customWidth="1"/>
+    <col min="31" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
@@ -5847,7 +5875,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
@@ -5881,7 +5909,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2010</v>
       </c>
@@ -5927,7 +5955,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2010</v>
       </c>
@@ -5973,7 +6001,7 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2010</v>
       </c>
@@ -6019,7 +6047,7 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>2010</v>
       </c>
@@ -6065,7 +6093,7 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>2010</v>
       </c>
@@ -6111,7 +6139,7 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>2011</v>
       </c>
@@ -6153,7 +6181,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>2011</v>
       </c>
@@ -6195,7 +6223,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>2011</v>
       </c>
@@ -6237,7 +6265,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>2011</v>
       </c>
@@ -6279,7 +6307,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>2011</v>
       </c>
@@ -6321,7 +6349,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>2012</v>
       </c>
@@ -6363,7 +6391,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>2012</v>
       </c>
@@ -6405,7 +6433,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>2012</v>
       </c>
@@ -6447,7 +6475,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>2012</v>
       </c>
@@ -6489,7 +6517,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>2012</v>
       </c>
@@ -6531,7 +6559,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>2013</v>
       </c>
@@ -6573,7 +6601,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2013</v>
       </c>
@@ -6615,7 +6643,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>2013</v>
       </c>
@@ -6657,7 +6685,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>2013</v>
       </c>
@@ -6699,7 +6727,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>2013</v>
       </c>
@@ -6741,7 +6769,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>2014</v>
       </c>
@@ -6783,7 +6811,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>2014</v>
       </c>
@@ -6825,7 +6853,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>2014</v>
       </c>
@@ -6867,7 +6895,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>2014</v>
       </c>
@@ -6909,7 +6937,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>2014</v>
       </c>
@@ -6951,7 +6979,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>2015</v>
       </c>
@@ -6993,7 +7021,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>2015</v>
       </c>
@@ -7035,7 +7063,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>2015</v>
       </c>
@@ -7077,7 +7105,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>2015</v>
       </c>
@@ -7119,7 +7147,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>2015</v>
       </c>
@@ -7161,7 +7189,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>2016</v>
       </c>
@@ -7203,7 +7231,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>2016</v>
       </c>
@@ -7245,7 +7273,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>2016</v>
       </c>
@@ -7287,7 +7315,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>2016</v>
       </c>
@@ -7329,7 +7357,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>2016</v>
       </c>
@@ -7371,7 +7399,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>2017</v>
       </c>
@@ -7413,7 +7441,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>2017</v>
       </c>
@@ -7455,7 +7483,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>2017</v>
       </c>
@@ -7497,7 +7525,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>2017</v>
       </c>
@@ -7539,7 +7567,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>2017</v>
       </c>
@@ -7581,7 +7609,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>2018</v>
       </c>
@@ -7621,7 +7649,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>2018</v>
       </c>
@@ -7661,7 +7689,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>2018</v>
       </c>
@@ -7701,7 +7729,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>2018</v>
       </c>
@@ -7741,7 +7769,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>2018</v>
       </c>
@@ -7781,7 +7809,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>2019</v>
       </c>
@@ -7821,7 +7849,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>2019</v>
       </c>
@@ -7861,7 +7889,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>2019</v>
       </c>
@@ -7901,7 +7929,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>2019</v>
       </c>
@@ -7941,7 +7969,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>2019</v>
       </c>
@@ -7981,7 +8009,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>2020</v>
       </c>
@@ -8015,7 +8043,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>2020</v>
       </c>
@@ -8049,7 +8077,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>2020</v>
       </c>
@@ -8083,7 +8111,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>2020</v>
       </c>
@@ -8117,7 +8145,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>2020</v>
       </c>
@@ -8151,7 +8179,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>2021</v>
       </c>
@@ -8185,7 +8213,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -8203,7 +8231,7 @@
     <mergeCell ref="I1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:J12 L48 L50:L51 I13:K58">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8220,7 +8248,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8237,7 +8265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K12">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8254,12 +8282,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L47">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L58">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8276,7 +8304,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8305,7 +8333,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8339,18 +8367,18 @@
       <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="8" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="8" customWidth="1"/>
+    <col min="3" max="4" width="24.85546875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="20" customWidth="1"/>
     <col min="7" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
-    <col min="10" max="27" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
@@ -8370,7 +8398,7 @@
       </c>
       <c r="H1" s="68"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
@@ -8392,7 +8420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2007</v>
       </c>
@@ -8422,7 +8450,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2007</v>
       </c>
@@ -8452,7 +8480,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2007</v>
       </c>
@@ -8482,7 +8510,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>2007</v>
       </c>
@@ -8512,7 +8540,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>2008</v>
       </c>
@@ -8542,7 +8570,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>2008</v>
       </c>
@@ -8572,7 +8600,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>2008</v>
       </c>
@@ -8602,7 +8630,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>2008</v>
       </c>
@@ -8632,7 +8660,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>2009</v>
       </c>
@@ -8662,7 +8690,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>2009</v>
       </c>
@@ -8692,7 +8720,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>2009</v>
       </c>
@@ -8722,7 +8750,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>2009</v>
       </c>
@@ -8752,7 +8780,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>2010</v>
       </c>
@@ -8782,7 +8810,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>2010</v>
       </c>
@@ -8812,7 +8840,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>2010</v>
       </c>
@@ -8842,7 +8870,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>2010</v>
       </c>
@@ -8872,7 +8900,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2011</v>
       </c>
@@ -8902,7 +8930,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>2011</v>
       </c>
@@ -8932,7 +8960,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>2011</v>
       </c>
@@ -8962,7 +8990,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>2011</v>
       </c>
@@ -8992,7 +9020,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>2012</v>
       </c>
@@ -9022,7 +9050,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>2012</v>
       </c>
@@ -9052,7 +9080,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>2012</v>
       </c>
@@ -9082,7 +9110,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>2012</v>
       </c>
@@ -9112,7 +9140,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>2013</v>
       </c>
@@ -9142,7 +9170,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>2013</v>
       </c>
@@ -9172,7 +9200,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>2013</v>
       </c>
@@ -9202,7 +9230,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>2013</v>
       </c>
@@ -9232,7 +9260,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>2014</v>
       </c>
@@ -9262,7 +9290,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>2014</v>
       </c>
@@ -9292,7 +9320,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>2014</v>
       </c>
@@ -9322,7 +9350,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>2014</v>
       </c>
@@ -9352,7 +9380,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>2015</v>
       </c>
@@ -9382,7 +9410,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>2015</v>
       </c>
@@ -9412,7 +9440,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>2015</v>
       </c>
@@ -9442,7 +9470,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>2015</v>
       </c>
@@ -9472,7 +9500,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>2016</v>
       </c>
@@ -9502,7 +9530,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>2016</v>
       </c>
@@ -9532,7 +9560,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>2016</v>
       </c>
@@ -9571,7 +9599,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H41">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9595,28 +9623,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="8" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
-    <col min="10" max="18" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>20</v>
       </c>
@@ -9636,7 +9665,7 @@
       </c>
       <c r="H1" s="71"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="70"/>
       <c r="B2" s="73"/>
       <c r="C2" s="5" t="s">
@@ -9658,7 +9687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>2000</v>
       </c>
@@ -9684,7 +9713,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>2001</v>
       </c>
@@ -9710,7 +9739,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>2002</v>
       </c>
@@ -9736,7 +9765,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>2003</v>
       </c>
@@ -9762,7 +9791,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>2004</v>
       </c>
@@ -9788,7 +9817,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>2005</v>
       </c>
@@ -9814,7 +9843,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>2006</v>
       </c>
@@ -9840,7 +9869,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>2007</v>
       </c>
@@ -9866,7 +9895,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>2008</v>
       </c>
@@ -9892,7 +9921,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>2009</v>
       </c>
@@ -9920,7 +9949,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>2010</v>
       </c>
@@ -9948,7 +9977,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>2011</v>
       </c>
@@ -9976,7 +10005,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>2012</v>
       </c>
@@ -10004,7 +10033,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>2013</v>
       </c>
@@ -10032,7 +10061,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>2014</v>
       </c>
@@ -10060,7 +10089,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>2015</v>
       </c>
@@ -10088,7 +10117,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>2016</v>
       </c>
@@ -10116,7 +10145,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>2017</v>
       </c>
@@ -10144,7 +10173,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>2018</v>
       </c>
@@ -10172,7 +10201,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>2019</v>
       </c>
@@ -10198,6 +10227,34 @@
       <c r="I22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9" t="str">
+        <f t="shared" ref="I23" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-"),AND(H23&gt;1,H23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -10209,12 +10266,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -10226,21 +10283,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:H11">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:H11">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10252,13 +10336,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10277,20 +10361,20 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="27" customWidth="1"/>
-    <col min="2" max="3" width="24.81640625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="29" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="27" customWidth="1"/>
+    <col min="2" max="3" width="24.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="29" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="29" customWidth="1"/>
     <col min="7" max="8" width="5" style="29" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>20</v>
       </c>
@@ -10310,7 +10394,7 @@
       </c>
       <c r="H1" s="76"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="70"/>
       <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
@@ -10332,7 +10416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32">
         <v>2018</v>
       </c>
@@ -10358,7 +10442,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
         <v>2019</v>
       </c>
@@ -10384,7 +10468,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
         <v>2019</v>
       </c>
@@ -10410,7 +10494,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
         <v>2019</v>
       </c>
@@ -10436,7 +10520,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
         <v>2019</v>
       </c>
@@ -10462,7 +10546,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
         <v>2020</v>
       </c>
@@ -10486,7 +10570,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
         <v>2020</v>
       </c>
@@ -10510,7 +10594,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
         <v>2020</v>
       </c>
@@ -10534,7 +10618,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
         <v>2020</v>
       </c>
@@ -10558,7 +10642,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>2021</v>
       </c>
@@ -10582,7 +10666,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>2021</v>
       </c>
@@ -10606,7 +10690,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>2021</v>
       </c>
@@ -10630,7 +10714,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
         <v>2021</v>
       </c>
@@ -10654,7 +10738,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
         <v>2022</v>
       </c>
@@ -10678,7 +10762,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
         <v>2022</v>
       </c>
@@ -10702,7 +10786,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
         <v>2022</v>
       </c>
@@ -10726,7 +10810,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
         <v>2022</v>
       </c>
@@ -10750,7 +10834,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
         <v>2023</v>
       </c>
@@ -10774,7 +10858,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32">
         <v>2023</v>
       </c>
@@ -10798,7 +10882,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
         <v>2023</v>
       </c>
@@ -10822,7 +10906,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32">
         <v>2023</v>
       </c>
@@ -10846,7 +10930,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32">
         <v>2024</v>
       </c>
@@ -10870,7 +10954,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32">
         <v>2024</v>
       </c>
@@ -10894,7 +10978,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32">
         <v>2024</v>
       </c>
@@ -10918,7 +11002,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32">
         <v>2024</v>
       </c>
@@ -10942,7 +11026,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32">
         <v>2025</v>
       </c>
@@ -10966,7 +11050,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32">
         <v>2025</v>
       </c>
@@ -10990,7 +11074,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32">
         <v>2025</v>
       </c>
@@ -11014,7 +11098,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32">
         <v>2025</v>
       </c>
@@ -11038,7 +11122,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
         <v>2026</v>
       </c>
@@ -11062,7 +11146,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32">
         <v>2026</v>
       </c>
@@ -11086,7 +11170,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32">
         <v>2026</v>
       </c>
@@ -11110,7 +11194,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32">
         <v>2026</v>
       </c>
@@ -11134,7 +11218,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32">
         <v>2027</v>
       </c>
@@ -11158,7 +11242,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32">
         <v>2027</v>
       </c>
@@ -11182,7 +11266,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
         <v>2027</v>
       </c>
@@ -11206,7 +11290,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32">
         <v>2027</v>
       </c>
@@ -11230,7 +11314,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32">
         <v>2028</v>
       </c>
@@ -11254,7 +11338,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32">
         <v>2028</v>
       </c>
@@ -11278,7 +11362,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32">
         <v>2028</v>
       </c>
@@ -11302,7 +11386,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="32">
         <v>2028</v>
       </c>
@@ -11326,7 +11410,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32">
         <v>2029</v>
       </c>
@@ -11350,7 +11434,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32">
         <v>2029</v>
       </c>
@@ -11374,7 +11458,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="32">
         <v>2029</v>
       </c>
@@ -11398,7 +11482,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="32">
         <v>2029</v>
       </c>
@@ -11422,7 +11506,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="32">
         <v>2030</v>
       </c>
@@ -11446,7 +11530,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32">
         <v>2030</v>
       </c>
@@ -11470,7 +11554,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32">
         <v>2030</v>
       </c>
@@ -11494,7 +11578,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32">
         <v>2030</v>
       </c>
@@ -11518,7 +11602,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="32">
         <v>2031</v>
       </c>
@@ -11542,7 +11626,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32">
         <v>2031</v>
       </c>
@@ -11566,7 +11650,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32">
         <v>2031</v>
       </c>
@@ -11590,7 +11674,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32">
         <v>2031</v>
       </c>
@@ -11614,7 +11698,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32">
         <v>2032</v>
       </c>
@@ -11638,7 +11722,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32">
         <v>2032</v>
       </c>
@@ -11662,7 +11746,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32">
         <v>2032</v>
       </c>
@@ -11686,7 +11770,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32">
         <v>2032</v>
       </c>
@@ -11719,7 +11803,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H59">
-    <cfRule type="containsText" dxfId="3" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11746,17 +11830,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>525</v>
       </c>
@@ -11767,7 +11851,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -11778,7 +11862,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -11789,7 +11873,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -11800,7 +11884,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>4</v>
       </c>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\USA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEBF3BB-0594-4965-96D5-69D43DB493C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -21,25 +22,17 @@
     <sheet name="&quot;American_Innovation_Dollars&quot;" sheetId="3" r:id="rId7"/>
     <sheet name="Links" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -106,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -178,12 +171,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -198,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -224,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -250,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -291,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -322,12 +315,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -342,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -368,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -383,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -414,12 +407,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -434,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -460,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -486,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -501,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -516,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -542,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -568,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -588,12 +581,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -608,7 +601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -634,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -649,7 +642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -680,12 +673,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -700,7 +693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -726,7 +719,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -741,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -772,12 +765,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -792,7 +785,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -818,7 +811,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -833,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -864,7 +857,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="584">
   <si>
     <t>Trustees’ Garden</t>
   </si>
@@ -2586,13 +2579,43 @@
   </si>
   <si>
     <t>Elizabeth Peratrovich - Anti-Discrimination Law Of 1945</t>
+  </si>
+  <si>
+    <t>American Indians in the U.S. Military</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Gerber Variable Scale</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Hubble Space Telescope</t>
+  </si>
+  <si>
+    <t>Septima Poinsette Clark</t>
+  </si>
+  <si>
+    <t>Video Game Console</t>
+  </si>
+  <si>
+    <t>Chesapeake Bay Bridge Tunnel</t>
+  </si>
+  <si>
+    <t>Erie Canal</t>
+  </si>
+  <si>
+    <t>First Public University</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2680,6 +2703,12 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -3098,7 +3127,55 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD6E3BC"/>
+          <bgColor rgb="FFD6E3BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDE9D9"/>
+          <bgColor rgb="FFFDE9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD6E3BC"/>
+          <bgColor rgb="FFD6E3BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDE9D9"/>
+          <bgColor rgb="FFFDE9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3131,6 +3208,30 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD6E3BC"/>
+          <bgColor rgb="FFD6E3BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDE9D9"/>
+          <bgColor rgb="FFFDE9D9"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3314,16 +3415,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица4" displayName="Таблица4" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="5"/>
-    <tableColumn id="2" name="Link" dataDxfId="4" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="10" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3625,7 +3726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3841,7 +3942,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J5">
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3858,7 +3959,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3875,7 +3976,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3892,7 +3993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3909,7 +4010,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="H3:J6">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="H3:J6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -3920,7 +4021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4136,7 +4237,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J6">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4157,11 +4258,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J39" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K9" sqref="K9"/>
       <selection pane="topRight" activeCell="K9" sqref="K9"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
@@ -5804,7 +5905,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H58">
-    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5827,7 +5928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5835,7 +5936,7 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8025,7 +8126,9 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
+      <c r="H53" s="10" t="s">
+        <v>246</v>
+      </c>
       <c r="I53" s="14">
         <v>0</v>
       </c>
@@ -8059,7 +8162,9 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
+      <c r="H54" s="10" t="s">
+        <v>246</v>
+      </c>
       <c r="I54" s="14">
         <v>0</v>
       </c>
@@ -8093,7 +8198,9 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
+      <c r="H55" s="10" t="s">
+        <v>246</v>
+      </c>
       <c r="I55" s="14">
         <v>0</v>
       </c>
@@ -8127,7 +8234,9 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
+      <c r="H56" s="10" t="s">
+        <v>246</v>
+      </c>
       <c r="I56" s="14">
         <v>0</v>
       </c>
@@ -8161,7 +8270,9 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
+      <c r="H57" s="10" t="s">
+        <v>246</v>
+      </c>
       <c r="I57" s="14">
         <v>0</v>
       </c>
@@ -8230,8 +8341,9 @@
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="I3:J12 L48 L50:L51 I13:K58">
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8248,7 +8360,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8265,7 +8377,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K12">
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8282,12 +8394,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L47">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L58">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8304,7 +8416,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8333,7 +8445,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8356,11 +8468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
@@ -9599,7 +9711,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H41">
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9622,15 +9734,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10257,6 +10369,34 @@
         <v/>
       </c>
     </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
+        <v>2021</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="str">
+        <f t="shared" ref="I24" si="2">IF(OR(AND(G24&gt;1,G24&lt;&gt;"-"),AND(H24&gt;1,H24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E1:F1"/>
@@ -10266,12 +10406,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -10283,21 +10423,75 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:H11">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:H11">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10309,22 +10503,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
+  <conditionalFormatting sqref="H24">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
+  <conditionalFormatting sqref="H24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10336,12 +10530,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
+  <conditionalFormatting sqref="H24">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
+  <conditionalFormatting sqref="H24">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10353,15 +10547,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J42" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10556,7 +10750,9 @@
       <c r="C8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="22" t="s">
+        <v>576</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="33">
@@ -10580,7 +10776,9 @@
       <c r="C9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>577</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="33">
@@ -10604,7 +10802,9 @@
       <c r="C10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>578</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="33">
@@ -10628,7 +10828,9 @@
       <c r="C11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>579</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="33">
@@ -10652,7 +10854,9 @@
       <c r="C12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>580</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="33">
@@ -10676,7 +10880,9 @@
       <c r="C13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>581</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="33">
@@ -10700,7 +10906,9 @@
       <c r="C14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>582</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="33">
@@ -10724,7 +10932,9 @@
       <c r="C15" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>583</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="33">
@@ -11803,7 +12013,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H59">
-    <cfRule type="containsText" dxfId="6" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11826,7 +12036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11897,10 +12107,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEBF3BB-0594-4965-96D5-69D43DB493C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEDD11C-AF85-4880-ACFB-9BB51912E410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -3127,22 +3127,15 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="33">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD6E3BC"/>
-          <bgColor rgb="FFD6E3BC"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFDE9D9"/>
-          <bgColor rgb="FFFDE9D9"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3191,23 +3184,6 @@
           <bgColor rgb="FFFDE9D9"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3422,9 +3398,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="10" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3942,7 +3918,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J5">
-    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3959,7 +3935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3976,7 +3952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3993,7 +3969,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4237,7 +4213,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J6">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5905,7 +5881,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H58">
-    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5931,12 +5907,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N30" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomRight" activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8238,10 +8214,10 @@
         <v>246</v>
       </c>
       <c r="I56" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="14">
         <v>0</v>
@@ -8343,7 +8319,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="I3:J12 L48 L50:L51 I13:K58">
-    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8360,7 +8336,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8377,7 +8353,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K12">
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8394,12 +8370,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L47">
-    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L58">
-    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8416,7 +8392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7">
-    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8445,7 +8421,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9711,7 +9687,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H41">
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10406,7 +10382,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10423,17 +10399,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="19" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10450,17 +10426,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10477,17 +10453,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10504,17 +10480,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10531,12 +10507,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10550,12 +10526,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J42" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10756,10 +10732,10 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12013,7 +11989,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H59">
-    <cfRule type="containsText" dxfId="12" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\USA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEDD11C-AF85-4880-ACFB-9BB51912E410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C406C14-7804-44CC-9F1D-BD83E1ADA7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -19,10 +19,22 @@
     <sheet name="&quot;The_Beautiful_Quarters&quot;" sheetId="6" r:id="rId4"/>
     <sheet name="&quot;Presidential_Dollars&quot;" sheetId="1" r:id="rId5"/>
     <sheet name="&quot;Sacagawea&amp;Native_Dollars&quot;" sheetId="2" r:id="rId6"/>
-    <sheet name="&quot;American_Innovation_Dollars&quot;" sheetId="3" r:id="rId7"/>
-    <sheet name="Links" sheetId="4" r:id="rId8"/>
+    <sheet name="&quot;American_Women_Quarters&quot;" sheetId="9" r:id="rId7"/>
+    <sheet name="&quot;American_Innovation_Dollars&quot;" sheetId="3" r:id="rId8"/>
+    <sheet name="Links" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -770,6 +782,150 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{2A3F070E-8E92-42F3-9D26-46FC73E04D52}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Philadelphia mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{814B43D4-7094-4D91-8083-114905126C7B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> Denver mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{0EB878E2-80DA-44D0-BBB9-6EE2E996DE43}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>San Francisco mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{C5AB39AF-F19E-4DDD-B7D7-E1D3C89E9228}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Philadelphia mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{E5604564-90F2-42D3-8470-FF5CDA91EC5D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> Denver mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{2372614E-1CFA-4731-99C7-3E957EC4E982}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>San Francisco mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
@@ -857,7 +1013,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="663">
   <si>
     <t>Trustees’ Garden</t>
   </si>
@@ -2584,9 +2740,6 @@
     <t>American Indians in the U.S. Military</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Gerber Variable Scale</t>
   </si>
   <si>
@@ -2609,6 +2762,246 @@
   </si>
   <si>
     <t>First Public University</t>
+  </si>
+  <si>
+    <t>304,000,000</t>
+  </si>
+  <si>
+    <t>160,400,000</t>
+  </si>
+  <si>
+    <t>313,200,000</t>
+  </si>
+  <si>
+    <t>286,000,000</t>
+  </si>
+  <si>
+    <t>155,000,000</t>
+  </si>
+  <si>
+    <t>125,600,000</t>
+  </si>
+  <si>
+    <t>515,000,000</t>
+  </si>
+  <si>
+    <t>580,200,000</t>
+  </si>
+  <si>
+    <t>304,600,000</t>
+  </si>
+  <si>
+    <t>345,800,000</t>
+  </si>
+  <si>
+    <t>101,200,000</t>
+  </si>
+  <si>
+    <t>858,572</t>
+  </si>
+  <si>
+    <t>951,612</t>
+  </si>
+  <si>
+    <t>945,449</t>
+  </si>
+  <si>
+    <t>949,947</t>
+  </si>
+  <si>
+    <t>961,229</t>
+  </si>
+  <si>
+    <t>955,145</t>
+  </si>
+  <si>
+    <t>??2,000,000??</t>
+  </si>
+  <si>
+    <t>945,719</t>
+  </si>
+  <si>
+    <t>952,795</t>
+  </si>
+  <si>
+    <t>924,503</t>
+  </si>
+  <si>
+    <t>870,361</t>
+  </si>
+  <si>
+    <t>896,361</t>
+  </si>
+  <si>
+    <t>882,666</t>
+  </si>
+  <si>
+    <t>904,321</t>
+  </si>
+  <si>
+    <t>946,617</t>
+  </si>
+  <si>
+    <t>946,974</t>
+  </si>
+  <si>
+    <t>946,859</t>
+  </si>
+  <si>
+    <t>Maya Angelou</t>
+  </si>
+  <si>
+    <t>American Women Quarters</t>
+  </si>
+  <si>
+    <t>Dr Sally Ride</t>
+  </si>
+  <si>
+    <t>Willma Mankiller</t>
+  </si>
+  <si>
+    <t>Nina Otero Warren</t>
+  </si>
+  <si>
+    <t>Anna May Wong</t>
+  </si>
+  <si>
+    <t>Bessie Coleman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edith Kanaka'Ole	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eleanor Roosevelt	</t>
+  </si>
+  <si>
+    <t>Joviat Idar</t>
+  </si>
+  <si>
+    <t>Maria Tallchief</t>
+  </si>
+  <si>
+    <t>Pauli Murray</t>
+  </si>
+  <si>
+    <t>Patsy Mink</t>
+  </si>
+  <si>
+    <t>Dr Mary Edwards Walker</t>
+  </si>
+  <si>
+    <t>Celia Cruz</t>
+  </si>
+  <si>
+    <t>Zikata-Sa</t>
+  </si>
+  <si>
+    <t>237,600,000</t>
+  </si>
+  <si>
+    <t>258,200,000</t>
+  </si>
+  <si>
+    <t>303,520</t>
+  </si>
+  <si>
+    <t>275,200,000</t>
+  </si>
+  <si>
+    <t>278,000,000</t>
+  </si>
+  <si>
+    <t>304,120</t>
+  </si>
+  <si>
+    <t>310,000,000</t>
+  </si>
+  <si>
+    <t>296,800,000</t>
+  </si>
+  <si>
+    <t>304,640</t>
+  </si>
+  <si>
+    <t>219,200,000</t>
+  </si>
+  <si>
+    <t>305,560</t>
+  </si>
+  <si>
+    <t>240,800,000</t>
+  </si>
+  <si>
+    <t>304,680</t>
+  </si>
+  <si>
+    <t>302,000,000</t>
+  </si>
+  <si>
+    <t>317,200,000</t>
+  </si>
+  <si>
+    <t>500,360</t>
+  </si>
+  <si>
+    <t>372,800,000</t>
+  </si>
+  <si>
+    <t>368,600,000</t>
+  </si>
+  <si>
+    <t>503,400</t>
+  </si>
+  <si>
+    <t>284,000,000</t>
+  </si>
+  <si>
+    <t>271,800,000</t>
+  </si>
+  <si>
+    <t>507,120</t>
+  </si>
+  <si>
+    <t>190,600,000</t>
+  </si>
+  <si>
+    <t>188,000,000</t>
+  </si>
+  <si>
+    <t>503,200</t>
+  </si>
+  <si>
+    <t>489,800</t>
+  </si>
+  <si>
+    <t>George H.W. Bush</t>
+  </si>
+  <si>
+    <t>41th president</t>
+  </si>
+  <si>
+    <t>1,264,226</t>
+  </si>
+  <si>
+    <t>1,515,875</t>
+  </si>
+  <si>
+    <t>Ely S. Parker</t>
+  </si>
+  <si>
+    <t>980,000</t>
+  </si>
+  <si>
+    <t>1,260,000</t>
+  </si>
+  <si>
+    <t>Maria Tallchief and American Indians in Ballet</t>
+  </si>
+  <si>
+    <t>1,120,000</t>
+  </si>
+  <si>
+    <t>Indian Citizenship Act of 1924</t>
   </si>
 </sst>
 </file>
@@ -3127,15 +3520,158 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="53">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD6E3BC"/>
+          <bgColor rgb="FFD6E3BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDE9D9"/>
+          <bgColor rgb="FFFDE9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD6E3BC"/>
+          <bgColor rgb="FFD6E3BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDE9D9"/>
+          <bgColor rgb="FFFDE9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD6E3BC"/>
+          <bgColor rgb="FFD6E3BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDE9D9"/>
+          <bgColor rgb="FFFDE9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD6E3BC"/>
+          <bgColor rgb="FFD6E3BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDE9D9"/>
+          <bgColor rgb="FFFDE9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD6E3BC"/>
+          <bgColor rgb="FFD6E3BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDE9D9"/>
+          <bgColor rgb="FFFDE9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD6E3BC"/>
+          <bgColor rgb="FFD6E3BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDE9D9"/>
+          <bgColor rgb="FFFDE9D9"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3377,6 +3913,23 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3398,9 +3951,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="51" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3712,16 +4265,16 @@
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="10" width="3.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="10" width="3.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
@@ -3744,7 +4297,7 @@
       <c r="J1" s="55"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="45"/>
       <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
@@ -3773,7 +4326,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="37">
         <v>2009</v>
       </c>
@@ -3807,7 +4360,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="37">
         <v>2009</v>
       </c>
@@ -3841,7 +4394,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="37">
         <v>2009</v>
       </c>
@@ -3875,7 +4428,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="37">
         <v>2009</v>
       </c>
@@ -3918,7 +4471,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J5">
-    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3935,7 +4488,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3952,7 +4505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3969,7 +4522,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4007,16 +4560,16 @@
       <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="10" width="3.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="10" width="3.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
@@ -4039,7 +4592,7 @@
       <c r="J1" s="59"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="45"/>
       <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
@@ -4068,7 +4621,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="37">
         <v>2004</v>
       </c>
@@ -4102,7 +4655,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="37">
         <v>2004</v>
       </c>
@@ -4136,7 +4689,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="37">
         <v>2005</v>
       </c>
@@ -4170,7 +4723,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="37">
         <v>2005</v>
       </c>
@@ -4213,7 +4766,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J6">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4238,26 +4791,26 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J27" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K9" sqref="K9"/>
       <selection pane="topRight" activeCell="K9" sqref="K9"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
-      <selection pane="bottomRight" activeCell="D81" sqref="D81"/>
+      <selection pane="bottomRight" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="20" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="16" customWidth="1"/>
-    <col min="10" max="28" width="8.7109375" style="16" customWidth="1"/>
-    <col min="29" max="16384" width="14.42578125" style="16"/>
+    <col min="1" max="1" width="5.453125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="19" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="20" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="16" customWidth="1"/>
+    <col min="10" max="28" width="8.7265625" style="16" customWidth="1"/>
+    <col min="29" max="16384" width="14.453125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
@@ -4277,7 +4830,7 @@
       </c>
       <c r="H1" s="61"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45"/>
       <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
@@ -4299,7 +4852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>1999</v>
       </c>
@@ -4328,7 +4881,7 @@
       </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>1999</v>
       </c>
@@ -4356,7 +4909,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>1999</v>
       </c>
@@ -4384,7 +4937,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>1999</v>
       </c>
@@ -4412,7 +4965,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>1999</v>
       </c>
@@ -4440,7 +4993,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>2000</v>
       </c>
@@ -4468,7 +5021,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>2000</v>
       </c>
@@ -4496,7 +5049,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>2000</v>
       </c>
@@ -4524,7 +5077,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>2000</v>
       </c>
@@ -4545,14 +5098,14 @@
         <v>6</v>
       </c>
       <c r="H11" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>2000</v>
       </c>
@@ -4580,7 +5133,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>2001</v>
       </c>
@@ -4608,7 +5161,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>2001</v>
       </c>
@@ -4636,7 +5189,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>2001</v>
       </c>
@@ -4664,7 +5217,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>2001</v>
       </c>
@@ -4692,7 +5245,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <v>2001</v>
       </c>
@@ -4713,14 +5266,14 @@
         <v>1</v>
       </c>
       <c r="H17" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <v>2002</v>
       </c>
@@ -4748,7 +5301,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <v>2002</v>
       </c>
@@ -4769,14 +5322,14 @@
         <v>1</v>
       </c>
       <c r="H19" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
         <v>2002</v>
       </c>
@@ -4804,7 +5357,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <v>2002</v>
       </c>
@@ -4832,7 +5385,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <v>2002</v>
       </c>
@@ -4860,7 +5413,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
         <v>2003</v>
       </c>
@@ -4888,7 +5441,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
         <v>2003</v>
       </c>
@@ -4916,7 +5469,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <v>2003</v>
       </c>
@@ -4944,7 +5497,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
         <v>2003</v>
       </c>
@@ -4972,7 +5525,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
         <v>2003</v>
       </c>
@@ -5000,7 +5553,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
         <v>2004</v>
       </c>
@@ -5028,7 +5581,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
         <v>2004</v>
       </c>
@@ -5056,7 +5609,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
         <v>2004</v>
       </c>
@@ -5084,7 +5637,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
         <v>2004</v>
       </c>
@@ -5112,7 +5665,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
         <v>2004</v>
       </c>
@@ -5140,7 +5693,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
         <v>2005</v>
       </c>
@@ -5168,7 +5721,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
         <v>2005</v>
       </c>
@@ -5196,7 +5749,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
         <v>2005</v>
       </c>
@@ -5224,7 +5777,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
         <v>2005</v>
       </c>
@@ -5252,7 +5805,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
         <v>2005</v>
       </c>
@@ -5280,7 +5833,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
         <v>2006</v>
       </c>
@@ -5301,14 +5854,14 @@
         <v>1</v>
       </c>
       <c r="H38" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
         <v>2006</v>
       </c>
@@ -5336,7 +5889,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
         <v>2006</v>
       </c>
@@ -5364,7 +5917,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
         <v>2006</v>
       </c>
@@ -5392,7 +5945,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
         <v>2006</v>
       </c>
@@ -5420,7 +5973,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
         <v>2007</v>
       </c>
@@ -5441,14 +5994,14 @@
         <v>5</v>
       </c>
       <c r="H43" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
         <v>2007</v>
       </c>
@@ -5476,7 +6029,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="13">
         <v>2007</v>
       </c>
@@ -5504,7 +6057,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="13">
         <v>2007</v>
       </c>
@@ -5525,14 +6078,14 @@
         <v>2</v>
       </c>
       <c r="H46" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
         <v>2007</v>
       </c>
@@ -5553,14 +6106,14 @@
         <v>2</v>
       </c>
       <c r="H47" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="13">
         <v>2008</v>
       </c>
@@ -5588,7 +6141,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13">
         <v>2008</v>
       </c>
@@ -5616,7 +6169,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="13">
         <v>2008</v>
       </c>
@@ -5644,7 +6197,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="13">
         <v>2008</v>
       </c>
@@ -5672,7 +6225,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13">
         <v>2008</v>
       </c>
@@ -5700,7 +6253,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13">
         <v>2009</v>
       </c>
@@ -5728,7 +6281,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="13">
         <v>2009</v>
       </c>
@@ -5756,7 +6309,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13">
         <v>2009</v>
       </c>
@@ -5784,7 +6337,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13">
         <v>2009</v>
       </c>
@@ -5812,7 +6365,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="13">
         <v>2009</v>
       </c>
@@ -5840,7 +6393,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13">
         <v>2009</v>
       </c>
@@ -5868,7 +6421,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
     </row>
@@ -5881,7 +6434,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H58">
-    <cfRule type="containsText" dxfId="27" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5907,28 +6460,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N30" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="M56" sqref="M56"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" style="2" customWidth="1"/>
-    <col min="5" max="8" width="12.42578125" style="6" customWidth="1"/>
-    <col min="9" max="12" width="3.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="2" customWidth="1"/>
-    <col min="14" max="30" width="8.7109375" style="2" customWidth="1"/>
-    <col min="31" max="16384" width="14.42578125" style="2"/>
+    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.7265625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="12.453125" style="6" customWidth="1"/>
+    <col min="9" max="12" width="3.81640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" style="2" customWidth="1"/>
+    <col min="14" max="29" width="8.7265625" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="14.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
@@ -5952,7 +6505,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45"/>
       <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
@@ -5986,7 +6539,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2010</v>
       </c>
@@ -6032,7 +6585,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>2010</v>
       </c>
@@ -6078,7 +6631,7 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>2010</v>
       </c>
@@ -6124,7 +6677,7 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>2010</v>
       </c>
@@ -6170,7 +6723,7 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>2010</v>
       </c>
@@ -6216,7 +6769,7 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>2011</v>
       </c>
@@ -6258,7 +6811,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>2011</v>
       </c>
@@ -6300,7 +6853,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>2011</v>
       </c>
@@ -6342,7 +6895,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>2011</v>
       </c>
@@ -6384,7 +6937,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>2011</v>
       </c>
@@ -6426,7 +6979,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>2012</v>
       </c>
@@ -6468,7 +7021,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>2012</v>
       </c>
@@ -6510,7 +7063,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>2012</v>
       </c>
@@ -6552,7 +7105,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>2012</v>
       </c>
@@ -6594,7 +7147,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <v>2012</v>
       </c>
@@ -6623,7 +7176,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="14">
         <v>1</v>
@@ -6636,7 +7189,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <v>2013</v>
       </c>
@@ -6678,7 +7231,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <v>2013</v>
       </c>
@@ -6720,7 +7273,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
         <v>2013</v>
       </c>
@@ -6762,7 +7315,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <v>2013</v>
       </c>
@@ -6804,7 +7357,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <v>2013</v>
       </c>
@@ -6833,7 +7386,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" s="14">
         <v>1</v>
@@ -6846,7 +7399,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
         <v>2014</v>
       </c>
@@ -6888,7 +7441,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
         <v>2014</v>
       </c>
@@ -6930,7 +7483,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <v>2014</v>
       </c>
@@ -6972,7 +7525,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
         <v>2014</v>
       </c>
@@ -7001,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" s="14">
         <v>1</v>
@@ -7011,10 +7564,10 @@
       </c>
       <c r="M26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
         <v>2014</v>
       </c>
@@ -7056,7 +7609,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
         <v>2015</v>
       </c>
@@ -7098,7 +7651,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
         <v>2015</v>
       </c>
@@ -7140,7 +7693,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
         <v>2015</v>
       </c>
@@ -7169,7 +7722,7 @@
         <v>3</v>
       </c>
       <c r="J30" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="14">
         <v>1</v>
@@ -7182,7 +7735,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
         <v>2015</v>
       </c>
@@ -7211,7 +7764,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="14">
         <v>1</v>
@@ -7224,7 +7777,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
         <v>2015</v>
       </c>
@@ -7266,7 +7819,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
         <v>2016</v>
       </c>
@@ -7308,7 +7861,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
         <v>2016</v>
       </c>
@@ -7350,7 +7903,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
         <v>2016</v>
       </c>
@@ -7392,7 +7945,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
         <v>2016</v>
       </c>
@@ -7421,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="14">
         <v>1</v>
@@ -7434,7 +7987,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
         <v>2016</v>
       </c>
@@ -7476,7 +8029,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
         <v>2017</v>
       </c>
@@ -7518,7 +8071,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
         <v>2017</v>
       </c>
@@ -7547,7 +8100,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="14">
         <v>1</v>
@@ -7560,7 +8113,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
         <v>2017</v>
       </c>
@@ -7602,7 +8155,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
         <v>2017</v>
       </c>
@@ -7644,7 +8197,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
         <v>2017</v>
       </c>
@@ -7686,7 +8239,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
         <v>2018</v>
       </c>
@@ -7705,7 +8258,9 @@
       <c r="F43" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="G43" s="5"/>
+      <c r="G43" s="5" t="s">
+        <v>608</v>
+      </c>
       <c r="H43" s="21" t="s">
         <v>15</v>
       </c>
@@ -7713,7 +8268,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="14">
         <v>1</v>
@@ -7726,7 +8281,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
         <v>2018</v>
       </c>
@@ -7745,7 +8300,9 @@
       <c r="F44" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="G44" s="5"/>
+      <c r="G44" s="5" t="s">
+        <v>607</v>
+      </c>
       <c r="H44" s="21" t="s">
         <v>15</v>
       </c>
@@ -7766,7 +8323,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="13">
         <v>2018</v>
       </c>
@@ -7785,7 +8342,9 @@
       <c r="F45" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="G45" s="5"/>
+      <c r="G45" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="H45" s="21" t="s">
         <v>15</v>
       </c>
@@ -7806,7 +8365,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="13">
         <v>2018</v>
       </c>
@@ -7825,7 +8384,9 @@
       <c r="F46" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="G46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>605</v>
+      </c>
       <c r="H46" s="21" t="s">
         <v>15</v>
       </c>
@@ -7846,7 +8407,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
         <v>2018</v>
       </c>
@@ -7865,7 +8426,9 @@
       <c r="F47" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="G47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>604</v>
+      </c>
       <c r="H47" s="21" t="s">
         <v>15</v>
       </c>
@@ -7886,7 +8449,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="13">
         <v>2019</v>
       </c>
@@ -7905,7 +8468,9 @@
       <c r="F48" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="G48" s="5"/>
+      <c r="G48" s="5" t="s">
+        <v>603</v>
+      </c>
       <c r="H48" s="10" t="s">
         <v>246</v>
       </c>
@@ -7926,7 +8491,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13">
         <v>2019</v>
       </c>
@@ -7945,7 +8510,9 @@
       <c r="F49" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="G49" s="5"/>
+      <c r="G49" s="5" t="s">
+        <v>602</v>
+      </c>
       <c r="H49" s="10" t="s">
         <v>246</v>
       </c>
@@ -7953,7 +8520,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K49" s="14">
         <v>1</v>
@@ -7963,10 +8530,10 @@
       </c>
       <c r="M49" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="13">
         <v>2019</v>
       </c>
@@ -7985,7 +8552,9 @@
       <c r="F50" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="G50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>601</v>
+      </c>
       <c r="H50" s="10" t="s">
         <v>246</v>
       </c>
@@ -8006,7 +8575,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="13">
         <v>2019</v>
       </c>
@@ -8025,7 +8594,9 @@
       <c r="F51" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="G51" s="5"/>
+      <c r="G51" s="5" t="s">
+        <v>609</v>
+      </c>
       <c r="H51" s="10" t="s">
         <v>246</v>
       </c>
@@ -8046,7 +8617,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13">
         <v>2019</v>
       </c>
@@ -8065,7 +8636,9 @@
       <c r="F52" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="G52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>610</v>
+      </c>
       <c r="H52" s="10" t="s">
         <v>246</v>
       </c>
@@ -8086,7 +8659,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13">
         <v>2020</v>
       </c>
@@ -8099,9 +8672,15 @@
       <c r="D53" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>599</v>
+      </c>
       <c r="H53" s="10" t="s">
         <v>246</v>
       </c>
@@ -8122,7 +8701,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="13">
         <v>2020</v>
       </c>
@@ -8135,9 +8714,15 @@
       <c r="D54" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>598</v>
+      </c>
       <c r="H54" s="10" t="s">
         <v>246</v>
       </c>
@@ -8158,7 +8743,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13">
         <v>2020</v>
       </c>
@@ -8171,9 +8756,15 @@
       <c r="D55" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>597</v>
+      </c>
       <c r="H55" s="10" t="s">
         <v>246</v>
       </c>
@@ -8181,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="14">
         <v>0</v>
@@ -8194,7 +8785,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13">
         <v>2020</v>
       </c>
@@ -8207,9 +8798,15 @@
       <c r="D56" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
+      <c r="E56" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="H56" s="10" t="s">
         <v>246</v>
       </c>
@@ -8230,7 +8827,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="13">
         <v>2020</v>
       </c>
@@ -8243,9 +8840,15 @@
       <c r="D57" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>595</v>
+      </c>
       <c r="H57" s="10" t="s">
         <v>246</v>
       </c>
@@ -8266,7 +8869,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13">
         <v>2021</v>
       </c>
@@ -8279,10 +8882,18 @@
       <c r="D58" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>600</v>
+      </c>
       <c r="I58" s="14">
         <v>0</v>
       </c>
@@ -8300,7 +8911,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -8319,7 +8930,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="I3:J12 L48 L50:L51 I13:K58">
-    <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="16" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8336,7 +8947,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8353,7 +8964,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K12">
-    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8370,12 +8981,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L47">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L58">
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8392,7 +9003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8421,7 +9032,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8445,28 +9056,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="8" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="8" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="20" customWidth="1"/>
     <col min="7" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="27" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="10" max="27" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
@@ -8486,7 +9097,7 @@
       </c>
       <c r="H1" s="68"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45"/>
       <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
@@ -8508,7 +9119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2007</v>
       </c>
@@ -8538,7 +9149,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>2007</v>
       </c>
@@ -8568,7 +9179,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>2007</v>
       </c>
@@ -8598,7 +9209,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>2007</v>
       </c>
@@ -8628,7 +9239,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>2008</v>
       </c>
@@ -8658,7 +9269,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>2008</v>
       </c>
@@ -8688,7 +9299,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>2008</v>
       </c>
@@ -8718,7 +9329,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>2008</v>
       </c>
@@ -8748,7 +9359,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>2009</v>
       </c>
@@ -8778,7 +9389,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>2009</v>
       </c>
@@ -8808,7 +9419,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>2009</v>
       </c>
@@ -8838,7 +9449,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>2009</v>
       </c>
@@ -8868,7 +9479,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>2010</v>
       </c>
@@ -8898,7 +9509,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>2010</v>
       </c>
@@ -8928,7 +9539,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <v>2010</v>
       </c>
@@ -8958,7 +9569,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <v>2010</v>
       </c>
@@ -8988,7 +9599,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <v>2011</v>
       </c>
@@ -9018,7 +9629,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
         <v>2011</v>
       </c>
@@ -9048,7 +9659,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <v>2011</v>
       </c>
@@ -9078,7 +9689,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <v>2011</v>
       </c>
@@ -9108,7 +9719,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
         <v>2012</v>
       </c>
@@ -9138,7 +9749,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
         <v>2012</v>
       </c>
@@ -9168,7 +9779,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <v>2012</v>
       </c>
@@ -9198,7 +9809,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
         <v>2012</v>
       </c>
@@ -9228,7 +9839,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
         <v>2013</v>
       </c>
@@ -9258,7 +9869,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
         <v>2013</v>
       </c>
@@ -9288,7 +9899,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
         <v>2013</v>
       </c>
@@ -9318,7 +9929,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
         <v>2013</v>
       </c>
@@ -9348,7 +9959,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
         <v>2014</v>
       </c>
@@ -9378,7 +9989,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
         <v>2014</v>
       </c>
@@ -9408,7 +10019,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
         <v>2014</v>
       </c>
@@ -9438,7 +10049,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
         <v>2014</v>
       </c>
@@ -9468,7 +10079,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
         <v>2015</v>
       </c>
@@ -9498,7 +10109,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
         <v>2015</v>
       </c>
@@ -9528,7 +10139,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
         <v>2015</v>
       </c>
@@ -9558,7 +10169,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
         <v>2015</v>
       </c>
@@ -9588,7 +10199,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
         <v>2016</v>
       </c>
@@ -9618,7 +10229,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
         <v>2016</v>
       </c>
@@ -9648,7 +10259,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
         <v>2016</v>
       </c>
@@ -9675,6 +10286,36 @@
       </c>
       <c r="I41" s="9" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="13">
+        <v>2020</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="9" t="str">
+        <f t="shared" ref="I42" si="1">IF(OR(AND(G42&gt;1,G42&lt;&gt;"-"),AND(H42&gt;1,H42&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -9687,12 +10328,29 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H41">
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H41">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42:H42">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42:H42">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -9711,29 +10369,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" customWidth="1"/>
     <col min="7" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="18" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="10" max="18" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
         <v>20</v>
       </c>
@@ -9753,7 +10411,7 @@
       </c>
       <c r="H1" s="71"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="70"/>
       <c r="B2" s="73"/>
       <c r="C2" s="5" t="s">
@@ -9775,7 +10433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26">
         <v>2000</v>
       </c>
@@ -9801,7 +10459,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="26">
         <v>2001</v>
       </c>
@@ -9827,7 +10485,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="26">
         <v>2002</v>
       </c>
@@ -9853,7 +10511,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="26">
         <v>2003</v>
       </c>
@@ -9879,7 +10537,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="26">
         <v>2004</v>
       </c>
@@ -9905,7 +10563,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="26">
         <v>2005</v>
       </c>
@@ -9931,7 +10589,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26">
         <v>2006</v>
       </c>
@@ -9957,7 +10615,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26">
         <v>2007</v>
       </c>
@@ -9983,7 +10641,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="26">
         <v>2008</v>
       </c>
@@ -10009,7 +10667,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26">
         <v>2009</v>
       </c>
@@ -10037,7 +10695,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26">
         <v>2010</v>
       </c>
@@ -10065,7 +10723,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26">
         <v>2011</v>
       </c>
@@ -10093,7 +10751,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26">
         <v>2012</v>
       </c>
@@ -10121,7 +10779,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="26">
         <v>2013</v>
       </c>
@@ -10149,7 +10807,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="26">
         <v>2014</v>
       </c>
@@ -10177,7 +10835,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="26">
         <v>2015</v>
       </c>
@@ -10205,7 +10863,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="26">
         <v>2016</v>
       </c>
@@ -10233,7 +10891,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26">
         <v>2017</v>
       </c>
@@ -10261,7 +10919,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="26">
         <v>2018</v>
       </c>
@@ -10289,7 +10947,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="26">
         <v>2019</v>
       </c>
@@ -10317,7 +10975,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="26">
         <v>2020</v>
       </c>
@@ -10345,7 +11003,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="26">
         <v>2021</v>
       </c>
@@ -10357,10 +11015,10 @@
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="5" t="s">
-        <v>575</v>
+        <v>659</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>575</v>
+        <v>659</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -10370,6 +11028,86 @@
       </c>
       <c r="I24" s="9" t="str">
         <f t="shared" ref="I24" si="2">IF(OR(AND(G24&gt;1,G24&lt;&gt;"-"),AND(H24&gt;1,H24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="26">
+        <v>2022</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9" t="str">
+        <f t="shared" ref="I25" si="3">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-"),AND(H25&gt;1,H25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="26">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9" t="str">
+        <f t="shared" ref="I26:I27" si="4">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-"),AND(H26&gt;1,H26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="26">
+        <v>2024</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -10382,12 +11120,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="56" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -10399,21 +11137,210 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="16" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="59" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:H11">
+    <cfRule type="cellIs" dxfId="30" priority="51" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:H11">
+    <cfRule type="cellIs" dxfId="29" priority="52" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="containsText" dxfId="28" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="cellIs" dxfId="27" priority="47" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="cellIs" dxfId="26" priority="48" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="25" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="23" priority="40" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="22" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="20" priority="36" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" dxfId="17" priority="32" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="14" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="11" priority="24" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10425,22 +11352,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="greaterThan">
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
+  <conditionalFormatting sqref="G27">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10452,23 +11379,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="greaterThan">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -10479,23 +11406,590 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB08FCB-4607-4875-B1CE-F05341C08ADF}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="8" customWidth="1"/>
+    <col min="3" max="4" width="24.26953125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="12.453125" style="6" customWidth="1"/>
+    <col min="8" max="10" width="3.81640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="str">
+        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="str">
+        <f t="shared" ref="K4:K17" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>2</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>2022</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>2</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>1</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>2</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="13">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="13">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="13">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="13">
+        <v>2024</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="13">
+        <v>2024</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="13">
+        <v>2024</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="13">
+        <v>2024</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="13">
+        <v>2024</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="14">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:J17">
+    <cfRule type="containsText" dxfId="1" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="H3:J17">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -10506,45 +12000,34 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G3:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="27" customWidth="1"/>
-    <col min="2" max="3" width="24.85546875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="29" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="27" customWidth="1"/>
+    <col min="2" max="3" width="24.81640625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="29" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="29" customWidth="1"/>
     <col min="7" max="8" width="5" style="29" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
         <v>20</v>
       </c>
@@ -10564,7 +12047,7 @@
       </c>
       <c r="H1" s="76"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="70"/>
       <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
@@ -10586,7 +12069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32">
         <v>2018</v>
       </c>
@@ -10612,7 +12095,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32">
         <v>2019</v>
       </c>
@@ -10638,7 +12121,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32">
         <v>2019</v>
       </c>
@@ -10664,7 +12147,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32">
         <v>2019</v>
       </c>
@@ -10690,7 +12173,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32">
         <v>2019</v>
       </c>
@@ -10716,7 +12199,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32">
         <v>2020</v>
       </c>
@@ -10727,7 +12210,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -10742,7 +12225,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32">
         <v>2020</v>
       </c>
@@ -10753,7 +12236,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -10768,7 +12251,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32">
         <v>2020</v>
       </c>
@@ -10779,7 +12262,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -10794,7 +12277,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32">
         <v>2020</v>
       </c>
@@ -10805,7 +12288,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -10820,7 +12303,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="32">
         <v>2021</v>
       </c>
@@ -10831,7 +12314,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -10846,7 +12329,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32">
         <v>2021</v>
       </c>
@@ -10857,7 +12340,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -10872,7 +12355,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32">
         <v>2021</v>
       </c>
@@ -10883,7 +12366,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -10898,7 +12381,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32">
         <v>2021</v>
       </c>
@@ -10909,7 +12392,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -10924,7 +12407,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32">
         <v>2022</v>
       </c>
@@ -10948,7 +12431,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32">
         <v>2022</v>
       </c>
@@ -10972,7 +12455,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="32">
         <v>2022</v>
       </c>
@@ -10996,7 +12479,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32">
         <v>2022</v>
       </c>
@@ -11020,7 +12503,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32">
         <v>2023</v>
       </c>
@@ -11044,7 +12527,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32">
         <v>2023</v>
       </c>
@@ -11068,7 +12551,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="32">
         <v>2023</v>
       </c>
@@ -11092,7 +12575,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="32">
         <v>2023</v>
       </c>
@@ -11116,7 +12599,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="32">
         <v>2024</v>
       </c>
@@ -11140,7 +12623,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="32">
         <v>2024</v>
       </c>
@@ -11164,7 +12647,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="32">
         <v>2024</v>
       </c>
@@ -11188,7 +12671,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="32">
         <v>2024</v>
       </c>
@@ -11212,7 +12695,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="32">
         <v>2025</v>
       </c>
@@ -11236,7 +12719,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="32">
         <v>2025</v>
       </c>
@@ -11260,7 +12743,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="32">
         <v>2025</v>
       </c>
@@ -11284,7 +12767,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="32">
         <v>2025</v>
       </c>
@@ -11308,7 +12791,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="32">
         <v>2026</v>
       </c>
@@ -11332,7 +12815,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="32">
         <v>2026</v>
       </c>
@@ -11356,7 +12839,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="32">
         <v>2026</v>
       </c>
@@ -11380,7 +12863,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="32">
         <v>2026</v>
       </c>
@@ -11404,7 +12887,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="32">
         <v>2027</v>
       </c>
@@ -11428,7 +12911,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="32">
         <v>2027</v>
       </c>
@@ -11452,7 +12935,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="32">
         <v>2027</v>
       </c>
@@ -11476,7 +12959,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="32">
         <v>2027</v>
       </c>
@@ -11500,7 +12983,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="32">
         <v>2028</v>
       </c>
@@ -11524,7 +13007,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="32">
         <v>2028</v>
       </c>
@@ -11548,7 +13031,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="32">
         <v>2028</v>
       </c>
@@ -11572,7 +13055,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="32">
         <v>2028</v>
       </c>
@@ -11596,7 +13079,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="32">
         <v>2029</v>
       </c>
@@ -11620,7 +13103,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="32">
         <v>2029</v>
       </c>
@@ -11644,7 +13127,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="32">
         <v>2029</v>
       </c>
@@ -11668,7 +13151,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="32">
         <v>2029</v>
       </c>
@@ -11692,7 +13175,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="32">
         <v>2030</v>
       </c>
@@ -11716,7 +13199,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="32">
         <v>2030</v>
       </c>
@@ -11740,7 +13223,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="32">
         <v>2030</v>
       </c>
@@ -11764,7 +13247,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="32">
         <v>2030</v>
       </c>
@@ -11788,7 +13271,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="32">
         <v>2031</v>
       </c>
@@ -11812,7 +13295,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="32">
         <v>2031</v>
       </c>
@@ -11836,7 +13319,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="32">
         <v>2031</v>
       </c>
@@ -11860,7 +13343,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="32">
         <v>2031</v>
       </c>
@@ -11884,7 +13367,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="32">
         <v>2032</v>
       </c>
@@ -11908,7 +13391,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="32">
         <v>2032</v>
       </c>
@@ -11932,7 +13415,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="32">
         <v>2032</v>
       </c>
@@ -11956,7 +13439,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="32">
         <v>2032</v>
       </c>
@@ -11989,7 +13472,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H59">
-    <cfRule type="containsText" dxfId="3" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12011,22 +13494,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>525</v>
       </c>
@@ -12037,7 +13520,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -12048,7 +13531,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -12059,7 +13542,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -12070,7 +13553,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="23">
         <v>4</v>
       </c>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C406C14-7804-44CC-9F1D-BD83E1ADA7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B21B0E-9304-49D3-B593-3EF696EBA08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="2310" windowWidth="28800" windowHeight="17740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
     <sheet name="&quot;Westward_Journey_Nickels&quot;" sheetId="8" r:id="rId2"/>
     <sheet name="&quot;State&amp;Territorial_Quarters&quot;" sheetId="5" r:id="rId3"/>
     <sheet name="&quot;The_Beautiful_Quarters&quot;" sheetId="6" r:id="rId4"/>
-    <sheet name="&quot;Presidential_Dollars&quot;" sheetId="1" r:id="rId5"/>
-    <sheet name="&quot;Sacagawea&amp;Native_Dollars&quot;" sheetId="2" r:id="rId6"/>
-    <sheet name="&quot;American_Women_Quarters&quot;" sheetId="9" r:id="rId7"/>
+    <sheet name="&quot;American_Women_Quarters&quot;" sheetId="9" r:id="rId5"/>
+    <sheet name="&quot;Presidential_Dollars&quot;" sheetId="1" r:id="rId6"/>
+    <sheet name="&quot;Sacagawea&amp;Native_Dollars&quot;" sheetId="2" r:id="rId7"/>
     <sheet name="&quot;American_Innovation_Dollars&quot;" sheetId="3" r:id="rId8"/>
     <sheet name="Links" sheetId="4" r:id="rId9"/>
   </sheets>
@@ -598,190 +598,6 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Philadelphia mint</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> Denver mint</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Philadelphia mint</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> Denver mint</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Philadelphia mint</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> Denver mint</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Philadelphia mint</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> Denver mint</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{2A3F070E-8E92-42F3-9D26-46FC73E04D52}">
       <text>
         <r>
@@ -920,6 +736,190 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Philadelphia mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> Denver mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Philadelphia mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> Denver mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Philadelphia mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> Denver mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Philadelphia mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> Denver mint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="665">
   <si>
     <t>Trustees’ Garden</t>
   </si>
@@ -1078,9 +1078,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -2851,9 +2848,6 @@
     <t>Maya Angelou</t>
   </si>
   <si>
-    <t>American Women Quarters</t>
-  </si>
-  <si>
     <t>Dr Sally Ride</t>
   </si>
   <si>
@@ -3002,6 +2996,18 @@
   </si>
   <si>
     <t>Indian Citizenship Act of 1924</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>State Quarters</t>
+  </si>
+  <si>
+    <t>American Women Quarter</t>
+  </si>
+  <si>
+    <t>Obv: Wounded Eagle</t>
   </si>
 </sst>
 </file>
@@ -3305,7 +3311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3500,12 +3506,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3521,14 +3521,6 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="53">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3790,6 +3782,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFDE9D9"/>
           <bgColor rgb="FFFDE9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4262,7 +4262,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4279,10 +4279,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>661</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>22</v>
       </c>
       <c r="D1" s="49"/>
       <c r="E1" s="50" t="s">
@@ -4291,7 +4291,7 @@
       <c r="F1" s="51"/>
       <c r="G1" s="52"/>
       <c r="H1" s="53" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I1" s="54"/>
       <c r="J1" s="55"/>
@@ -4301,10 +4301,10 @@
       <c r="A2" s="45"/>
       <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
@@ -4331,20 +4331,20 @@
         <v>2009</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="40" t="s">
+        <v>536</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>537</v>
       </c>
-      <c r="F3" s="40" t="s">
-        <v>538</v>
-      </c>
       <c r="G3" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H3" s="41">
         <v>0</v>
@@ -4365,20 +4365,20 @@
         <v>2009</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>540</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>541</v>
-      </c>
       <c r="G4" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H4" s="41">
         <v>1</v>
@@ -4399,20 +4399,20 @@
         <v>2009</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>543</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>544</v>
-      </c>
       <c r="G5" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H5" s="41">
         <v>1</v>
@@ -4433,20 +4433,20 @@
         <v>2009</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>546</v>
       </c>
-      <c r="F6" s="40" t="s">
-        <v>547</v>
-      </c>
       <c r="G6" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H6" s="41">
         <v>1</v>
@@ -4554,10 +4554,10 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4574,10 +4574,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>661</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>22</v>
       </c>
       <c r="D1" s="49"/>
       <c r="E1" s="56" t="s">
@@ -4586,7 +4586,7 @@
       <c r="F1" s="57"/>
       <c r="G1" s="57"/>
       <c r="H1" s="58" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I1" s="59"/>
       <c r="J1" s="59"/>
@@ -4596,10 +4596,10 @@
       <c r="A2" s="45"/>
       <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
@@ -4629,17 +4629,17 @@
         <v>550</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="42" t="s">
+        <v>551</v>
+      </c>
+      <c r="F3" s="42" t="s">
         <v>552</v>
       </c>
-      <c r="F3" s="42" t="s">
-        <v>553</v>
-      </c>
       <c r="G3" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H3" s="41">
         <v>1</v>
@@ -4660,20 +4660,20 @@
         <v>2004</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="42" t="s">
+        <v>554</v>
+      </c>
+      <c r="F4" s="42" t="s">
         <v>555</v>
       </c>
-      <c r="F4" s="42" t="s">
-        <v>556</v>
-      </c>
       <c r="G4" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H4" s="41">
         <v>1</v>
@@ -4694,20 +4694,20 @@
         <v>2005</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="F5" s="42" t="s">
         <v>558</v>
       </c>
-      <c r="F5" s="42" t="s">
-        <v>559</v>
-      </c>
       <c r="G5" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H5" s="41">
         <v>1</v>
@@ -4728,20 +4728,20 @@
         <v>2005</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="F6" s="42" t="s">
         <v>561</v>
       </c>
-      <c r="F6" s="42" t="s">
-        <v>562</v>
-      </c>
       <c r="G6" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H6" s="41">
         <v>1</v>
@@ -4791,11 +4791,11 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K9" sqref="K9"/>
       <selection pane="topRight" activeCell="K9" sqref="K9"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
-      <selection pane="bottomRight" activeCell="K62" sqref="K62"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4815,10 +4815,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>661</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>22</v>
       </c>
       <c r="D1" s="49"/>
       <c r="E1" s="50" t="s">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="F1" s="60"/>
       <c r="G1" s="48" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1" s="61"/>
     </row>
@@ -4834,10 +4834,10 @@
       <c r="A2" s="45"/>
       <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
@@ -4860,14 +4860,14 @@
         <v>23</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>24</v>
+        <v>662</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G3" s="14">
         <v>2</v>
@@ -4886,17 +4886,17 @@
         <v>1999</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G4" s="14">
         <v>1</v>
@@ -4914,17 +4914,17 @@
         <v>1999</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G5" s="14">
         <v>1</v>
@@ -4942,17 +4942,17 @@
         <v>1999</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G6" s="14">
         <v>1</v>
@@ -4970,17 +4970,17 @@
         <v>1999</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G7" s="14">
         <v>4</v>
@@ -4998,17 +4998,17 @@
         <v>2000</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G8" s="14">
         <v>2</v>
@@ -5026,17 +5026,17 @@
         <v>2000</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G9" s="14">
         <v>2</v>
@@ -5054,17 +5054,17 @@
         <v>2000</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G10" s="14">
         <v>3</v>
@@ -5082,17 +5082,17 @@
         <v>2000</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G11" s="14">
         <v>6</v>
@@ -5110,17 +5110,17 @@
         <v>2000</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G12" s="14">
         <v>6</v>
@@ -5138,17 +5138,17 @@
         <v>2001</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="14">
         <v>1</v>
@@ -5166,17 +5166,17 @@
         <v>2001</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G14" s="14">
         <v>1</v>
@@ -5194,17 +5194,17 @@
         <v>2001</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G15" s="14">
         <v>2</v>
@@ -5222,17 +5222,17 @@
         <v>2001</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="14">
         <v>1</v>
@@ -5250,17 +5250,17 @@
         <v>2001</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G17" s="14">
         <v>1</v>
@@ -5278,17 +5278,17 @@
         <v>2002</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" s="14">
         <v>1</v>
@@ -5306,17 +5306,17 @@
         <v>2002</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" s="14">
         <v>1</v>
@@ -5334,17 +5334,17 @@
         <v>2002</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="14">
         <v>1</v>
@@ -5362,17 +5362,17 @@
         <v>2002</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G21" s="14">
         <v>2</v>
@@ -5390,17 +5390,17 @@
         <v>2002</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G22" s="14">
         <v>1</v>
@@ -5418,17 +5418,17 @@
         <v>2003</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G23" s="14">
         <v>1</v>
@@ -5446,17 +5446,17 @@
         <v>2003</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G24" s="14">
         <v>1</v>
@@ -5474,17 +5474,17 @@
         <v>2003</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G25" s="14">
         <v>1</v>
@@ -5502,17 +5502,17 @@
         <v>2003</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" s="14">
         <v>1</v>
@@ -5530,17 +5530,17 @@
         <v>2003</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G27" s="14">
         <v>1</v>
@@ -5558,17 +5558,17 @@
         <v>2004</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G28" s="14">
         <v>2</v>
@@ -5586,17 +5586,17 @@
         <v>2004</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G29" s="14">
         <v>1</v>
@@ -5614,17 +5614,17 @@
         <v>2004</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G30" s="14">
         <v>1</v>
@@ -5642,17 +5642,17 @@
         <v>2004</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G31" s="14">
         <v>1</v>
@@ -5670,17 +5670,17 @@
         <v>2004</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G32" s="14">
         <v>1</v>
@@ -5698,17 +5698,17 @@
         <v>2005</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G33" s="14">
         <v>2</v>
@@ -5726,17 +5726,17 @@
         <v>2005</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G34" s="14">
         <v>3</v>
@@ -5754,17 +5754,17 @@
         <v>2005</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G35" s="14">
         <v>2</v>
@@ -5782,17 +5782,17 @@
         <v>2005</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G36" s="14">
         <v>1</v>
@@ -5810,17 +5810,17 @@
         <v>2005</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G37" s="14">
         <v>1</v>
@@ -5838,17 +5838,17 @@
         <v>2006</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G38" s="14">
         <v>1</v>
@@ -5866,17 +5866,17 @@
         <v>2006</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G39" s="14">
         <v>1</v>
@@ -5894,17 +5894,17 @@
         <v>2006</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G40" s="14">
         <v>2</v>
@@ -5922,17 +5922,17 @@
         <v>2006</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G41" s="14">
         <v>1</v>
@@ -5950,17 +5950,17 @@
         <v>2006</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G42" s="14">
         <v>3</v>
@@ -5978,17 +5978,17 @@
         <v>2007</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G43" s="14">
         <v>5</v>
@@ -6006,17 +6006,17 @@
         <v>2007</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G44" s="14">
         <v>2</v>
@@ -6034,17 +6034,17 @@
         <v>2007</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G45" s="14">
         <v>1</v>
@@ -6062,17 +6062,17 @@
         <v>2007</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G46" s="14">
         <v>2</v>
@@ -6090,17 +6090,17 @@
         <v>2007</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G47" s="14">
         <v>2</v>
@@ -6118,17 +6118,17 @@
         <v>2008</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G48" s="14">
         <v>2</v>
@@ -6146,17 +6146,17 @@
         <v>2008</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G49" s="14">
         <v>2</v>
@@ -6174,17 +6174,17 @@
         <v>2008</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G50" s="14">
         <v>1</v>
@@ -6202,17 +6202,17 @@
         <v>2008</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G51" s="14">
         <v>1</v>
@@ -6230,17 +6230,17 @@
         <v>2008</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G52" s="14">
         <v>1</v>
@@ -6258,17 +6258,17 @@
         <v>2009</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>521</v>
+        <v>183</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>184</v>
+        <v>520</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="G53" s="14">
         <v>1</v>
@@ -6286,17 +6286,17 @@
         <v>2009</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>521</v>
+        <v>170</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>171</v>
+        <v>520</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="G54" s="14">
         <v>1</v>
@@ -6314,17 +6314,17 @@
         <v>2009</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>521</v>
+        <v>171</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>172</v>
+        <v>520</v>
       </c>
       <c r="D55" s="22"/>
       <c r="E55" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="G55" s="14">
         <v>1</v>
@@ -6342,17 +6342,17 @@
         <v>2009</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>521</v>
+        <v>172</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>173</v>
+        <v>520</v>
       </c>
       <c r="D56" s="22"/>
       <c r="E56" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="G56" s="14">
         <v>1</v>
@@ -6370,17 +6370,17 @@
         <v>2009</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>521</v>
+        <v>180</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>181</v>
+        <v>520</v>
       </c>
       <c r="D57" s="22"/>
       <c r="E57" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G57" s="14">
         <v>1</v>
@@ -6398,17 +6398,17 @@
         <v>2009</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>521</v>
+        <v>182</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>183</v>
+        <v>520</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="G58" s="14">
         <v>1</v>
@@ -6460,20 +6460,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.36328125" style="8" customWidth="1"/>
+    <col min="3" max="4" width="24.90625" style="2" customWidth="1"/>
     <col min="5" max="8" width="12.453125" style="6" customWidth="1"/>
     <col min="9" max="12" width="3.81640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="13.7265625" style="2" customWidth="1"/>
@@ -6486,10 +6485,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>661</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>22</v>
       </c>
       <c r="D1" s="49"/>
       <c r="E1" s="62" t="s">
@@ -6499,7 +6498,7 @@
       <c r="G1" s="63"/>
       <c r="H1" s="64"/>
       <c r="I1" s="65" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J1" s="59"/>
       <c r="K1" s="59"/>
@@ -6509,10 +6508,10 @@
       <c r="A2" s="45"/>
       <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
@@ -6524,7 +6523,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>17</v>
@@ -6536,7 +6535,7 @@
         <v>19</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6544,22 +6543,22 @@
         <v>2010</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>245</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>15</v>
@@ -6590,22 +6589,22 @@
         <v>2010</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>245</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>15</v>
@@ -6636,22 +6635,22 @@
         <v>2010</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>245</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>15</v>
@@ -6682,22 +6681,22 @@
         <v>2010</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>245</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>15</v>
@@ -6728,22 +6727,22 @@
         <v>2010</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>245</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>15</v>
@@ -6774,22 +6773,22 @@
         <v>2011</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>245</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>15</v>
@@ -6816,22 +6815,22 @@
         <v>2011</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>245</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>15</v>
@@ -6858,22 +6857,22 @@
         <v>2011</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>245</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>15</v>
@@ -6900,22 +6899,22 @@
         <v>2011</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>245</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>15</v>
@@ -6942,22 +6941,22 @@
         <v>2011</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>245</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>15</v>
@@ -6984,22 +6983,22 @@
         <v>2012</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>15</v>
@@ -7026,22 +7025,22 @@
         <v>2012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>70</v>
+        <v>243</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>15</v>
@@ -7068,22 +7067,22 @@
         <v>2012</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>15</v>
@@ -7110,22 +7109,22 @@
         <v>2012</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>15</v>
@@ -7152,22 +7151,22 @@
         <v>2012</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>15</v>
@@ -7194,22 +7193,22 @@
         <v>2013</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>32</v>
+        <v>243</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H18" s="21" t="s">
         <v>15</v>
@@ -7236,22 +7235,22 @@
         <v>2013</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H19" s="21" t="s">
         <v>15</v>
@@ -7278,22 +7277,22 @@
         <v>2013</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>204</v>
+        <v>58</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H20" s="21" t="s">
         <v>15</v>
@@ -7320,22 +7319,22 @@
         <v>2013</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H21" s="21" t="s">
         <v>15</v>
@@ -7362,22 +7361,22 @@
         <v>2013</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>63</v>
+        <v>243</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>206</v>
+        <v>62</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>15</v>
@@ -7404,22 +7403,22 @@
         <v>2014</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H23" s="21" t="s">
         <v>15</v>
@@ -7446,22 +7445,22 @@
         <v>2014</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>15</v>
@@ -7488,22 +7487,22 @@
         <v>2014</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>68</v>
+        <v>243</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>15</v>
@@ -7530,22 +7529,22 @@
         <v>2014</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>61</v>
+        <v>243</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>15</v>
@@ -7572,22 +7571,22 @@
         <v>2014</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>15</v>
@@ -7614,22 +7613,22 @@
         <v>2015</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>60</v>
+        <v>243</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>15</v>
@@ -7656,22 +7655,22 @@
         <v>2015</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>15</v>
@@ -7698,22 +7697,22 @@
         <v>2015</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>35</v>
+        <v>243</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>214</v>
+        <v>34</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H30" s="21" t="s">
         <v>15</v>
@@ -7740,22 +7739,22 @@
         <v>2015</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H31" s="21" t="s">
         <v>15</v>
@@ -7782,22 +7781,22 @@
         <v>2015</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>216</v>
+        <v>33</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>15</v>
@@ -7824,22 +7823,22 @@
         <v>2016</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H33" s="21" t="s">
         <v>15</v>
@@ -7866,22 +7865,22 @@
         <v>2016</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>15</v>
@@ -7908,22 +7907,22 @@
         <v>2016</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>58</v>
+        <v>243</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>219</v>
+        <v>57</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H35" s="21" t="s">
         <v>15</v>
@@ -7950,22 +7949,22 @@
         <v>2016</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>62</v>
+        <v>243</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H36" s="21" t="s">
         <v>15</v>
@@ -7992,22 +7991,22 @@
         <v>2016</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>31</v>
+        <v>243</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H37" s="21" t="s">
         <v>15</v>
@@ -8034,22 +8033,22 @@
         <v>2017</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H38" s="21" t="s">
         <v>15</v>
@@ -8076,22 +8075,22 @@
         <v>2017</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H39" s="21" t="s">
         <v>15</v>
@@ -8118,22 +8117,22 @@
         <v>2017</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>47</v>
+        <v>243</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H40" s="21" t="s">
         <v>15</v>
@@ -8160,22 +8159,22 @@
         <v>2017</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H41" s="21" t="s">
         <v>15</v>
@@ -8202,22 +8201,22 @@
         <v>2017</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H42" s="21" t="s">
         <v>15</v>
@@ -8244,22 +8243,22 @@
         <v>2018</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H43" s="21" t="s">
         <v>15</v>
@@ -8286,22 +8285,22 @@
         <v>2018</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>228</v>
+        <v>52</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H44" s="21" t="s">
         <v>15</v>
@@ -8328,22 +8327,22 @@
         <v>2018</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>55</v>
+        <v>243</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H45" s="21" t="s">
         <v>15</v>
@@ -8370,22 +8369,22 @@
         <v>2018</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H46" s="21" t="s">
         <v>15</v>
@@ -8412,22 +8411,22 @@
         <v>2018</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H47" s="21" t="s">
         <v>15</v>
@@ -8454,25 +8453,25 @@
         <v>2019</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="E48" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>566</v>
-      </c>
       <c r="G48" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I48" s="14">
         <v>6</v>
@@ -8496,25 +8495,25 @@
         <v>2019</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I49" s="14">
         <v>1</v>
@@ -8538,25 +8537,25 @@
         <v>2019</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="E50" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>569</v>
-      </c>
       <c r="G50" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I50" s="14">
         <v>1</v>
@@ -8580,25 +8579,25 @@
         <v>2019</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>51</v>
+        <v>243</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>235</v>
+        <v>50</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I51" s="14">
         <v>1</v>
@@ -8622,25 +8621,25 @@
         <v>2019</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>236</v>
+        <v>65</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I52" s="14">
         <v>1</v>
@@ -8664,25 +8663,25 @@
         <v>2020</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I53" s="14">
         <v>0</v>
@@ -8706,25 +8705,25 @@
         <v>2020</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I54" s="14">
         <v>0</v>
@@ -8748,25 +8747,25 @@
         <v>2020</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I55" s="14">
         <v>0</v>
@@ -8790,25 +8789,25 @@
         <v>2020</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="E56" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>592</v>
-      </c>
       <c r="G56" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I56" s="14">
         <v>1</v>
@@ -8832,25 +8831,25 @@
         <v>2020</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>57</v>
+        <v>243</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>242</v>
+        <v>56</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I57" s="14">
         <v>0</v>
@@ -8874,25 +8873,25 @@
         <v>2021</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I58" s="14">
         <v>0</v>
@@ -8917,7 +8916,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="20"/>
       <c r="N59" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -9055,15 +9054,598 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB08FCB-4607-4875-B1CE-F05341C08ADF}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="8" customWidth="1"/>
+    <col min="3" max="4" width="24.26953125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="12.453125" style="6" customWidth="1"/>
+    <col min="8" max="10" width="3.81640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>661</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="str">
+        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="str">
+        <f t="shared" ref="K4:K17" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>2</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>2022</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>2</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>1</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>2</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="13">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="13">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="13">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="13">
+        <v>2024</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="13">
+        <v>2024</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="13">
+        <v>2024</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="13">
+        <v>2024</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="13">
+        <v>2024</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="14">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:J17">
+    <cfRule type="containsText" dxfId="36" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:J17">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9082,10 +9664,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>661</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>22</v>
       </c>
       <c r="D1" s="49"/>
       <c r="E1" s="50" t="s">
@@ -9093,7 +9675,7 @@
       </c>
       <c r="F1" s="60"/>
       <c r="G1" s="67" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H1" s="68"/>
     </row>
@@ -9101,10 +9683,10 @@
       <c r="A2" s="45"/>
       <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
@@ -9124,19 +9706,19 @@
         <v>2007</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>454</v>
+        <v>355</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D3" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -9154,19 +9736,19 @@
         <v>2007</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>454</v>
+        <v>358</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D4" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -9184,19 +9766,19 @@
         <v>2007</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>454</v>
+        <v>361</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D5" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -9214,19 +9796,19 @@
         <v>2007</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>454</v>
+        <v>364</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D6" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>366</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>367</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -9244,19 +9826,19 @@
         <v>2008</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>454</v>
+        <v>367</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D7" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>369</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>370</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -9274,19 +9856,19 @@
         <v>2008</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>454</v>
+        <v>370</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D8" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>373</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -9304,19 +9886,19 @@
         <v>2008</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>454</v>
+        <v>373</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D9" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -9334,19 +9916,19 @@
         <v>2008</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>454</v>
+        <v>376</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -9364,19 +9946,19 @@
         <v>2009</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>454</v>
+        <v>379</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -9394,19 +9976,19 @@
         <v>2009</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>454</v>
+        <v>382</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D12" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>384</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
@@ -9424,19 +10006,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>454</v>
+        <v>384</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="D13" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>387</v>
       </c>
       <c r="G13" s="1">
         <v>5</v>
@@ -9454,19 +10036,19 @@
         <v>2009</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>454</v>
+        <v>387</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="D14" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>390</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -9484,19 +10066,19 @@
         <v>2010</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>454</v>
+        <v>390</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D15" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>392</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>393</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -9514,19 +10096,19 @@
         <v>2010</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>454</v>
+        <v>393</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="D16" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>396</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -9544,19 +10126,19 @@
         <v>2010</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>454</v>
+        <v>396</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="D17" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -9574,19 +10156,19 @@
         <v>2010</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="D18" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>402</v>
       </c>
       <c r="G18" s="24">
         <v>1</v>
@@ -9604,19 +10186,19 @@
         <v>2011</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>454</v>
+        <v>402</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="D19" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>404</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>405</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -9634,19 +10216,19 @@
         <v>2011</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="D20" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -9664,19 +10246,19 @@
         <v>2011</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="D21" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>410</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -9694,19 +10276,19 @@
         <v>2011</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>411</v>
+        <v>474</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G22" s="1">
         <v>3</v>
@@ -9724,19 +10306,19 @@
         <v>2012</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="D23" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -9754,19 +10336,19 @@
         <v>2012</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="D24" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>416</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -9784,19 +10366,19 @@
         <v>2012</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="D25" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -9814,19 +10396,19 @@
         <v>2012</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -9844,19 +10426,19 @@
         <v>2013</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="D27" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -9874,19 +10456,19 @@
         <v>2013</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="D28" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>426</v>
-      </c>
       <c r="F28" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -9904,19 +10486,19 @@
         <v>2013</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="D29" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -9934,19 +10516,19 @@
         <v>2013</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="D30" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="F30" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -9964,19 +10546,19 @@
         <v>2014</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="D31" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -9994,19 +10576,19 @@
         <v>2014</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="D32" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>435</v>
-      </c>
       <c r="F32" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -10024,19 +10606,19 @@
         <v>2014</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -10054,19 +10636,19 @@
         <v>2014</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -10084,19 +10666,19 @@
         <v>2015</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="D35" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -10114,19 +10696,19 @@
         <v>2015</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>489</v>
+        <v>453</v>
       </c>
       <c r="D36" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -10144,19 +10726,19 @@
         <v>2015</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>490</v>
+        <v>453</v>
       </c>
       <c r="D37" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>444</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -10174,19 +10756,19 @@
         <v>2015</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="D38" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>446</v>
-      </c>
       <c r="F38" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -10204,19 +10786,19 @@
         <v>2016</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="D39" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>448</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -10234,19 +10816,19 @@
         <v>2016</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="D40" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
@@ -10264,19 +10846,19 @@
         <v>2016</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="D41" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -10294,19 +10876,19 @@
         <v>2020</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>454</v>
+        <v>651</v>
       </c>
       <c r="C42" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>656</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -10328,7 +10910,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H41">
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10345,7 +10927,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10367,16 +10949,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10395,11 +10977,11 @@
       <c r="A1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="46" t="s">
+        <v>661</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>22</v>
       </c>
       <c r="D1" s="49"/>
       <c r="E1" s="56" t="s">
@@ -10407,18 +10989,18 @@
       </c>
       <c r="F1" s="69"/>
       <c r="G1" s="71" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="70"/>
-      <c r="B2" s="73"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>17</v>
@@ -10437,16 +11019,18 @@
       <c r="A3" s="26">
         <v>2000</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>497</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -10463,16 +11047,18 @@
       <c r="A4" s="26">
         <v>2001</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>664</v>
+      </c>
       <c r="E4" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -10489,16 +11075,18 @@
       <c r="A5" s="26">
         <v>2002</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>664</v>
+      </c>
       <c r="E5" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -10515,11 +11103,13 @@
       <c r="A6" s="26">
         <v>2003</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>664</v>
+      </c>
       <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
@@ -10541,16 +11131,18 @@
       <c r="A7" s="26">
         <v>2004</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>664</v>
+      </c>
       <c r="E7" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -10567,16 +11159,18 @@
       <c r="A8" s="26">
         <v>2005</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>664</v>
+      </c>
       <c r="E8" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -10593,13 +11187,15 @@
       <c r="A9" s="26">
         <v>2006</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>664</v>
+      </c>
       <c r="E9" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>7</v>
@@ -10619,16 +11215,18 @@
       <c r="A10" s="26">
         <v>2007</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>664</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -10645,11 +11243,13 @@
       <c r="A11" s="26">
         <v>2008</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>664</v>
+      </c>
       <c r="E11" s="5" t="s">
         <v>9</v>
       </c>
@@ -10675,7 +11275,7 @@
         <v>505</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="5" t="s">
@@ -10700,10 +11300,10 @@
         <v>2010</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="5" t="s">
@@ -10728,10 +11328,10 @@
         <v>2011</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="5" t="s">
@@ -10756,10 +11356,10 @@
         <v>2012</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="5" t="s">
@@ -10784,10 +11384,10 @@
         <v>2013</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="5" t="s">
@@ -10812,10 +11412,10 @@
         <v>2014</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="5" t="s">
@@ -10840,10 +11440,10 @@
         <v>2015</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="5" t="s">
@@ -10868,10 +11468,10 @@
         <v>2016</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="5" t="s">
@@ -10896,10 +11496,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="5" t="s">
@@ -10924,10 +11524,10 @@
         <v>2018</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="5" t="s">
@@ -10952,10 +11552,10 @@
         <v>2019</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="5" t="s">
@@ -10980,10 +11580,10 @@
         <v>2020</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>505</v>
+        <v>572</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>573</v>
+        <v>504</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="5" t="s">
@@ -11008,17 +11608,17 @@
         <v>2021</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>505</v>
+        <v>573</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>574</v>
+        <v>504</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -11036,17 +11636,17 @@
         <v>2022</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>505</v>
+        <v>655</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>657</v>
+        <v>504</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -11064,17 +11664,17 @@
         <v>2023</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>505</v>
+        <v>658</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>660</v>
+        <v>504</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -11092,10 +11692,10 @@
         <v>2024</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>505</v>
+        <v>660</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>662</v>
+        <v>504</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="5"/>
@@ -11111,6 +11711,7 @@
         <v/>
       </c>
     </row>
+    <row r="28" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E1:F1"/>
@@ -11120,7 +11721,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="containsText" dxfId="34" priority="56" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="56" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11137,17 +11738,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="33" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="32" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="59" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="containsText" dxfId="31" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11164,17 +11765,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="30" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="29" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="28" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11191,17 +11792,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="27" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="26" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="25" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11218,17 +11819,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="23" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="22" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11245,17 +11846,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="20" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11272,17 +11873,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="17" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11299,17 +11900,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11326,17 +11927,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="11" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11353,17 +11954,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="8" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11380,17 +11981,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11407,12 +12008,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11422,599 +12023,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB08FCB-4607-4875-B1CE-F05341C08ADF}">
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="8" customWidth="1"/>
-    <col min="3" max="4" width="24.26953125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="12.453125" style="6" customWidth="1"/>
-    <col min="8" max="10" width="3.81640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="65" t="s">
-        <v>353</v>
-      </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
-        <v>2022</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>611</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14">
-        <v>0</v>
-      </c>
-      <c r="J3" s="14">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="str">
-        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>613</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
-        <v>1</v>
-      </c>
-      <c r="J4" s="14">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="str">
-        <f t="shared" ref="K4:K17" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="13">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>614</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
-        <v>2</v>
-      </c>
-      <c r="J5" s="14">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
-        <v>2022</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>615</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>2</v>
-      </c>
-      <c r="J6" s="14">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="13">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>616</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>1</v>
-      </c>
-      <c r="J7" s="14">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>618</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <v>2</v>
-      </c>
-      <c r="J9" s="14">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>619</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="13">
-        <v>2023</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>621</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>622</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>623</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>624</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>625</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="14">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>626</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="14">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14">
-        <v>0</v>
-      </c>
-      <c r="J17" s="14">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H3:J17">
-    <cfRule type="containsText" dxfId="1" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:J17">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G3:H8"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12032,29 +12050,29 @@
         <v>20</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>661</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>22</v>
-      </c>
       <c r="D1" s="49"/>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76" t="s">
-        <v>455</v>
-      </c>
-      <c r="H1" s="76"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74" t="s">
+        <v>454</v>
+      </c>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="70"/>
       <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>17</v>
@@ -12074,13 +12092,13 @@
         <v>2018</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>519</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -12100,13 +12118,13 @@
         <v>2019</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>24</v>
+        <v>519</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>517</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -12126,13 +12144,13 @@
         <v>2019</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>25</v>
+        <v>519</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>522</v>
+        <v>24</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -12152,13 +12170,13 @@
         <v>2019</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>26</v>
+        <v>519</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -12178,13 +12196,13 @@
         <v>2019</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>27</v>
+        <v>519</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -12204,13 +12222,13 @@
         <v>2020</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>520</v>
+        <v>574</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>28</v>
+        <v>519</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>575</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -12230,13 +12248,13 @@
         <v>2020</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>520</v>
+        <v>575</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>29</v>
+        <v>519</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>576</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -12256,13 +12274,13 @@
         <v>2020</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>520</v>
+        <v>576</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>30</v>
+        <v>519</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>577</v>
+        <v>29</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -12282,13 +12300,13 @@
         <v>2020</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>31</v>
+        <v>519</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>578</v>
+        <v>30</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -12308,13 +12326,13 @@
         <v>2021</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>32</v>
+        <v>519</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>579</v>
+        <v>31</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -12334,13 +12352,13 @@
         <v>2021</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>33</v>
+        <v>519</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>580</v>
+        <v>32</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -12360,13 +12378,13 @@
         <v>2021</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>34</v>
+        <v>519</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>581</v>
+        <v>33</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -12386,13 +12404,13 @@
         <v>2021</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>35</v>
+        <v>519</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>582</v>
+        <v>34</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -12411,13 +12429,13 @@
       <c r="A16" s="32">
         <v>2022</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B16" s="7"/>
       <c r="C16" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="33">
@@ -12435,13 +12453,13 @@
       <c r="A17" s="32">
         <v>2022</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B17" s="7"/>
       <c r="C17" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="33">
@@ -12459,13 +12477,13 @@
       <c r="A18" s="32">
         <v>2022</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B18" s="7"/>
       <c r="C18" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="33">
@@ -12483,13 +12501,13 @@
       <c r="A19" s="32">
         <v>2022</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B19" s="7"/>
       <c r="C19" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="33">
@@ -12507,13 +12525,13 @@
       <c r="A20" s="32">
         <v>2023</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="33">
@@ -12531,13 +12549,13 @@
       <c r="A21" s="32">
         <v>2023</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B21" s="7"/>
       <c r="C21" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="33">
@@ -12555,13 +12573,13 @@
       <c r="A22" s="32">
         <v>2023</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B22" s="7"/>
       <c r="C22" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="33">
@@ -12579,13 +12597,13 @@
       <c r="A23" s="32">
         <v>2023</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B23" s="7"/>
       <c r="C23" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="33">
@@ -12603,13 +12621,13 @@
       <c r="A24" s="32">
         <v>2024</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B24" s="7"/>
       <c r="C24" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="33">
@@ -12627,13 +12645,13 @@
       <c r="A25" s="32">
         <v>2024</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B25" s="7"/>
       <c r="C25" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>44</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="33">
@@ -12651,13 +12669,13 @@
       <c r="A26" s="32">
         <v>2024</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B26" s="7"/>
       <c r="C26" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="33">
@@ -12675,13 +12693,13 @@
       <c r="A27" s="32">
         <v>2024</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B27" s="7"/>
       <c r="C27" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>46</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="33">
@@ -12699,13 +12717,13 @@
       <c r="A28" s="32">
         <v>2025</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B28" s="7"/>
       <c r="C28" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="33">
@@ -12723,13 +12741,13 @@
       <c r="A29" s="32">
         <v>2025</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B29" s="7"/>
       <c r="C29" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="33">
@@ -12747,13 +12765,13 @@
       <c r="A30" s="32">
         <v>2025</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B30" s="7"/>
       <c r="C30" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="33">
@@ -12771,13 +12789,13 @@
       <c r="A31" s="32">
         <v>2025</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B31" s="7"/>
       <c r="C31" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="33">
@@ -12795,13 +12813,13 @@
       <c r="A32" s="32">
         <v>2026</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B32" s="7"/>
       <c r="C32" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="33">
@@ -12819,13 +12837,13 @@
       <c r="A33" s="32">
         <v>2026</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B33" s="7"/>
       <c r="C33" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="33">
@@ -12843,13 +12861,13 @@
       <c r="A34" s="32">
         <v>2026</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B34" s="7"/>
       <c r="C34" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="33">
@@ -12867,13 +12885,13 @@
       <c r="A35" s="32">
         <v>2026</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B35" s="7"/>
       <c r="C35" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="33">
@@ -12891,13 +12909,13 @@
       <c r="A36" s="32">
         <v>2027</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B36" s="7"/>
       <c r="C36" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="33">
@@ -12915,13 +12933,13 @@
       <c r="A37" s="32">
         <v>2027</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B37" s="7"/>
       <c r="C37" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="33">
@@ -12939,13 +12957,13 @@
       <c r="A38" s="32">
         <v>2027</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B38" s="7"/>
       <c r="C38" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="33">
@@ -12963,13 +12981,13 @@
       <c r="A39" s="32">
         <v>2027</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B39" s="7"/>
       <c r="C39" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="33">
@@ -12987,13 +13005,13 @@
       <c r="A40" s="32">
         <v>2028</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B40" s="7"/>
       <c r="C40" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="33">
@@ -13011,13 +13029,13 @@
       <c r="A41" s="32">
         <v>2028</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B41" s="7"/>
       <c r="C41" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="33">
@@ -13035,13 +13053,13 @@
       <c r="A42" s="32">
         <v>2028</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B42" s="7"/>
       <c r="C42" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="33">
@@ -13059,13 +13077,13 @@
       <c r="A43" s="32">
         <v>2028</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B43" s="7"/>
       <c r="C43" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>62</v>
+      </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="33">
@@ -13083,13 +13101,13 @@
       <c r="A44" s="32">
         <v>2029</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B44" s="7"/>
       <c r="C44" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>63</v>
+      </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="33">
@@ -13107,13 +13125,13 @@
       <c r="A45" s="32">
         <v>2029</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B45" s="7"/>
       <c r="C45" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="33">
@@ -13131,13 +13149,13 @@
       <c r="A46" s="32">
         <v>2029</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B46" s="7"/>
       <c r="C46" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>65</v>
+      </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="33">
@@ -13155,13 +13173,13 @@
       <c r="A47" s="32">
         <v>2029</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B47" s="7"/>
       <c r="C47" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="33">
@@ -13179,13 +13197,13 @@
       <c r="A48" s="32">
         <v>2030</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B48" s="7"/>
       <c r="C48" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="33">
@@ -13203,13 +13221,13 @@
       <c r="A49" s="32">
         <v>2030</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B49" s="7"/>
       <c r="C49" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>68</v>
+      </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="33">
@@ -13227,13 +13245,13 @@
       <c r="A50" s="32">
         <v>2030</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B50" s="7"/>
       <c r="C50" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>69</v>
+      </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="33">
@@ -13251,13 +13269,13 @@
       <c r="A51" s="32">
         <v>2030</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B51" s="7"/>
       <c r="C51" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="33">
@@ -13275,13 +13293,13 @@
       <c r="A52" s="32">
         <v>2031</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B52" s="7"/>
       <c r="C52" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="33">
@@ -13299,13 +13317,13 @@
       <c r="A53" s="32">
         <v>2031</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B53" s="7"/>
       <c r="C53" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="33">
@@ -13323,13 +13341,13 @@
       <c r="A54" s="32">
         <v>2031</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B54" s="7"/>
       <c r="C54" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="D54" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>183</v>
+      </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="33">
@@ -13347,13 +13365,13 @@
       <c r="A55" s="32">
         <v>2031</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B55" s="7"/>
       <c r="C55" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D55" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>170</v>
+      </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="33">
@@ -13371,13 +13389,13 @@
       <c r="A56" s="32">
         <v>2032</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B56" s="7"/>
       <c r="C56" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="D56" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="33">
@@ -13395,13 +13413,13 @@
       <c r="A57" s="32">
         <v>2032</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B57" s="7"/>
       <c r="C57" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D57" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>172</v>
+      </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="33">
@@ -13419,13 +13437,13 @@
       <c r="A58" s="32">
         <v>2032</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B58" s="7"/>
       <c r="C58" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="D58" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>517</v>
+      </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="33">
@@ -13443,13 +13461,13 @@
       <c r="A59" s="32">
         <v>2032</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>520</v>
-      </c>
+      <c r="B59" s="7"/>
       <c r="C59" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="D59" s="22"/>
+        <v>519</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>182</v>
+      </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="33">
@@ -13499,7 +13517,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13511,13 +13529,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="36" t="s">
         <v>526</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -13525,10 +13543,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -13536,10 +13554,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>530</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -13547,10 +13565,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>527</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>528</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -13558,10 +13576,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>562</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>563</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B21B0E-9304-49D3-B593-3EF696EBA08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA74D618-A596-44BC-ADF0-650E91F40FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="2310" windowWidth="28800" windowHeight="17740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1530" windowWidth="28800" windowHeight="17740" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="673">
   <si>
     <t>Trustees’ Garden</t>
   </si>
@@ -3008,6 +3008,30 @@
   </si>
   <si>
     <t>Obv: Wounded Eagle</t>
+  </si>
+  <si>
+    <t>Reliance Yacht</t>
+  </si>
+  <si>
+    <t>Bluegrass Music</t>
+  </si>
+  <si>
+    <t>Snowboarding</t>
+  </si>
+  <si>
+    <t>Tennessee Valley Authority</t>
+  </si>
+  <si>
+    <t>Underground Railroad</t>
+  </si>
+  <si>
+    <t>Higgins Boat</t>
+  </si>
+  <si>
+    <t>Automobiles</t>
+  </si>
+  <si>
+    <t>Lung Transplant</t>
   </si>
 </sst>
 </file>
@@ -3311,7 +3335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3515,12 +3539,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3951,9 +3986,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="51" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="52" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4471,7 +4506,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J5">
-    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4488,7 +4523,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4505,7 +4540,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4522,7 +4557,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4766,7 +4801,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J6">
-    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6434,7 +6469,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H58">
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6460,12 +6495,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N15" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N36" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8929,7 +8964,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="I3:J12 L48 L50:L51 I13:K58">
-    <cfRule type="containsText" dxfId="43" priority="16" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="16" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8946,7 +8981,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="42" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8963,7 +8998,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K12">
-    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8980,12 +9015,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L47">
-    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L58">
-    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9002,7 +9037,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7">
-    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9031,7 +9066,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9058,7 +9093,10 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9138,7 +9176,7 @@
       <c r="F3" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="75" t="s">
         <v>627</v>
       </c>
       <c r="H3" s="14">
@@ -9147,8 +9185,8 @@
       <c r="I3" s="14">
         <v>0</v>
       </c>
-      <c r="J3" s="14">
-        <v>0</v>
+      <c r="J3" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="K3" s="9" t="str">
         <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
@@ -9172,7 +9210,7 @@
       <c r="F4" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="75" t="s">
         <v>630</v>
       </c>
       <c r="H4" s="14">
@@ -9181,8 +9219,8 @@
       <c r="I4" s="14">
         <v>1</v>
       </c>
-      <c r="J4" s="14">
-        <v>0</v>
+      <c r="J4" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="K4" s="9" t="str">
         <f t="shared" ref="K4:K17" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
@@ -9206,7 +9244,7 @@
       <c r="F5" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="75" t="s">
         <v>633</v>
       </c>
       <c r="H5" s="14">
@@ -9215,8 +9253,8 @@
       <c r="I5" s="14">
         <v>2</v>
       </c>
-      <c r="J5" s="14">
-        <v>0</v>
+      <c r="J5" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="K5" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9240,7 +9278,7 @@
       <c r="F6" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="75" t="s">
         <v>635</v>
       </c>
       <c r="H6" s="14">
@@ -9249,8 +9287,8 @@
       <c r="I6" s="14">
         <v>2</v>
       </c>
-      <c r="J6" s="14">
-        <v>0</v>
+      <c r="J6" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="K6" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9274,7 +9312,7 @@
       <c r="F7" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="75" t="s">
         <v>637</v>
       </c>
       <c r="H7" s="14">
@@ -9283,8 +9321,8 @@
       <c r="I7" s="14">
         <v>1</v>
       </c>
-      <c r="J7" s="14">
-        <v>0</v>
+      <c r="J7" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="K7" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9308,7 +9346,7 @@
       <c r="F8" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="75" t="s">
         <v>640</v>
       </c>
       <c r="H8" s="14">
@@ -9317,8 +9355,8 @@
       <c r="I8" s="14">
         <v>0</v>
       </c>
-      <c r="J8" s="14">
-        <v>0</v>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="K8" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9342,7 +9380,7 @@
       <c r="F9" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="75" t="s">
         <v>643</v>
       </c>
       <c r="H9" s="14">
@@ -9351,8 +9389,8 @@
       <c r="I9" s="14">
         <v>2</v>
       </c>
-      <c r="J9" s="14">
-        <v>0</v>
+      <c r="J9" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="K9" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9376,7 +9414,7 @@
       <c r="F10" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="75" t="s">
         <v>646</v>
       </c>
       <c r="H10" s="14">
@@ -9385,8 +9423,8 @@
       <c r="I10" s="14">
         <v>0</v>
       </c>
-      <c r="J10" s="14">
-        <v>0</v>
+      <c r="J10" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="K10" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9410,7 +9448,7 @@
       <c r="F11" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="75" t="s">
         <v>649</v>
       </c>
       <c r="H11" s="14">
@@ -9419,8 +9457,8 @@
       <c r="I11" s="14">
         <v>0</v>
       </c>
-      <c r="J11" s="14">
-        <v>0</v>
+      <c r="J11" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="K11" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9444,7 +9482,7 @@
       <c r="F12" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="75" t="s">
         <v>650</v>
       </c>
       <c r="H12" s="14">
@@ -9453,8 +9491,8 @@
       <c r="I12" s="14">
         <v>0</v>
       </c>
-      <c r="J12" s="14">
-        <v>0</v>
+      <c r="J12" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="K12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9474,15 +9512,15 @@
       <c r="D13" s="22"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="14">
         <v>0</v>
       </c>
       <c r="I13" s="14">
         <v>0</v>
       </c>
-      <c r="J13" s="14">
-        <v>0</v>
+      <c r="J13" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="K13" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9502,15 +9540,15 @@
       <c r="D14" s="22"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="14">
         <v>0</v>
       </c>
       <c r="I14" s="14">
         <v>0</v>
       </c>
-      <c r="J14" s="14">
-        <v>0</v>
+      <c r="J14" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="K14" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9530,15 +9568,15 @@
       <c r="D15" s="22"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="14">
         <v>0</v>
       </c>
       <c r="I15" s="14">
         <v>0</v>
       </c>
-      <c r="J15" s="14">
-        <v>0</v>
+      <c r="J15" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="K15" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9558,15 +9596,15 @@
       <c r="D16" s="22"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="14">
         <v>0</v>
       </c>
       <c r="I16" s="14">
         <v>0</v>
       </c>
-      <c r="J16" s="14">
-        <v>0</v>
+      <c r="J16" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="K16" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9586,15 +9624,15 @@
       <c r="D17" s="22"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="75"/>
       <c r="H17" s="14">
         <v>0</v>
       </c>
       <c r="I17" s="14">
         <v>0</v>
       </c>
-      <c r="J17" s="14">
-        <v>0</v>
+      <c r="J17" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="K17" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9614,13 +9652,31 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:J17">
-    <cfRule type="containsText" dxfId="36" priority="13" operator="containsText" text="*-">
+  <phoneticPr fontId="13" type="noConversion"/>
+  <conditionalFormatting sqref="H3:I17">
+    <cfRule type="containsText" dxfId="37" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:J17">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="H3:I17">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J17">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J17">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -9632,7 +9688,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9641,11 +9698,11 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10910,7 +10967,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H41">
-    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10927,7 +10984,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11721,7 +11778,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="containsText" dxfId="33" priority="56" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="56" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11738,17 +11795,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="32" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="31" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="59" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="containsText" dxfId="30" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11765,17 +11822,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="29" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="28" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="27" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11792,17 +11849,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="26" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="25" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="24" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11819,17 +11876,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="23" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="22" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="21" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11846,17 +11903,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="20" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="19" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11873,17 +11930,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="16" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11900,17 +11957,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="14" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="13" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11927,17 +11984,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="11" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="10" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11954,17 +12011,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="7" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11981,17 +12038,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12008,12 +12065,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12027,12 +12084,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12429,7 +12486,9 @@
       <c r="A16" s="32">
         <v>2022</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>665</v>
+      </c>
       <c r="C16" s="22" t="s">
         <v>519</v>
       </c>
@@ -12453,7 +12512,9 @@
       <c r="A17" s="32">
         <v>2022</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>667</v>
+      </c>
       <c r="C17" s="22" t="s">
         <v>519</v>
       </c>
@@ -12477,7 +12538,9 @@
       <c r="A18" s="32">
         <v>2022</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>666</v>
+      </c>
       <c r="C18" s="22" t="s">
         <v>519</v>
       </c>
@@ -12501,7 +12564,9 @@
       <c r="A19" s="32">
         <v>2022</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>668</v>
+      </c>
       <c r="C19" s="22" t="s">
         <v>519</v>
       </c>
@@ -12525,7 +12590,9 @@
       <c r="A20" s="32">
         <v>2023</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>669</v>
+      </c>
       <c r="C20" s="22" t="s">
         <v>519</v>
       </c>
@@ -12549,7 +12616,9 @@
       <c r="A21" s="32">
         <v>2023</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>670</v>
+      </c>
       <c r="C21" s="22" t="s">
         <v>519</v>
       </c>
@@ -12573,7 +12642,9 @@
       <c r="A22" s="32">
         <v>2023</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>671</v>
+      </c>
       <c r="C22" s="22" t="s">
         <v>519</v>
       </c>
@@ -12597,7 +12668,9 @@
       <c r="A23" s="32">
         <v>2023</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>672</v>
+      </c>
       <c r="C23" s="22" t="s">
         <v>519</v>
       </c>
@@ -13490,7 +13563,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H59">
-    <cfRule type="containsText" dxfId="0" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13517,7 +13590,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA74D618-A596-44BC-ADF0-650E91F40FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF67B5AC-8EE7-4DDB-A9DB-751467E98FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1530" windowWidth="28800" windowHeight="17740" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -3454,6 +3454,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3539,9 +3542,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3549,12 +3549,13 @@
   </cellStyles>
   <dxfs count="54">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3957,13 +3958,12 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3986,9 +3986,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="52" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4310,31 +4310,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>661</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="53" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="54" t="s">
         <v>534</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -4506,7 +4506,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J5">
-    <cfRule type="containsText" dxfId="50" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4523,7 +4523,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4540,7 +4540,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="48" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4557,7 +4557,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4605,31 +4605,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>661</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="56" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58" t="s">
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="59" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -4801,7 +4801,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J6">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4846,28 +4846,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>661</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="48" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="H1" s="61"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -6469,7 +6469,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H58">
-    <cfRule type="containsText" dxfId="45" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6495,12 +6495,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N36" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomRight" activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6516,32 +6516,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>661</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66" t="s">
         <v>352</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="66"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="14">
         <v>1</v>
@@ -8383,13 +8383,13 @@
         <v>15</v>
       </c>
       <c r="I45" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="15" t="s">
         <v>15</v>
@@ -8431,7 +8431,7 @@
         <v>3</v>
       </c>
       <c r="K46" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="15" t="s">
         <v>15</v>
@@ -8512,7 +8512,7 @@
         <v>6</v>
       </c>
       <c r="J48" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="14">
         <v>1</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="14">
         <v>0</v>
@@ -8964,7 +8964,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="I3:J12 L48 L50:L51 I13:K58">
-    <cfRule type="containsText" dxfId="44" priority="16" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="16" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8981,7 +8981,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="43" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8998,7 +8998,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K12">
-    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9015,12 +9015,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L47">
-    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L58">
-    <cfRule type="containsText" dxfId="40" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9037,7 +9037,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7">
-    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9066,7 +9066,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9096,7 +9096,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9110,30 +9110,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>661</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="65" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="66" t="s">
         <v>352</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -9176,7 +9176,7 @@
       <c r="F3" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="44" t="s">
         <v>627</v>
       </c>
       <c r="H3" s="14">
@@ -9210,7 +9210,7 @@
       <c r="F4" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="44" t="s">
         <v>630</v>
       </c>
       <c r="H4" s="14">
@@ -9244,7 +9244,7 @@
       <c r="F5" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="44" t="s">
         <v>633</v>
       </c>
       <c r="H5" s="14">
@@ -9278,7 +9278,7 @@
       <c r="F6" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="G6" s="75" t="s">
+      <c r="G6" s="44" t="s">
         <v>635</v>
       </c>
       <c r="H6" s="14">
@@ -9312,7 +9312,7 @@
       <c r="F7" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="44" t="s">
         <v>637</v>
       </c>
       <c r="H7" s="14">
@@ -9346,7 +9346,7 @@
       <c r="F8" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="G8" s="75" t="s">
+      <c r="G8" s="44" t="s">
         <v>640</v>
       </c>
       <c r="H8" s="14">
@@ -9380,7 +9380,7 @@
       <c r="F9" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="44" t="s">
         <v>643</v>
       </c>
       <c r="H9" s="14">
@@ -9414,14 +9414,14 @@
       <c r="F10" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="G10" s="75" t="s">
+      <c r="G10" s="44" t="s">
         <v>646</v>
       </c>
       <c r="H10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>15</v>
@@ -9448,7 +9448,7 @@
       <c r="F11" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="G11" s="75" t="s">
+      <c r="G11" s="44" t="s">
         <v>649</v>
       </c>
       <c r="H11" s="14">
@@ -9482,7 +9482,7 @@
       <c r="F12" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="G12" s="75" t="s">
+      <c r="G12" s="44" t="s">
         <v>650</v>
       </c>
       <c r="H12" s="14">
@@ -9512,7 +9512,7 @@
       <c r="D13" s="22"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="75"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="14">
         <v>0</v>
       </c>
@@ -9540,7 +9540,7 @@
       <c r="D14" s="22"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="75"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="14">
         <v>0</v>
       </c>
@@ -9568,7 +9568,7 @@
       <c r="D15" s="22"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="75"/>
+      <c r="G15" s="44"/>
       <c r="H15" s="14">
         <v>0</v>
       </c>
@@ -9596,7 +9596,7 @@
       <c r="D16" s="22"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="75"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="14">
         <v>0</v>
       </c>
@@ -9624,7 +9624,7 @@
       <c r="D17" s="22"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="75"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="14">
         <v>0</v>
       </c>
@@ -9654,7 +9654,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="H3:I17">
-    <cfRule type="containsText" dxfId="37" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9671,7 +9671,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J17">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9702,7 +9702,7 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9717,28 +9717,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>661</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="67" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="68" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="68"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10378,7 +10378,7 @@
         <v>413</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -10967,7 +10967,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H41">
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10984,7 +10984,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11031,28 +11031,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>661</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="56" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="71" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="72" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="71"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="70"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -11778,7 +11778,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="containsText" dxfId="34" priority="56" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="56" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11795,17 +11795,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="33" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="32" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="59" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="containsText" dxfId="31" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11822,17 +11822,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="30" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="29" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="28" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11849,17 +11849,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="27" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="26" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="25" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11876,17 +11876,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="23" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="22" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11903,17 +11903,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="20" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11930,17 +11930,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="17" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11957,17 +11957,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11984,17 +11984,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="11" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12011,17 +12011,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="8" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12038,17 +12038,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12065,12 +12065,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12084,12 +12084,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12103,28 +12103,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>661</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="75" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="70"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12602,7 +12602,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="33">
         <v>0</v>
@@ -12631,7 +12631,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12654,10 +12654,10 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12680,10 +12680,10 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="9" t="str">
         <f t="shared" si="0"/>
@@ -13563,7 +13563,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H59">
-    <cfRule type="containsText" dxfId="1" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF67B5AC-8EE7-4DDB-A9DB-751467E98FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45F76CB-B738-40E5-9550-E8DBEA5791E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -6495,12 +6495,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N24" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="P57" sqref="P57"/>
+      <selection pane="bottomRight" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7882,7 +7882,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="14">
         <v>1</v>
@@ -7921,10 +7921,10 @@
         <v>15</v>
       </c>
       <c r="I34" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="14">
         <v>1</v>
@@ -8176,7 +8176,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="14">
         <v>1</v>
@@ -8851,7 +8851,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="14">
         <v>0</v>
@@ -8887,7 +8887,7 @@
         <v>245</v>
       </c>
       <c r="I57" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="14">
         <v>1</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="14">
         <v>0</v>
@@ -9096,7 +9096,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9282,7 +9282,7 @@
         <v>635</v>
       </c>
       <c r="H6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="14">
         <v>2</v>
@@ -9316,7 +9316,7 @@
         <v>637</v>
       </c>
       <c r="H7" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="14">
         <v>1</v>
@@ -9350,7 +9350,7 @@
         <v>640</v>
       </c>
       <c r="H8" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="14">
         <v>0</v>
@@ -9384,7 +9384,7 @@
         <v>643</v>
       </c>
       <c r="H9" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="14">
         <v>2</v>
@@ -9486,10 +9486,10 @@
         <v>650</v>
       </c>
       <c r="H12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>15</v>
@@ -9514,10 +9514,10 @@
       <c r="F13" s="5"/>
       <c r="G13" s="44"/>
       <c r="H13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>15</v>
@@ -9702,7 +9702,7 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10468,7 +10468,7 @@
         <v>420</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -10948,10 +10948,10 @@
         <v>654</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="9" t="str">
         <f t="shared" ref="I42" si="1">IF(OR(AND(G42&gt;1,G42&lt;&gt;"-"),AND(H42&gt;1,H42&lt;&gt;"-")),"Can exchange","")</f>
@@ -11015,7 +11015,7 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11650,14 +11650,14 @@
         <v>14</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
       </c>
       <c r="I23" s="9" t="str">
         <f t="shared" ref="I23" si="1">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-"),AND(H23&gt;1,H23&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11678,7 +11678,7 @@
         <v>657</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -11734,7 +11734,7 @@
         <v>659</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -12084,12 +12084,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD21"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12420,10 +12420,10 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12446,10 +12446,10 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12475,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12553,7 +12553,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12579,7 +12579,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12602,14 +12602,14 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="33">
         <v>0</v>
       </c>
       <c r="I20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12628,7 +12628,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="33">
         <v>1</v>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45F76CB-B738-40E5-9550-E8DBEA5791E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D6A4DC-A6A3-41D5-BDC6-70EC1FBB8140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="714">
   <si>
     <t>Trustees’ Garden</t>
   </si>
@@ -2812,9 +2812,6 @@
     <t>955,145</t>
   </si>
   <si>
-    <t>??2,000,000??</t>
-  </si>
-  <si>
     <t>945,719</t>
   </si>
   <si>
@@ -3010,9 +3007,6 @@
     <t>Obv: Wounded Eagle</t>
   </si>
   <si>
-    <t>Reliance Yacht</t>
-  </si>
-  <si>
     <t>Bluegrass Music</t>
   </si>
   <si>
@@ -3028,10 +3022,139 @@
     <t>Higgins Boat</t>
   </si>
   <si>
-    <t>Automobiles</t>
-  </si>
-  <si>
-    <t>Lung Transplant</t>
+    <t>862,475</t>
+  </si>
+  <si>
+    <t>935,700</t>
+  </si>
+  <si>
+    <t>546,050</t>
+  </si>
+  <si>
+    <t>546,125</t>
+  </si>
+  <si>
+    <t>623,525</t>
+  </si>
+  <si>
+    <t>515,400</t>
+  </si>
+  <si>
+    <t>615,900</t>
+  </si>
+  <si>
+    <t>675,020</t>
+  </si>
+  <si>
+    <t>545,400</t>
+  </si>
+  <si>
+    <t>518,025</t>
+  </si>
+  <si>
+    <t>436,000</t>
+  </si>
+  <si>
+    <t>435,325</t>
+  </si>
+  <si>
+    <t>436,750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	436,425</t>
+  </si>
+  <si>
+    <t>434,825</t>
+  </si>
+  <si>
+    <t>435,475</t>
+  </si>
+  <si>
+    <t>432,850</t>
+  </si>
+  <si>
+    <t>397,775</t>
+  </si>
+  <si>
+    <t>454,325</t>
+  </si>
+  <si>
+    <t>454,425</t>
+  </si>
+  <si>
+    <t>454,975</t>
+  </si>
+  <si>
+    <t>453,850</t>
+  </si>
+  <si>
+    <t>453,750</t>
+  </si>
+  <si>
+    <t>453,825</t>
+  </si>
+  <si>
+    <t>454,150</t>
+  </si>
+  <si>
+    <t>454,450</t>
+  </si>
+  <si>
+    <t>453,775</t>
+  </si>
+  <si>
+    <t>454,275</t>
+  </si>
+  <si>
+    <t>452,875</t>
+  </si>
+  <si>
+    <t>451,900</t>
+  </si>
+  <si>
+    <t>452,625</t>
+  </si>
+  <si>
+    <t>453,425</t>
+  </si>
+  <si>
+    <t>496,275</t>
+  </si>
+  <si>
+    <t>448,225</t>
+  </si>
+  <si>
+    <t>465,025</t>
+  </si>
+  <si>
+    <t>430,625</t>
+  </si>
+  <si>
+    <t>500,950</t>
+  </si>
+  <si>
+    <t>452,350</t>
+  </si>
+  <si>
+    <t>399,275</t>
+  </si>
+  <si>
+    <t>383,600</t>
+  </si>
+  <si>
+    <t>Car Production</t>
+  </si>
+  <si>
+    <t>First Human Lung Transplant</t>
+  </si>
+  <si>
+    <t>Steel Plow</t>
+  </si>
+  <si>
+    <t>Saturn V</t>
+  </si>
+  <si>
+    <t>Nathanael Herreshoff, Reliance Yacht</t>
   </si>
 </sst>
 </file>
@@ -3547,7 +3670,15 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="55">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3986,9 +4117,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4297,7 +4428,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4314,7 +4445,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>21</v>
@@ -4378,7 +4509,7 @@
       <c r="F3" s="40" t="s">
         <v>537</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="44" t="s">
         <v>244</v>
       </c>
       <c r="H3" s="41">
@@ -4412,7 +4543,7 @@
       <c r="F4" s="40" t="s">
         <v>540</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="44" t="s">
         <v>244</v>
       </c>
       <c r="H4" s="41">
@@ -4446,7 +4577,7 @@
       <c r="F5" s="40" t="s">
         <v>543</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="44" t="s">
         <v>244</v>
       </c>
       <c r="H5" s="41">
@@ -4480,7 +4611,7 @@
       <c r="F6" s="40" t="s">
         <v>546</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="44" t="s">
         <v>244</v>
       </c>
       <c r="H6" s="41">
@@ -4506,7 +4637,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J5">
-    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4523,7 +4654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="52" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4540,7 +4671,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4557,7 +4688,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4592,7 +4723,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4609,7 +4740,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>21</v>
@@ -4673,7 +4804,7 @@
       <c r="F3" s="42" t="s">
         <v>552</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="44" t="s">
         <v>244</v>
       </c>
       <c r="H3" s="41">
@@ -4707,7 +4838,7 @@
       <c r="F4" s="42" t="s">
         <v>555</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="44" t="s">
         <v>244</v>
       </c>
       <c r="H4" s="41">
@@ -4741,7 +4872,7 @@
       <c r="F5" s="42" t="s">
         <v>558</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="44" t="s">
         <v>244</v>
       </c>
       <c r="H5" s="41">
@@ -4775,7 +4906,7 @@
       <c r="F6" s="42" t="s">
         <v>561</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="44" t="s">
         <v>244</v>
       </c>
       <c r="H6" s="41">
@@ -4801,7 +4932,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J6">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4826,11 +4957,11 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K9" sqref="K9"/>
       <selection pane="topRight" activeCell="K9" sqref="K9"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4850,7 +4981,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>21</v>
@@ -4895,7 +5026,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="5" t="s">
@@ -6469,7 +6600,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H58">
-    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6496,11 +6627,11 @@
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="J59" sqref="J59"/>
+      <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6520,7 +6651,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>21</v>
@@ -6592,7 +6723,7 @@
       <c r="F3" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="44" t="s">
         <v>244</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -6638,7 +6769,7 @@
       <c r="F4" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="44" t="s">
         <v>244</v>
       </c>
       <c r="H4" s="21" t="s">
@@ -6684,7 +6815,7 @@
       <c r="F5" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="44" t="s">
         <v>244</v>
       </c>
       <c r="H5" s="21" t="s">
@@ -6730,7 +6861,7 @@
       <c r="F6" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="44" t="s">
         <v>244</v>
       </c>
       <c r="H6" s="21" t="s">
@@ -6776,7 +6907,7 @@
       <c r="F7" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="44" t="s">
         <v>244</v>
       </c>
       <c r="H7" s="21" t="s">
@@ -6822,7 +6953,7 @@
       <c r="F8" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="44" t="s">
         <v>244</v>
       </c>
       <c r="H8" s="21" t="s">
@@ -6864,7 +6995,7 @@
       <c r="F9" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="44" t="s">
         <v>244</v>
       </c>
       <c r="H9" s="21" t="s">
@@ -6906,7 +7037,7 @@
       <c r="F10" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="44" t="s">
         <v>244</v>
       </c>
       <c r="H10" s="21" t="s">
@@ -6948,7 +7079,7 @@
       <c r="F11" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="44" t="s">
         <v>244</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -6990,7 +7121,7 @@
       <c r="F12" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="44" t="s">
         <v>244</v>
       </c>
       <c r="H12" s="21" t="s">
@@ -8293,7 +8424,7 @@
         <v>314</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H43" s="21" t="s">
         <v>15</v>
@@ -8335,7 +8466,7 @@
         <v>315</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H44" s="21" t="s">
         <v>15</v>
@@ -8377,7 +8508,7 @@
         <v>297</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H45" s="21" t="s">
         <v>15</v>
@@ -8419,7 +8550,7 @@
         <v>316</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H46" s="21" t="s">
         <v>15</v>
@@ -8461,7 +8592,7 @@
         <v>317</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H47" s="21" t="s">
         <v>15</v>
@@ -8503,7 +8634,7 @@
         <v>565</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>245</v>
@@ -8545,7 +8676,7 @@
         <v>566</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>245</v>
@@ -8587,7 +8718,7 @@
         <v>568</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>245</v>
@@ -8629,7 +8760,7 @@
         <v>566</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H51" s="10" t="s">
         <v>245</v>
@@ -8671,7 +8802,7 @@
         <v>570</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>245</v>
@@ -8925,8 +9056,8 @@
       <c r="G58" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="H58" s="10" t="s">
-        <v>599</v>
+      <c r="H58" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="I58" s="14">
         <v>0</v>
@@ -8937,8 +9068,8 @@
       <c r="K58" s="14">
         <v>0</v>
       </c>
-      <c r="L58" s="14">
-        <v>0</v>
+      <c r="L58" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="M58" s="9" t="str">
         <f t="shared" si="0"/>
@@ -8964,12 +9095,12 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="I3:J12 L48 L50:L51 I13:K58">
-    <cfRule type="containsText" dxfId="47" priority="16" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="18" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J12 L48 L50:L51 I13:K58">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -8981,11 +9112,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="46" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K12">
+    <cfRule type="containsText" dxfId="46" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K12">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8997,12 +9145,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K12">
-    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
+  <conditionalFormatting sqref="L8:L47">
+    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K12">
+  <conditionalFormatting sqref="L52:L57">
+    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52:L57">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9014,17 +9167,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L47">
-    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
+  <conditionalFormatting sqref="L3:L7">
+    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L52:L58">
-    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L52))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L52:L58">
+  <conditionalFormatting sqref="L3:L7">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9036,12 +9184,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L7">
-    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L7">
+  <conditionalFormatting sqref="L8:L47">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9053,7 +9196,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L47">
+  <conditionalFormatting sqref="L49">
+    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L49))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9065,12 +9213,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49">
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L49))))</formula>
+  <conditionalFormatting sqref="L58">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L58))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49">
+  <conditionalFormatting sqref="L58">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9096,7 +9244,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H2:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9114,7 +9262,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>21</v>
@@ -9164,20 +9312,20 @@
         <v>2022</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="44" t="s">
         <v>626</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>627</v>
       </c>
       <c r="H3" s="14">
         <v>0</v>
@@ -9198,20 +9346,20 @@
         <v>2022</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="44" t="s">
         <v>629</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>630</v>
       </c>
       <c r="H4" s="14">
         <v>0</v>
@@ -9232,20 +9380,20 @@
         <v>2022</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="44" t="s">
         <v>632</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>633</v>
       </c>
       <c r="H5" s="14">
         <v>0</v>
@@ -9266,20 +9414,20 @@
         <v>2022</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="5" t="s">
         <v>124</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="G6" s="44" t="s">
         <v>634</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>635</v>
       </c>
       <c r="H6" s="14">
         <v>1</v>
@@ -9300,20 +9448,20 @@
         <v>2022</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="G7" s="44" t="s">
         <v>636</v>
-      </c>
-      <c r="G7" s="44" t="s">
-        <v>637</v>
       </c>
       <c r="H7" s="14">
         <v>1</v>
@@ -9334,20 +9482,20 @@
         <v>2023</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="44" t="s">
         <v>639</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>640</v>
       </c>
       <c r="H8" s="14">
         <v>1</v>
@@ -9368,20 +9516,20 @@
         <v>2023</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="44" t="s">
         <v>642</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>643</v>
       </c>
       <c r="H9" s="14">
         <v>1</v>
@@ -9402,20 +9550,20 @@
         <v>2023</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="44" t="s">
         <v>645</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>646</v>
       </c>
       <c r="H10" s="14">
         <v>1</v>
@@ -9436,20 +9584,20 @@
         <v>2023</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="44" t="s">
         <v>648</v>
-      </c>
-      <c r="G11" s="44" t="s">
-        <v>649</v>
       </c>
       <c r="H11" s="14">
         <v>0</v>
@@ -9470,10 +9618,10 @@
         <v>2023</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="5" t="s">
@@ -9483,7 +9631,7 @@
         <v>346</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H12" s="14">
         <v>1</v>
@@ -9504,10 +9652,10 @@
         <v>2024</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="5"/>
@@ -9532,10 +9680,10 @@
         <v>2024</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="5"/>
@@ -9560,10 +9708,10 @@
         <v>2024</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="5"/>
@@ -9588,10 +9736,10 @@
         <v>2024</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="5"/>
@@ -9616,10 +9764,10 @@
         <v>2024</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="5"/>
@@ -9654,7 +9802,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="H3:I17">
-    <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9671,7 +9819,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J17">
-    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9702,7 +9850,7 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9721,7 +9869,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>21</v>
@@ -10933,19 +11081,19 @@
         <v>2020</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>453</v>
       </c>
       <c r="D42" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>653</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>654</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -10967,7 +11115,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H41">
-    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10984,7 +11132,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11010,12 +11158,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11035,7 +11183,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>21</v>
@@ -11081,7 +11229,7 @@
         <v>494</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>495</v>
@@ -11109,7 +11257,7 @@
         <v>494</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>497</v>
@@ -11137,7 +11285,7 @@
         <v>494</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>499</v>
@@ -11165,7 +11313,7 @@
         <v>494</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>8</v>
@@ -11193,7 +11341,7 @@
         <v>494</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>501</v>
@@ -11221,7 +11369,7 @@
         <v>494</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>502</v>
@@ -11249,7 +11397,7 @@
         <v>494</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>438</v>
@@ -11277,7 +11425,7 @@
         <v>494</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>503</v>
@@ -11305,7 +11453,7 @@
         <v>494</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>9</v>
@@ -11672,10 +11820,10 @@
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -11693,17 +11841,17 @@
         <v>2022</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>504</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -11721,17 +11869,17 @@
         <v>2023</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>504</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -11749,7 +11897,7 @@
         <v>2024</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>504</v>
@@ -11778,7 +11926,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="containsText" dxfId="36" priority="56" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="56" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11795,17 +11943,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="35" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="34" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="59" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="containsText" dxfId="33" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11822,17 +11970,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="32" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="31" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="30" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11849,17 +11997,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="29" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="28" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="27" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11876,17 +12024,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="25" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11903,17 +12051,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="22" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="21" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11930,17 +12078,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="19" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11957,17 +12105,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11984,17 +12132,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="14" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="13" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12011,17 +12159,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="10" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12038,17 +12186,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12065,12 +12213,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12084,12 +12232,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12107,7 +12255,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>21</v>
@@ -12157,8 +12305,12 @@
       <c r="D3" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>670</v>
+      </c>
       <c r="G3" s="33">
         <v>1</v>
       </c>
@@ -12183,8 +12335,12 @@
       <c r="D4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>672</v>
+      </c>
       <c r="G4" s="33">
         <v>1</v>
       </c>
@@ -12209,8 +12365,12 @@
       <c r="D5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>674</v>
+      </c>
       <c r="G5" s="33">
         <v>3</v>
       </c>
@@ -12235,8 +12395,12 @@
       <c r="D6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>676</v>
+      </c>
       <c r="G6" s="33">
         <v>1</v>
       </c>
@@ -12261,8 +12425,12 @@
       <c r="D7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>678</v>
+      </c>
       <c r="G7" s="33">
         <v>1</v>
       </c>
@@ -12287,8 +12455,12 @@
       <c r="D8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>680</v>
+      </c>
       <c r="G8" s="33">
         <v>1</v>
       </c>
@@ -12313,8 +12485,12 @@
       <c r="D9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>682</v>
+      </c>
       <c r="G9" s="33">
         <v>0</v>
       </c>
@@ -12339,8 +12515,12 @@
       <c r="D10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>684</v>
+      </c>
       <c r="G10" s="33">
         <v>0</v>
       </c>
@@ -12365,8 +12545,12 @@
       <c r="D11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>686</v>
+      </c>
       <c r="G11" s="33">
         <v>0</v>
       </c>
@@ -12391,8 +12575,12 @@
       <c r="D12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>688</v>
+      </c>
       <c r="G12" s="33">
         <v>0</v>
       </c>
@@ -12417,8 +12605,12 @@
       <c r="D13" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>690</v>
+      </c>
       <c r="G13" s="33">
         <v>1</v>
       </c>
@@ -12443,8 +12635,12 @@
       <c r="D14" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="G14" s="33">
         <v>1</v>
       </c>
@@ -12469,8 +12665,12 @@
       <c r="D15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>694</v>
+      </c>
       <c r="G15" s="33">
         <v>0</v>
       </c>
@@ -12487,7 +12687,7 @@
         <v>2022</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>665</v>
+        <v>713</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>519</v>
@@ -12495,8 +12695,12 @@
       <c r="D16" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>695</v>
+      </c>
       <c r="G16" s="33">
         <v>0</v>
       </c>
@@ -12513,7 +12717,7 @@
         <v>2022</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>519</v>
@@ -12521,8 +12725,12 @@
       <c r="D17" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>697</v>
+      </c>
       <c r="G17" s="33">
         <v>0</v>
       </c>
@@ -12539,7 +12747,7 @@
         <v>2022</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>519</v>
@@ -12547,8 +12755,12 @@
       <c r="D18" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>699</v>
+      </c>
       <c r="G18" s="33">
         <v>0</v>
       </c>
@@ -12565,7 +12777,7 @@
         <v>2022</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>519</v>
@@ -12573,8 +12785,12 @@
       <c r="D19" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>690</v>
+      </c>
       <c r="G19" s="33">
         <v>0</v>
       </c>
@@ -12591,7 +12807,7 @@
         <v>2023</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>519</v>
@@ -12599,8 +12815,12 @@
       <c r="D20" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>702</v>
+      </c>
       <c r="G20" s="33">
         <v>2</v>
       </c>
@@ -12617,7 +12837,7 @@
         <v>2023</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>519</v>
@@ -12625,8 +12845,12 @@
       <c r="D21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>704</v>
+      </c>
       <c r="G21" s="33">
         <v>1</v>
       </c>
@@ -12643,7 +12867,7 @@
         <v>2023</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>671</v>
+        <v>709</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>519</v>
@@ -12651,8 +12875,12 @@
       <c r="D22" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>706</v>
+      </c>
       <c r="G22" s="33">
         <v>1</v>
       </c>
@@ -12669,7 +12897,7 @@
         <v>2023</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>672</v>
+        <v>710</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>519</v>
@@ -12677,8 +12905,12 @@
       <c r="D23" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>708</v>
+      </c>
       <c r="G23" s="33">
         <v>1</v>
       </c>
@@ -12694,7 +12926,9 @@
       <c r="A24" s="32">
         <v>2024</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>711</v>
+      </c>
       <c r="C24" s="22" t="s">
         <v>519</v>
       </c>
@@ -12718,7 +12952,9 @@
       <c r="A25" s="32">
         <v>2024</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>712</v>
+      </c>
       <c r="C25" s="22" t="s">
         <v>519</v>
       </c>
@@ -13563,7 +13799,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H59">
-    <cfRule type="containsText" dxfId="3" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D6A4DC-A6A3-41D5-BDC6-70EC1FBB8140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0492C16D-A830-44E4-B18A-A2D8A4E3C5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -3672,14 +3672,6 @@
   </cellStyles>
   <dxfs count="55">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4096,6 +4088,14 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4117,9 +4117,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4428,7 +4428,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G3:G6"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4723,7 +4723,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G3:G6"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4957,7 +4957,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K9" sqref="K9"/>
       <selection pane="topRight" activeCell="K9" sqref="K9"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
@@ -6631,7 +6631,7 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6733,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>15</v>
@@ -6779,7 +6779,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>15</v>
@@ -6825,7 +6825,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>15</v>
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>15</v>
@@ -6963,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>15</v>
@@ -7005,7 +7005,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>15</v>
@@ -7047,7 +7047,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>15</v>
@@ -7089,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>15</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>15</v>
@@ -7173,7 +7173,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="14">
         <v>1</v>
@@ -7215,7 +7215,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="14">
         <v>1</v>
@@ -7299,7 +7299,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="14">
         <v>1</v>
@@ -7383,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="14">
         <v>1</v>
@@ -7425,7 +7425,7 @@
         <v>3</v>
       </c>
       <c r="J19" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="14">
         <v>1</v>
@@ -7635,7 +7635,7 @@
         <v>2</v>
       </c>
       <c r="J24" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="14">
         <v>1</v>
@@ -7719,7 +7719,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K26" s="14">
         <v>1</v>
@@ -7761,7 +7761,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="14">
         <v>1</v>
@@ -7845,7 +7845,7 @@
         <v>5</v>
       </c>
       <c r="J29" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="14">
         <v>1</v>
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="14">
         <v>1</v>
@@ -8097,7 +8097,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="14">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="14">
         <v>1</v>
@@ -8223,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="14">
         <v>1</v>
@@ -8349,7 +8349,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="14">
         <v>1</v>
@@ -8391,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="14">
         <v>1</v>
@@ -8601,7 +8601,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="14">
         <v>1</v>
@@ -8850,13 +8850,13 @@
         <v>245</v>
       </c>
       <c r="I53" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="14">
         <v>0</v>
@@ -8898,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="14">
         <v>0</v>
@@ -8934,13 +8934,13 @@
         <v>245</v>
       </c>
       <c r="I55" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="14">
         <v>1</v>
       </c>
       <c r="K55" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="14">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>15</v>
       </c>
       <c r="I58" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="14">
         <v>1</v>
@@ -9214,7 +9214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9240,11 +9240,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB08FCB-4607-4875-B1CE-F05341C08ADF}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H2:I17"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9328,10 +9328,10 @@
         <v>626</v>
       </c>
       <c r="H3" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>15</v>
@@ -9362,7 +9362,7 @@
         <v>629</v>
       </c>
       <c r="H4" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="14">
         <v>1</v>
@@ -9396,7 +9396,7 @@
         <v>632</v>
       </c>
       <c r="H5" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="14">
         <v>2</v>
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>15</v>
@@ -9802,7 +9802,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="H3:I17">
-    <cfRule type="containsText" dxfId="41" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9819,7 +9819,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J17">
-    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9850,7 +9850,7 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="L36" sqref="L36"/>
+      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9959,7 +9959,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10049,7 +10049,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10076,7 +10076,7 @@
         <v>372</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
         <v>2</v>
@@ -10109,7 +10109,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10139,7 +10139,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10169,7 +10169,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10199,7 +10199,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10439,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10529,7 +10529,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10556,7 +10556,7 @@
         <v>413</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -10646,7 +10646,7 @@
         <v>423</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10706,7 +10706,7 @@
         <v>427</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -10736,7 +10736,7 @@
         <v>427</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -10766,10 +10766,10 @@
         <v>432</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10856,10 +10856,10 @@
         <v>420</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10886,10 +10886,10 @@
         <v>439</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10916,14 +10916,14 @@
         <v>441</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
       </c>
       <c r="I36" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10946,10 +10946,10 @@
         <v>443</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11066,7 +11066,7 @@
         <v>452</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="1">
         <v>1</v>
@@ -11115,7 +11115,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H41">
-    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11132,7 +11132,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11158,12 +11158,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11518,7 +11518,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -11605,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11885,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="9" t="str">
         <f t="shared" ref="I26:I27" si="4">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-"),AND(H26&gt;1,H26&lt;&gt;"-")),"Can exchange","")</f>
@@ -11926,7 +11926,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="containsText" dxfId="37" priority="56" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="56" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11943,17 +11943,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="36" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="35" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="59" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="containsText" dxfId="34" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11970,17 +11970,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="33" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="32" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="31" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11997,17 +11997,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="30" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="29" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="28" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12024,17 +12024,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="26" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="25" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12051,17 +12051,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="24" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="23" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12078,17 +12078,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="20" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12105,17 +12105,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="17" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12132,17 +12132,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12159,17 +12159,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="11" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12186,17 +12186,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12213,12 +12213,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12237,7 +12237,7 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12582,10 +12582,10 @@
         <v>688</v>
       </c>
       <c r="G12" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12672,7 +12672,7 @@
         <v>694</v>
       </c>
       <c r="G15" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="33">
         <v>1</v>
@@ -12702,10 +12702,10 @@
         <v>695</v>
       </c>
       <c r="G16" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12732,7 +12732,7 @@
         <v>697</v>
       </c>
       <c r="G17" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="33">
         <v>1</v>
@@ -12762,7 +12762,7 @@
         <v>699</v>
       </c>
       <c r="G18" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="33">
         <v>1</v>
@@ -12792,7 +12792,7 @@
         <v>690</v>
       </c>
       <c r="G19" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="33">
         <v>1</v>
@@ -12825,7 +12825,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="9" t="str">
         <f t="shared" si="0"/>
@@ -13799,7 +13799,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H59">
-    <cfRule type="containsText" dxfId="4" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0492C16D-A830-44E4-B18A-A2D8A4E3C5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C48F7CA-F5D0-4417-A25F-8C16A91F949E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -9240,7 +9240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB08FCB-4607-4875-B1CE-F05341C08ADF}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -9845,12 +9845,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9986,7 +9986,7 @@
         <v>363</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C48F7CA-F5D0-4417-A25F-8C16A91F949E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33128EA-B060-4F74-9397-7CD66CB4055A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="715">
   <si>
     <t>Trustees’ Garden</t>
   </si>
@@ -3155,6 +3155,9 @@
   </si>
   <si>
     <t>Nathanael Herreshoff, Reliance Yacht</t>
+  </si>
+  <si>
+    <t>Direct Current Defibrillator</t>
   </si>
 </sst>
 </file>
@@ -6627,11 +6630,11 @@
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7593,7 +7596,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="14">
         <v>1</v>
@@ -8892,10 +8895,10 @@
         <v>245</v>
       </c>
       <c r="I54" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="14">
         <v>1</v>
@@ -9024,7 +9027,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="14">
         <v>0</v>
@@ -9066,7 +9069,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="15" t="s">
         <v>15</v>
@@ -9244,7 +9247,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9600,10 +9603,10 @@
         <v>648</v>
       </c>
       <c r="H11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>15</v>
@@ -9690,10 +9693,10 @@
       <c r="F14" s="5"/>
       <c r="G14" s="44"/>
       <c r="H14" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>15</v>
@@ -9845,7 +9848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
@@ -11158,12 +11161,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11826,14 +11829,14 @@
         <v>656</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
       </c>
       <c r="I24" s="9" t="str">
         <f t="shared" ref="I24" si="2">IF(OR(AND(G24&gt;1,G24&lt;&gt;"-"),AND(H24&gt;1,H24&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11854,10 +11857,10 @@
         <v>655</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="9" t="str">
         <f t="shared" ref="I25" si="3">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-"),AND(H25&gt;1,H25&lt;&gt;"-")),"Can exchange","")</f>
@@ -11906,10 +11909,10 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="9" t="str">
         <f t="shared" si="4"/>
@@ -12237,7 +12240,7 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12492,10 +12495,10 @@
         <v>682</v>
       </c>
       <c r="G9" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12522,10 +12525,10 @@
         <v>684</v>
       </c>
       <c r="G10" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12552,10 +12555,10 @@
         <v>686</v>
       </c>
       <c r="G11" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12938,10 +12941,10 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12964,10 +12967,10 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12978,7 +12981,9 @@
       <c r="A26" s="32">
         <v>2024</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>714</v>
+      </c>
       <c r="C26" s="22" t="s">
         <v>519</v>
       </c>
@@ -12988,10 +12993,10 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="9" t="str">
         <f t="shared" si="0"/>
@@ -13826,7 +13831,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33128EA-B060-4F74-9397-7CD66CB4055A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CFC213-77AE-4F35-B3BB-259EA5B95C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -3164,7 +3164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3248,13 +3248,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3317,7 +3310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -3456,12 +3449,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3561,9 +3670,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3667,6 +3773,87 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4444,31 +4631,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="54" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53" t="s">
         <v>534</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="46"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -4484,13 +4671,13 @@
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="38" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="2"/>
@@ -4506,22 +4693,22 @@
         <v>547</v>
       </c>
       <c r="D3" s="22"/>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="39" t="s">
         <v>536</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="40">
         <v>0</v>
       </c>
-      <c r="I3" s="41">
-        <v>1</v>
-      </c>
-      <c r="J3" s="41" t="s">
+      <c r="I3" s="40">
+        <v>1</v>
+      </c>
+      <c r="J3" s="40" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="9" t="str">
@@ -4540,22 +4727,22 @@
         <v>547</v>
       </c>
       <c r="D4" s="22"/>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>539</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="H4" s="41">
-        <v>1</v>
-      </c>
-      <c r="I4" s="41">
-        <v>1</v>
-      </c>
-      <c r="J4" s="41" t="s">
+      <c r="H4" s="40">
+        <v>1</v>
+      </c>
+      <c r="I4" s="40">
+        <v>1</v>
+      </c>
+      <c r="J4" s="40" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="9" t="str">
@@ -4574,22 +4761,22 @@
         <v>547</v>
       </c>
       <c r="D5" s="22"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="39" t="s">
         <v>542</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="H5" s="41">
-        <v>1</v>
-      </c>
-      <c r="I5" s="41">
+      <c r="H5" s="40">
+        <v>1</v>
+      </c>
+      <c r="I5" s="40">
         <v>0</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="40" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="9" t="str">
@@ -4608,22 +4795,22 @@
         <v>547</v>
       </c>
       <c r="D6" s="22"/>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="39" t="s">
         <v>546</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="H6" s="41">
-        <v>1</v>
-      </c>
-      <c r="I6" s="41">
-        <v>1</v>
-      </c>
-      <c r="J6" s="41" t="s">
+      <c r="H6" s="40">
+        <v>1</v>
+      </c>
+      <c r="I6" s="40">
+        <v>1</v>
+      </c>
+      <c r="J6" s="40" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="9" t="str">
@@ -4726,7 +4913,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4739,31 +4926,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="57" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="59" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="46"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -4779,13 +4966,13 @@
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="38" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="2"/>
@@ -4801,22 +4988,22 @@
         <v>549</v>
       </c>
       <c r="D3" s="22"/>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="41" t="s">
         <v>552</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="H3" s="41">
-        <v>1</v>
-      </c>
-      <c r="I3" s="41">
+      <c r="H3" s="40">
+        <v>1</v>
+      </c>
+      <c r="I3" s="40">
         <v>0</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="40" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="9" t="str">
@@ -4835,22 +5022,22 @@
         <v>549</v>
       </c>
       <c r="D4" s="22"/>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>554</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="41" t="s">
         <v>555</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="H4" s="41">
-        <v>1</v>
-      </c>
-      <c r="I4" s="41">
+      <c r="H4" s="40">
+        <v>1</v>
+      </c>
+      <c r="I4" s="40">
         <v>0</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="40" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="9" t="str">
@@ -4869,22 +5056,22 @@
         <v>549</v>
       </c>
       <c r="D5" s="22"/>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>557</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="H5" s="41">
-        <v>1</v>
-      </c>
-      <c r="I5" s="41">
+      <c r="H5" s="40">
+        <v>1</v>
+      </c>
+      <c r="I5" s="40">
         <v>0</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="40" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="9" t="str">
@@ -4903,22 +5090,22 @@
         <v>549</v>
       </c>
       <c r="D6" s="22"/>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="41" t="s">
         <v>560</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="41" t="s">
         <v>561</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="H6" s="41">
-        <v>1</v>
-      </c>
-      <c r="I6" s="41">
-        <v>1</v>
-      </c>
-      <c r="J6" s="41" t="s">
+      <c r="H6" s="40">
+        <v>1</v>
+      </c>
+      <c r="I6" s="40">
+        <v>1</v>
+      </c>
+      <c r="J6" s="40" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="9" t="str">
@@ -4964,7 +5151,7 @@
       <selection activeCell="K9" sqref="K9"/>
       <selection pane="topRight" activeCell="K9" sqref="K9"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4980,28 +5167,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="H1" s="62"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -6630,11 +6817,11 @@
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6650,32 +6837,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65" t="s">
         <v>352</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="67"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -6726,7 +6913,7 @@
       <c r="F3" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="43" t="s">
         <v>244</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -6772,7 +6959,7 @@
       <c r="F4" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="43" t="s">
         <v>244</v>
       </c>
       <c r="H4" s="21" t="s">
@@ -6818,7 +7005,7 @@
       <c r="F5" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>244</v>
       </c>
       <c r="H5" s="21" t="s">
@@ -6864,7 +7051,7 @@
       <c r="F6" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="43" t="s">
         <v>244</v>
       </c>
       <c r="H6" s="21" t="s">
@@ -6910,7 +7097,7 @@
       <c r="F7" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="43" t="s">
         <v>244</v>
       </c>
       <c r="H7" s="21" t="s">
@@ -6956,7 +7143,7 @@
       <c r="F8" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="43" t="s">
         <v>244</v>
       </c>
       <c r="H8" s="21" t="s">
@@ -6998,7 +7185,7 @@
       <c r="F9" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="43" t="s">
         <v>244</v>
       </c>
       <c r="H9" s="21" t="s">
@@ -7040,7 +7227,7 @@
       <c r="F10" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="43" t="s">
         <v>244</v>
       </c>
       <c r="H10" s="21" t="s">
@@ -7082,7 +7269,7 @@
       <c r="F11" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="43" t="s">
         <v>244</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -7124,7 +7311,7 @@
       <c r="F12" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="43" t="s">
         <v>244</v>
       </c>
       <c r="H12" s="21" t="s">
@@ -9096,7 +9283,7 @@
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="I3:J12 L48 L50:L51 I13:K58">
     <cfRule type="containsText" dxfId="48" priority="18" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
@@ -9247,7 +9434,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9261,30 +9448,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="66" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="65" t="s">
         <v>352</v>
       </c>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="46"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -9327,7 +9514,7 @@
       <c r="F3" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="43" t="s">
         <v>626</v>
       </c>
       <c r="H3" s="14">
@@ -9361,7 +9548,7 @@
       <c r="F4" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="43" t="s">
         <v>629</v>
       </c>
       <c r="H4" s="14">
@@ -9395,7 +9582,7 @@
       <c r="F5" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>632</v>
       </c>
       <c r="H5" s="14">
@@ -9429,7 +9616,7 @@
       <c r="F6" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="43" t="s">
         <v>634</v>
       </c>
       <c r="H6" s="14">
@@ -9463,7 +9650,7 @@
       <c r="F7" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="43" t="s">
         <v>636</v>
       </c>
       <c r="H7" s="14">
@@ -9497,7 +9684,7 @@
       <c r="F8" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="43" t="s">
         <v>639</v>
       </c>
       <c r="H8" s="14">
@@ -9531,7 +9718,7 @@
       <c r="F9" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="43" t="s">
         <v>642</v>
       </c>
       <c r="H9" s="14">
@@ -9565,7 +9752,7 @@
       <c r="F10" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="43" t="s">
         <v>645</v>
       </c>
       <c r="H10" s="14">
@@ -9599,21 +9786,21 @@
       <c r="F11" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="43" t="s">
         <v>648</v>
       </c>
       <c r="H11" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -9633,14 +9820,14 @@
       <c r="F12" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="43" t="s">
         <v>649</v>
       </c>
       <c r="H12" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>15</v>
@@ -9663,7 +9850,7 @@
       <c r="D13" s="22"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="44"/>
+      <c r="G13" s="43"/>
       <c r="H13" s="14">
         <v>1</v>
       </c>
@@ -9691,7 +9878,7 @@
       <c r="D14" s="22"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="44"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="14">
         <v>1</v>
       </c>
@@ -9719,7 +9906,7 @@
       <c r="D15" s="22"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="44"/>
+      <c r="G15" s="43"/>
       <c r="H15" s="14">
         <v>0</v>
       </c>
@@ -9747,7 +9934,7 @@
       <c r="D16" s="22"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="44"/>
+      <c r="G16" s="43"/>
       <c r="H16" s="14">
         <v>0</v>
       </c>
@@ -9775,7 +9962,7 @@
       <c r="D17" s="22"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="44"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="14">
         <v>0</v>
       </c>
@@ -9803,7 +9990,7 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="H3:I17">
     <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
@@ -9848,12 +10035,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="B41" sqref="B38:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9868,28 +10055,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="68" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="67" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="69"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -10202,7 +10389,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10262,7 +10449,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10469,7 +10656,7 @@
         <v>397</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
@@ -10559,14 +10746,14 @@
         <v>413</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
       </c>
       <c r="I24" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10619,7 +10806,7 @@
         <v>420</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -10652,7 +10839,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10679,7 +10866,7 @@
         <v>420</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
@@ -10712,7 +10899,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10742,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11161,18 +11348,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="40.81640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="36.7265625" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
     <col min="5" max="6" width="12.453125" customWidth="1"/>
@@ -11182,28 +11369,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="57" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="72" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="71" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="72"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="71"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -11335,27 +11522,27 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26">
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="80">
         <v>2004</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="81"/>
+      <c r="C7" s="82" t="s">
         <v>494</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="82" t="s">
         <v>663</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="83" t="s">
         <v>501</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="83" t="s">
         <v>501</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="84">
         <v>0</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="84">
         <v>0</v>
       </c>
       <c r="I7" s="9" t="str">
@@ -11364,26 +11551,26 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26">
+      <c r="A8" s="85">
         <v>2005</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="86"/>
+      <c r="C8" s="87" t="s">
         <v>494</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="87" t="s">
         <v>663</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="88" t="s">
         <v>502</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="88" t="s">
         <v>502</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="89">
         <v>0</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="89">
         <v>0</v>
       </c>
       <c r="I8" s="9" t="str">
@@ -11475,27 +11662,27 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26">
+    <row r="12" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="80">
         <v>2009</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="81" t="s">
         <v>505</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="82" t="s">
         <v>504</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="D12" s="82"/>
+      <c r="E12" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="G12" s="84">
+        <v>1</v>
+      </c>
+      <c r="H12" s="84">
         <v>0</v>
       </c>
       <c r="I12" s="9" t="str">
@@ -11504,26 +11691,26 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26">
+      <c r="A13" s="85">
         <v>2010</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="86" t="s">
         <v>506</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="87" t="s">
         <v>504</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="87"/>
+      <c r="E13" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="G13" s="89">
+        <v>1</v>
+      </c>
+      <c r="H13" s="89">
         <v>1</v>
       </c>
       <c r="I13" s="9" t="str">
@@ -11615,27 +11802,27 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="26">
+    <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="80">
         <v>2014</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="81" t="s">
         <v>510</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="82" t="s">
         <v>504</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="82"/>
+      <c r="E17" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="G17" s="84">
+        <v>1</v>
+      </c>
+      <c r="H17" s="84">
         <v>0</v>
       </c>
       <c r="I17" s="9" t="str">
@@ -11644,26 +11831,26 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="26">
+      <c r="A18" s="85">
         <v>2015</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="86" t="s">
         <v>511</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="87" t="s">
         <v>504</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="87"/>
+      <c r="E18" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="38">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="89">
         <v>0</v>
       </c>
       <c r="I18" s="9" t="str">
@@ -11755,27 +11942,27 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="26">
+    <row r="22" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="80">
         <v>2019</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="81" t="s">
         <v>515</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="82" t="s">
         <v>504</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="82"/>
+      <c r="E22" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="84">
         <v>2</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="84">
         <v>1</v>
       </c>
       <c r="I22" s="9" t="str">
@@ -11784,26 +11971,26 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="26">
+      <c r="A23" s="75">
         <v>2020</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="76" t="s">
         <v>572</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="77" t="s">
         <v>504</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="77"/>
+      <c r="E23" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="79">
         <v>2</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="79">
         <v>1</v>
       </c>
       <c r="I23" s="9" t="str">
@@ -11857,14 +12044,14 @@
         <v>655</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="9" t="str">
         <f t="shared" ref="I25" si="3">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-"),AND(H25&gt;1,H25&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11885,14 +12072,14 @@
         <v>658</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
       </c>
       <c r="I26" s="9" t="str">
         <f t="shared" ref="I26:I27" si="4">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-"),AND(H26&gt;1,H26&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12240,7 +12427,7 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12254,28 +12441,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="73" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75" t="s">
+      <c r="F1" s="73"/>
+      <c r="G1" s="74" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="75"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="71"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -12345,10 +12532,10 @@
         <v>672</v>
       </c>
       <c r="G4" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="9" t="str">
         <f t="shared" si="0"/>
@@ -12415,29 +12602,29 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32">
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="92">
         <v>2019</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="94" t="s">
         <v>519</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="95" t="s">
         <v>677</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="95" t="s">
         <v>678</v>
       </c>
-      <c r="G7" s="33">
-        <v>1</v>
-      </c>
-      <c r="H7" s="33">
+      <c r="G7" s="96">
+        <v>1</v>
+      </c>
+      <c r="H7" s="96">
         <v>1</v>
       </c>
       <c r="I7" s="9" t="str">
@@ -12446,28 +12633,28 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32">
+      <c r="A8" s="97">
         <v>2020</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="98" t="s">
         <v>574</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="99" t="s">
         <v>519</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="100" t="s">
         <v>679</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="100" t="s">
         <v>680</v>
       </c>
-      <c r="G8" s="33">
-        <v>1</v>
-      </c>
-      <c r="H8" s="33">
+      <c r="G8" s="101">
+        <v>1</v>
+      </c>
+      <c r="H8" s="101">
         <v>1</v>
       </c>
       <c r="I8" s="9" t="str">
@@ -12565,29 +12752,29 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32">
+    <row r="12" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="92">
         <v>2021</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="93" t="s">
         <v>578</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="94" t="s">
         <v>519</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="95" t="s">
         <v>687</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="95" t="s">
         <v>688</v>
       </c>
-      <c r="G12" s="33">
-        <v>1</v>
-      </c>
-      <c r="H12" s="33">
+      <c r="G12" s="96">
+        <v>1</v>
+      </c>
+      <c r="H12" s="96">
         <v>1</v>
       </c>
       <c r="I12" s="9" t="str">
@@ -12596,28 +12783,28 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="32">
+      <c r="A13" s="97">
         <v>2021</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="98" t="s">
         <v>579</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="99" t="s">
         <v>519</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="100" t="s">
         <v>689</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="100" t="s">
         <v>690</v>
       </c>
-      <c r="G13" s="33">
-        <v>1</v>
-      </c>
-      <c r="H13" s="33">
+      <c r="G13" s="101">
+        <v>1</v>
+      </c>
+      <c r="H13" s="101">
         <v>1</v>
       </c>
       <c r="I13" s="9" t="str">
@@ -12715,29 +12902,29 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32">
+    <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="92">
         <v>2022</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="93" t="s">
         <v>665</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="94" t="s">
         <v>519</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="95" t="s">
         <v>696</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="95" t="s">
         <v>697</v>
       </c>
-      <c r="G17" s="33">
-        <v>1</v>
-      </c>
-      <c r="H17" s="33">
+      <c r="G17" s="96">
+        <v>1</v>
+      </c>
+      <c r="H17" s="96">
         <v>1</v>
       </c>
       <c r="I17" s="9" t="str">
@@ -12746,28 +12933,28 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32">
+      <c r="A18" s="97">
         <v>2022</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="98" t="s">
         <v>664</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="99" t="s">
         <v>519</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="100" t="s">
         <v>698</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="100" t="s">
         <v>699</v>
       </c>
-      <c r="G18" s="33">
-        <v>1</v>
-      </c>
-      <c r="H18" s="33">
+      <c r="G18" s="101">
+        <v>1</v>
+      </c>
+      <c r="H18" s="101">
         <v>1</v>
       </c>
       <c r="I18" s="9" t="str">
@@ -12865,29 +13052,29 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32">
+    <row r="22" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="92">
         <v>2023</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="93" t="s">
         <v>709</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="94" t="s">
         <v>519</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="95" t="s">
         <v>705</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="95" t="s">
         <v>706</v>
       </c>
-      <c r="G22" s="33">
-        <v>1</v>
-      </c>
-      <c r="H22" s="33">
+      <c r="G22" s="96">
+        <v>1</v>
+      </c>
+      <c r="H22" s="96">
         <v>1</v>
       </c>
       <c r="I22" s="9" t="str">
@@ -12896,28 +13083,28 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="32">
+      <c r="A23" s="97">
         <v>2023</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="98" t="s">
         <v>710</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="99" t="s">
         <v>519</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="100" t="s">
         <v>707</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="100" t="s">
         <v>708</v>
       </c>
-      <c r="G23" s="33">
-        <v>1</v>
-      </c>
-      <c r="H23" s="33">
+      <c r="G23" s="101">
+        <v>1</v>
+      </c>
+      <c r="H23" s="101">
         <v>1</v>
       </c>
       <c r="I23" s="9" t="str">
@@ -13003,23 +13190,23 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="32">
+    <row r="27" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="92">
         <v>2024</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="93"/>
+      <c r="C27" s="94" t="s">
         <v>519</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="33">
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="96">
         <v>0</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="96">
         <v>0</v>
       </c>
       <c r="I27" s="9" t="str">
@@ -13028,22 +13215,22 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="32">
+      <c r="A28" s="90">
         <v>2025</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="76"/>
+      <c r="C28" s="77" t="s">
         <v>519</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="33">
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="91">
         <v>0</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="91">
         <v>0</v>
       </c>
       <c r="I28" s="9" t="str">
@@ -13892,7 +14079,7 @@
       <c r="B5" s="34" t="s">
         <v>562</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>563</v>
       </c>
     </row>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CFC213-77AE-4F35-B3BB-259EA5B95C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85114F6B-A558-4D31-9ACF-71E8015D5C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -3689,6 +3689,87 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3773,87 +3854,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4631,31 +4631,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="73" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="53" t="s">
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80" t="s">
         <v>534</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -4913,7 +4913,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomRight" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4926,31 +4926,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="73" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="56" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58" t="s">
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="85" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -5167,28 +5167,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="73" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="48" t="s">
+      <c r="F1" s="87"/>
+      <c r="G1" s="75" t="s">
         <v>352</v>
       </c>
-      <c r="H1" s="61"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -6837,32 +6837,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="73" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65" t="s">
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>352</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="66"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="93"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -9448,30 +9448,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="73" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="65" t="s">
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="92" t="s">
         <v>352</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -10035,7 +10035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
@@ -10055,28 +10055,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="73" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="67" t="s">
+      <c r="F1" s="87"/>
+      <c r="G1" s="94" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="68"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -11348,12 +11348,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11369,28 +11369,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="73" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="56" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="71" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="98" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="71"/>
+      <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="70"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -11523,26 +11523,26 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="80">
+      <c r="A7" s="49">
         <v>2004</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="82" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="51" t="s">
         <v>663</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="52" t="s">
         <v>501</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="52" t="s">
         <v>501</v>
       </c>
-      <c r="G7" s="84">
+      <c r="G7" s="53">
         <v>0</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="53">
         <v>0</v>
       </c>
       <c r="I7" s="9" t="str">
@@ -11551,26 +11551,26 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="85">
+      <c r="A8" s="54">
         <v>2005</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="87" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="56" t="s">
         <v>663</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="57" t="s">
         <v>502</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="57" t="s">
         <v>502</v>
       </c>
-      <c r="G8" s="89">
+      <c r="G8" s="58">
         <v>0</v>
       </c>
-      <c r="H8" s="89">
+      <c r="H8" s="58">
         <v>0</v>
       </c>
       <c r="I8" s="9" t="str">
@@ -11663,26 +11663,26 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="80">
+      <c r="A12" s="49">
         <v>2009</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="50" t="s">
         <v>505</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="83" t="s">
+      <c r="D12" s="51"/>
+      <c r="E12" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="84">
-        <v>1</v>
-      </c>
-      <c r="H12" s="84">
+      <c r="G12" s="53">
+        <v>1</v>
+      </c>
+      <c r="H12" s="53">
         <v>0</v>
       </c>
       <c r="I12" s="9" t="str">
@@ -11691,26 +11691,26 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="85">
+      <c r="A13" s="54">
         <v>2010</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="55" t="s">
         <v>506</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="56" t="s">
         <v>504</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88" t="s">
+      <c r="D13" s="56"/>
+      <c r="E13" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="89">
-        <v>1</v>
-      </c>
-      <c r="H13" s="89">
+      <c r="G13" s="58">
+        <v>1</v>
+      </c>
+      <c r="H13" s="58">
         <v>1</v>
       </c>
       <c r="I13" s="9" t="str">
@@ -11803,26 +11803,26 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="80">
+      <c r="A17" s="49">
         <v>2014</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="50" t="s">
         <v>510</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="83" t="s">
+      <c r="D17" s="51"/>
+      <c r="E17" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="83" t="s">
+      <c r="F17" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="84">
-        <v>1</v>
-      </c>
-      <c r="H17" s="84">
+      <c r="G17" s="53">
+        <v>1</v>
+      </c>
+      <c r="H17" s="53">
         <v>0</v>
       </c>
       <c r="I17" s="9" t="str">
@@ -11831,26 +11831,26 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="85">
+      <c r="A18" s="54">
         <v>2015</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="55" t="s">
         <v>511</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="56" t="s">
         <v>504</v>
       </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88" t="s">
+      <c r="D18" s="56"/>
+      <c r="E18" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="88" t="s">
+      <c r="F18" s="57" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="89">
+      <c r="H18" s="58">
         <v>0</v>
       </c>
       <c r="I18" s="9" t="str">
@@ -11943,26 +11943,26 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="80">
+      <c r="A22" s="49">
         <v>2019</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="50" t="s">
         <v>515</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83" t="s">
+      <c r="D22" s="51"/>
+      <c r="E22" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="83" t="s">
+      <c r="F22" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="84">
+      <c r="G22" s="53">
         <v>2</v>
       </c>
-      <c r="H22" s="84">
+      <c r="H22" s="53">
         <v>1</v>
       </c>
       <c r="I22" s="9" t="str">
@@ -11971,26 +11971,26 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="75">
+      <c r="A23" s="44">
         <v>2020</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="46" t="s">
         <v>504</v>
       </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="78" t="s">
+      <c r="D23" s="46"/>
+      <c r="E23" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="78" t="s">
+      <c r="F23" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="79">
+      <c r="G23" s="48">
         <v>2</v>
       </c>
-      <c r="H23" s="79">
+      <c r="H23" s="48">
         <v>1</v>
       </c>
       <c r="I23" s="9" t="str">
@@ -12019,7 +12019,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="9" t="str">
         <f t="shared" ref="I24" si="2">IF(OR(AND(G24&gt;1,G24&lt;&gt;"-"),AND(H24&gt;1,H24&lt;&gt;"-")),"Can exchange","")</f>
@@ -12441,28 +12441,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="73" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74" t="s">
+      <c r="F1" s="100"/>
+      <c r="G1" s="101" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="74"/>
+      <c r="H1" s="101"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="70"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -12603,28 +12603,28 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="92">
+      <c r="A7" s="61">
         <v>2019</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="63" t="s">
         <v>519</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="64" t="s">
         <v>677</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" s="64" t="s">
         <v>678</v>
       </c>
-      <c r="G7" s="96">
-        <v>1</v>
-      </c>
-      <c r="H7" s="96">
+      <c r="G7" s="65">
+        <v>1</v>
+      </c>
+      <c r="H7" s="65">
         <v>1</v>
       </c>
       <c r="I7" s="9" t="str">
@@ -12633,28 +12633,28 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="97">
+      <c r="A8" s="66">
         <v>2020</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="67" t="s">
         <v>574</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="68" t="s">
         <v>519</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="69" t="s">
         <v>679</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="69" t="s">
         <v>680</v>
       </c>
-      <c r="G8" s="101">
-        <v>1</v>
-      </c>
-      <c r="H8" s="101">
+      <c r="G8" s="70">
+        <v>1</v>
+      </c>
+      <c r="H8" s="70">
         <v>1</v>
       </c>
       <c r="I8" s="9" t="str">
@@ -12753,28 +12753,28 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="92">
+      <c r="A12" s="61">
         <v>2021</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="62" t="s">
         <v>578</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="63" t="s">
         <v>519</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="64" t="s">
         <v>687</v>
       </c>
-      <c r="F12" s="95" t="s">
+      <c r="F12" s="64" t="s">
         <v>688</v>
       </c>
-      <c r="G12" s="96">
-        <v>1</v>
-      </c>
-      <c r="H12" s="96">
+      <c r="G12" s="65">
+        <v>1</v>
+      </c>
+      <c r="H12" s="65">
         <v>1</v>
       </c>
       <c r="I12" s="9" t="str">
@@ -12783,28 +12783,28 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="97">
+      <c r="A13" s="66">
         <v>2021</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="67" t="s">
         <v>579</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="68" t="s">
         <v>519</v>
       </c>
-      <c r="D13" s="99" t="s">
+      <c r="D13" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="100" t="s">
+      <c r="E13" s="69" t="s">
         <v>689</v>
       </c>
-      <c r="F13" s="100" t="s">
+      <c r="F13" s="69" t="s">
         <v>690</v>
       </c>
-      <c r="G13" s="101">
-        <v>1</v>
-      </c>
-      <c r="H13" s="101">
+      <c r="G13" s="70">
+        <v>1</v>
+      </c>
+      <c r="H13" s="70">
         <v>1</v>
       </c>
       <c r="I13" s="9" t="str">
@@ -12903,28 +12903,28 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="92">
+      <c r="A17" s="61">
         <v>2022</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="62" t="s">
         <v>665</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="63" t="s">
         <v>519</v>
       </c>
-      <c r="D17" s="94" t="s">
+      <c r="D17" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="95" t="s">
+      <c r="E17" s="64" t="s">
         <v>696</v>
       </c>
-      <c r="F17" s="95" t="s">
+      <c r="F17" s="64" t="s">
         <v>697</v>
       </c>
-      <c r="G17" s="96">
-        <v>1</v>
-      </c>
-      <c r="H17" s="96">
+      <c r="G17" s="65">
+        <v>1</v>
+      </c>
+      <c r="H17" s="65">
         <v>1</v>
       </c>
       <c r="I17" s="9" t="str">
@@ -12933,28 +12933,28 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="97">
+      <c r="A18" s="66">
         <v>2022</v>
       </c>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="67" t="s">
         <v>664</v>
       </c>
-      <c r="C18" s="99" t="s">
+      <c r="C18" s="68" t="s">
         <v>519</v>
       </c>
-      <c r="D18" s="99" t="s">
+      <c r="D18" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="100" t="s">
+      <c r="E18" s="69" t="s">
         <v>698</v>
       </c>
-      <c r="F18" s="100" t="s">
+      <c r="F18" s="69" t="s">
         <v>699</v>
       </c>
-      <c r="G18" s="101">
-        <v>1</v>
-      </c>
-      <c r="H18" s="101">
+      <c r="G18" s="70">
+        <v>1</v>
+      </c>
+      <c r="H18" s="70">
         <v>1</v>
       </c>
       <c r="I18" s="9" t="str">
@@ -13053,28 +13053,28 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="92">
+      <c r="A22" s="61">
         <v>2023</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="62" t="s">
         <v>709</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="63" t="s">
         <v>519</v>
       </c>
-      <c r="D22" s="94" t="s">
+      <c r="D22" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="95" t="s">
+      <c r="E22" s="64" t="s">
         <v>705</v>
       </c>
-      <c r="F22" s="95" t="s">
+      <c r="F22" s="64" t="s">
         <v>706</v>
       </c>
-      <c r="G22" s="96">
-        <v>1</v>
-      </c>
-      <c r="H22" s="96">
+      <c r="G22" s="65">
+        <v>1</v>
+      </c>
+      <c r="H22" s="65">
         <v>1</v>
       </c>
       <c r="I22" s="9" t="str">
@@ -13083,28 +13083,28 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="97">
+      <c r="A23" s="66">
         <v>2023</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="67" t="s">
         <v>710</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="68" t="s">
         <v>519</v>
       </c>
-      <c r="D23" s="99" t="s">
+      <c r="D23" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="100" t="s">
+      <c r="E23" s="69" t="s">
         <v>707</v>
       </c>
-      <c r="F23" s="100" t="s">
+      <c r="F23" s="69" t="s">
         <v>708</v>
       </c>
-      <c r="G23" s="101">
-        <v>1</v>
-      </c>
-      <c r="H23" s="101">
+      <c r="G23" s="70">
+        <v>1</v>
+      </c>
+      <c r="H23" s="70">
         <v>1</v>
       </c>
       <c r="I23" s="9" t="str">
@@ -13191,22 +13191,22 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="92">
+      <c r="A27" s="61">
         <v>2024</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="94" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="63" t="s">
         <v>519</v>
       </c>
-      <c r="D27" s="94" t="s">
+      <c r="D27" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="96">
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="65">
         <v>0</v>
       </c>
-      <c r="H27" s="96">
+      <c r="H27" s="65">
         <v>0</v>
       </c>
       <c r="I27" s="9" t="str">
@@ -13215,22 +13215,22 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="90">
+      <c r="A28" s="59">
         <v>2025</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="77" t="s">
+      <c r="B28" s="45"/>
+      <c r="C28" s="46" t="s">
         <v>519</v>
       </c>
-      <c r="D28" s="77" t="s">
+      <c r="D28" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="91">
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="60">
         <v>0</v>
       </c>
-      <c r="H28" s="91">
+      <c r="H28" s="60">
         <v>0</v>
       </c>
       <c r="I28" s="9" t="str">

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85114F6B-A558-4D31-9ACF-71E8015D5C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2CAE41-0757-4399-97BD-1288B2AAE57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="716">
   <si>
     <t>Trustees’ Garden</t>
   </si>
@@ -3158,6 +3158,9 @@
   </si>
   <si>
     <t>Direct Current Defibrillator</t>
+  </si>
+  <si>
+    <t>George Washington Carver</t>
   </si>
 </sst>
 </file>
@@ -9434,7 +9437,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9824,10 +9827,10 @@
         <v>649</v>
       </c>
       <c r="H12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>15</v>
@@ -9908,10 +9911,10 @@
       <c r="F15" s="5"/>
       <c r="G15" s="43"/>
       <c r="H15" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>15</v>
@@ -9936,10 +9939,10 @@
       <c r="F16" s="5"/>
       <c r="G16" s="43"/>
       <c r="H16" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>15</v>
@@ -11348,7 +11351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
@@ -12422,12 +12425,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13194,7 +13197,9 @@
       <c r="A27" s="61">
         <v>2024</v>
       </c>
-      <c r="B27" s="62"/>
+      <c r="B27" s="62" t="s">
+        <v>715</v>
+      </c>
       <c r="C27" s="63" t="s">
         <v>519</v>
       </c>
@@ -13204,10 +13209,10 @@
       <c r="E27" s="64"/>
       <c r="F27" s="64"/>
       <c r="G27" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="9" t="str">
         <f t="shared" si="0"/>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2CAE41-0757-4399-97BD-1288B2AAE57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DE8B6E-9790-4DC1-855B-E13F4AAFF6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="716">
   <si>
     <t>Trustees’ Garden</t>
   </si>
@@ -9431,13 +9431,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB08FCB-4607-4875-B1CE-F05341C08ADF}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9939,17 +9939,17 @@
       <c r="F16" s="5"/>
       <c r="G16" s="43"/>
       <c r="H16" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -9984,6 +9984,11 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G23" s="6" t="s">
+        <v>533</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12425,7 +12430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DE8B6E-9790-4DC1-855B-E13F4AAFF6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CCDF54-902B-4DF2-9650-5E936E293DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4910" yWindow="630" windowWidth="28720" windowHeight="19550" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -9433,11 +9433,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB08FCB-4607-4875-B1CE-F05341C08ADF}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10048,7 +10048,7 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="B41" sqref="B38:H41"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10427,7 +10427,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10484,7 +10484,7 @@
         <v>392</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -10514,10 +10514,10 @@
         <v>395</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10544,7 +10544,7 @@
         <v>398</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -10814,14 +10814,14 @@
         <v>420</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
       <c r="I26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10994,7 +10994,7 @@
         <v>432</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1">
         <v>1</v>
@@ -11174,7 +11174,7 @@
         <v>418</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="1">
         <v>1</v>
@@ -11356,12 +11356,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11439,7 +11439,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="9" t="str">
         <f t="shared" ref="I3:I22" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11579,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11607,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11635,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11663,7 +11663,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11691,7 +11691,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11744,10 +11744,10 @@
         <v>6</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11772,10 +11772,10 @@
         <v>8</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11800,7 +11800,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -11831,7 +11831,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11859,7 +11859,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11887,7 +11887,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="9" t="str">
         <f t="shared" si="0"/>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CCDF54-902B-4DF2-9650-5E936E293DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41F0C23-3DCE-42E3-9A87-031533D4D3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4910" yWindow="630" windowWidth="28720" windowHeight="19550" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -4621,7 +4621,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4709,14 +4709,14 @@
         <v>0</v>
       </c>
       <c r="I3" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="40" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="9" t="str">
         <f t="shared" ref="K3:K6" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -4743,14 +4743,14 @@
         <v>1</v>
       </c>
       <c r="I4" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="40" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -4777,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="40" t="s">
         <v>15</v>
@@ -4811,14 +4811,14 @@
         <v>1</v>
       </c>
       <c r="I6" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="40" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
   </sheetData>
@@ -4916,7 +4916,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K54" sqref="K54"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5004,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="40" t="s">
         <v>15</v>
@@ -5038,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="40" t="s">
         <v>15</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="40" t="s">
         <v>15</v>
@@ -5106,14 +5106,14 @@
         <v>1</v>
       </c>
       <c r="I6" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="40" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
   </sheetData>
@@ -10043,12 +10043,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10397,7 +10397,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10577,7 +10577,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10607,7 +10607,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11356,12 +11356,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41F0C23-3DCE-42E3-9A87-031533D4D3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EA13A1-2358-45BD-9CBE-6F4A41139BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9680" yWindow="1450" windowWidth="28720" windowHeight="19550" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -832,6 +832,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
+    <author>Lord_Alexator</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
@@ -912,6 +913,21 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="1" shapeId="0" xr:uid="{BAB4F641-BADD-4C8F-AD39-B9B12F23FFAB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Дубли не UNC
 </t>
         </r>
       </text>
@@ -3167,7 +3183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3254,6 +3270,13 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -3573,7 +3596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3858,12 +3881,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4310,9 +4347,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4830,7 +4867,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J5">
-    <cfRule type="containsText" dxfId="54" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4847,7 +4884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4864,7 +4901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4881,7 +4918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5125,7 +5162,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J6">
-    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6793,7 +6830,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H58">
-    <cfRule type="containsText" dxfId="49" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9288,7 +9325,7 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="I3:J12 L48 L50:L51 I13:K58">
-    <cfRule type="containsText" dxfId="48" priority="18" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="18" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9305,7 +9342,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="47" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9322,7 +9359,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K12">
-    <cfRule type="containsText" dxfId="46" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9339,12 +9376,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L47">
-    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L57">
-    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9361,7 +9398,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7">
-    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9390,7 +9427,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9407,7 +9444,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58">
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10000,7 +10037,7 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="H3:I17">
-    <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10017,7 +10054,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J17">
-    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10048,7 +10085,7 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11313,7 +11350,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H41">
-    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11330,7 +11367,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11361,7 +11398,7 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="L36" sqref="L36"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11435,8 +11472,8 @@
       <c r="F3" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="G3" s="1">
-        <v>3</v>
+      <c r="G3" s="102">
+        <v>4</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -11464,7 +11501,7 @@
         <v>498</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -11492,7 +11529,7 @@
         <v>500</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -11520,7 +11557,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -11548,7 +11585,7 @@
         <v>501</v>
       </c>
       <c r="G7" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="53">
         <v>1</v>
@@ -11576,7 +11613,7 @@
         <v>502</v>
       </c>
       <c r="G8" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="58">
         <v>1</v>
@@ -11604,7 +11641,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -11632,7 +11669,7 @@
         <v>420</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -11660,7 +11697,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -11687,7 +11724,7 @@
       <c r="F12" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="103">
         <v>1</v>
       </c>
       <c r="H12" s="53">
@@ -12124,12 +12161,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="containsText" dxfId="36" priority="56" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="58" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12141,22 +12178,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="35" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="34" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H11">
-    <cfRule type="containsText" dxfId="33" priority="49" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G4:H11 H3">
+    <cfRule type="containsText" dxfId="34" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H11">
-    <cfRule type="colorScale" priority="50">
+  <conditionalFormatting sqref="G4:H11 H3">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12167,23 +12204,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="32" priority="51" operator="equal">
+  <conditionalFormatting sqref="G4:H11 H3">
+    <cfRule type="cellIs" dxfId="33" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="31" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="G4:H11 H3">
+    <cfRule type="cellIs" dxfId="32" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="30" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12195,22 +12232,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="29" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="28" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="27" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12222,22 +12259,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="25" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12249,22 +12286,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="22" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="21" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12276,22 +12313,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="19" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12303,22 +12340,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12330,22 +12367,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="14" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="13" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12357,22 +12394,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="10" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12384,22 +12421,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12411,13 +12448,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="greaterThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -14001,7 +14055,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H59">
-    <cfRule type="containsText" dxfId="3" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EA13A1-2358-45BD-9CBE-6F4A41139BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6F915F-65FE-4712-A927-2614664DA19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="1450" windowWidth="28720" windowHeight="19550" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -3796,6 +3796,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3881,26 +3887,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="56">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3909,6 +3901,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -4347,9 +4347,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4654,11 +4654,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4671,31 +4671,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="75" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80" t="s">
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82" t="s">
         <v>534</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>244</v>
       </c>
       <c r="H3" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="40">
         <v>2</v>
@@ -4966,31 +4966,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="75" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="83" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="85" t="s">
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -5207,28 +5207,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="75" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="75" t="s">
+      <c r="F1" s="89"/>
+      <c r="G1" s="77" t="s">
         <v>352</v>
       </c>
-      <c r="H1" s="88"/>
+      <c r="H1" s="90"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -6861,7 +6861,7 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6877,32 +6877,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="75" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="89" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="94" t="s">
         <v>352</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="93"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="95"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -9488,30 +9488,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="75" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="89" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="92" t="s">
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="94" t="s">
         <v>352</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -10080,7 +10080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
@@ -10100,28 +10100,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="75" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="94" t="s">
+      <c r="F1" s="89"/>
+      <c r="G1" s="96" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="95"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -11414,28 +11414,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="75" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="83" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="98" t="s">
+      <c r="F1" s="98"/>
+      <c r="G1" s="100" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="98"/>
+      <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="97"/>
-      <c r="B2" s="74"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -11472,7 +11472,7 @@
       <c r="F3" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="G3" s="102">
+      <c r="G3" s="71">
         <v>4</v>
       </c>
       <c r="H3" s="1">
@@ -11724,7 +11724,7 @@
       <c r="F12" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="103">
+      <c r="G12" s="72">
         <v>1</v>
       </c>
       <c r="H12" s="53">
@@ -12458,7 +12458,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12503,28 +12503,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="75" t="s">
         <v>660</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="99" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="101" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="103" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="101"/>
+      <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="97"/>
-      <c r="B2" s="74"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="5" t="s">
         <v>354</v>
       </c>
@@ -14055,7 +14055,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H59">
-    <cfRule type="containsText" dxfId="4" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6F915F-65FE-4712-A927-2614664DA19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA7D545-2054-4007-A0DB-047FB66808B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -1029,7 +1029,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="726">
   <si>
     <t>Trustees’ Garden</t>
   </si>
@@ -3177,6 +3177,36 @@
   </si>
   <si>
     <t>George Washington Carver</t>
+  </si>
+  <si>
+    <t>Ida Bell Wells</t>
+  </si>
+  <si>
+    <t>Juliette Gordon Low</t>
+  </si>
+  <si>
+    <t>Althea Gibson</t>
+  </si>
+  <si>
+    <t>Stacey Park Milbern</t>
+  </si>
+  <si>
+    <t>Dr. Vera Rubin</t>
+  </si>
+  <si>
+    <t>Mary Kawena Pukui</t>
+  </si>
+  <si>
+    <t>Raye Montague</t>
+  </si>
+  <si>
+    <t>Auto Assembly Line</t>
+  </si>
+  <si>
+    <t>Cape Canaveral</t>
+  </si>
+  <si>
+    <t>Johnson Space Center, Houston</t>
   </si>
 </sst>
 </file>
@@ -3892,15 +3922,54 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="72">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD6E3BC"/>
+          <bgColor rgb="FFD6E3BC"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDE9D9"/>
+          <bgColor rgb="FFFDE9D9"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD6E3BC"/>
+          <bgColor rgb="FFD6E3BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDE9D9"/>
+          <bgColor rgb="FFFDE9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -4326,6 +4395,95 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4347,9 +4505,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="70" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4654,7 +4812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4867,7 +5025,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J5">
-    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4884,7 +5042,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4901,7 +5059,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4918,7 +5076,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5162,7 +5320,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J6">
-    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5187,7 +5345,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K9" sqref="K9"/>
       <selection pane="topRight" activeCell="K9" sqref="K9"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
@@ -6830,7 +6988,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H58">
-    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6857,11 +7015,11 @@
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9325,7 +9483,7 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="I3:J12 L48 L50:L51 I13:K58">
-    <cfRule type="containsText" dxfId="49" priority="18" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="18" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9342,7 +9500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9359,7 +9517,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K12">
-    <cfRule type="containsText" dxfId="47" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9376,12 +9534,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L47">
-    <cfRule type="containsText" dxfId="46" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L57">
-    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9398,7 +9556,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7">
-    <cfRule type="containsText" dxfId="44" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9427,7 +9585,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9444,7 +9602,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58">
-    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9474,7 +9632,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10004,10 +10162,10 @@
       <c r="F17" s="5"/>
       <c r="G17" s="43"/>
       <c r="H17" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>15</v>
@@ -10018,9 +10176,144 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="A18" s="13">
+        <v>2025</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="14">
+        <v>1</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="9" t="str">
+        <f t="shared" ref="K18" si="1">IF(OR(AND(H18&gt;1,H18&lt;&gt;"-"),AND(I18&gt;1,I18&lt;&gt;"-"),AND(J18&gt;1,J18&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="13">
+        <v>2025</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="14">
+        <v>1</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="9" t="str">
+        <f t="shared" ref="K19:K22" si="2">IF(OR(AND(H19&gt;1,H19&lt;&gt;"-"),AND(I19&gt;1,I19&lt;&gt;"-"),AND(J19&gt;1,J19&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="13">
+        <v>2025</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="14">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="13">
+        <v>2025</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="14">
+        <v>0</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="13">
+        <v>2025</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="14">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G23" s="6" t="s">
@@ -10037,11 +10330,79 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="H3:I17">
-    <cfRule type="containsText" dxfId="41" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I17">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J17">
+    <cfRule type="containsText" dxfId="53" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J17">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:I18">
+    <cfRule type="containsText" dxfId="52" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:I18">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:I19">
+    <cfRule type="containsText" dxfId="50" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:I19">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10053,12 +10414,114 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J17">
-    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J17">
+  <conditionalFormatting sqref="J19">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:I20">
+    <cfRule type="containsText" dxfId="48" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:I20">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:I21">
+    <cfRule type="containsText" dxfId="46" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:I21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:I22">
+    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:I22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11350,7 +11813,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H41">
-    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11367,7 +11830,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11398,7 +11861,7 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12151,7 +12614,30 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="26">
+        <v>2025</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9" t="str">
+        <f t="shared" ref="I28" si="5">IF(OR(AND(G28&gt;1,G28&lt;&gt;"-"),AND(H28&gt;1,H28&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E1:F1"/>
@@ -12161,12 +12647,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="containsText" dxfId="37" priority="58" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="74" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12178,21 +12664,102 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="36" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="35" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="77" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H11 H3">
-    <cfRule type="containsText" dxfId="34" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H11 H3">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:H11 H3">
+    <cfRule type="cellIs" dxfId="36" priority="69" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:H11 H3">
+    <cfRule type="cellIs" dxfId="35" priority="70" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="cellIs" dxfId="33" priority="65" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="cellIs" dxfId="32" priority="66" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="31" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="30" priority="57" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="29" priority="58" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12204,22 +12771,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H11 H3">
-    <cfRule type="cellIs" dxfId="33" priority="53" operator="equal">
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="27" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H11 H3">
-    <cfRule type="cellIs" dxfId="32" priority="54" operator="greaterThan">
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="26" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="31" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="25" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
+  <conditionalFormatting sqref="G25">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12231,22 +12798,49 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="30" priority="49" operator="equal">
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" dxfId="24" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="29" priority="50" operator="greaterThan">
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" dxfId="23" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="28" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="22" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="H25">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="21" priority="45" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="20" priority="46" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12258,22 +12852,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="27" priority="41" operator="equal">
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="18" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="26" priority="42" operator="greaterThan">
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="17" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="25" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H26">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12285,22 +12879,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="15" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="23" priority="38" operator="greaterThan">
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="14" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="22" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="G27">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12312,22 +12906,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="12" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="greaterThan">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="11" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="10" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="H27">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12339,23 +12933,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="18" priority="29" operator="equal">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="9" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="17" priority="30" operator="greaterThan">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="8" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12366,23 +12960,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
-      <formula>0</formula>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="14" priority="26" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="G28">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12393,23 +12977,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="11" priority="22" operator="greaterThan">
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="H28">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12420,58 +13004,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+  <conditionalFormatting sqref="H28">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="greaterThan">
+  <conditionalFormatting sqref="H28">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -12484,12 +13024,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13282,7 +13822,9 @@
       <c r="A28" s="59">
         <v>2025</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="45" t="s">
+        <v>722</v>
+      </c>
       <c r="C28" s="46" t="s">
         <v>519</v>
       </c>
@@ -13292,7 +13834,7 @@
       <c r="E28" s="47"/>
       <c r="F28" s="47"/>
       <c r="G28" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="60">
         <v>0</v>
@@ -13306,7 +13848,9 @@
       <c r="A29" s="32">
         <v>2025</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="7" t="s">
+        <v>723</v>
+      </c>
       <c r="C29" s="22" t="s">
         <v>519</v>
       </c>
@@ -13316,10 +13860,10 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="9" t="str">
         <f t="shared" si="0"/>
@@ -13330,7 +13874,9 @@
       <c r="A30" s="32">
         <v>2025</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>724</v>
+      </c>
       <c r="C30" s="22" t="s">
         <v>519</v>
       </c>
@@ -13354,7 +13900,9 @@
       <c r="A31" s="32">
         <v>2025</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>725</v>
+      </c>
       <c r="C31" s="22" t="s">
         <v>519</v>
       </c>
@@ -14055,7 +14603,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H59">
-    <cfRule type="containsText" dxfId="3" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14082,7 +14630,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA7D545-2054-4007-A0DB-047FB66808B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFB19A4-050F-40BF-8041-C667BB9C1FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -3924,6 +3924,23 @@
   </cellStyles>
   <dxfs count="72">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD6E3BC"/>
@@ -3960,14 +3977,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFDE9D9"/>
           <bgColor rgb="FFFDE9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4475,15 +4484,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4505,9 +4505,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="70" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -5025,7 +5025,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J5">
-    <cfRule type="containsText" dxfId="68" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5042,7 +5042,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5059,7 +5059,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="66" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5076,7 +5076,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5320,7 +5320,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J6">
-    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6988,7 +6988,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H58">
-    <cfRule type="containsText" dxfId="63" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9483,7 +9483,7 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="I3:J12 L48 L50:L51 I13:K58">
-    <cfRule type="containsText" dxfId="62" priority="18" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="18" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9500,7 +9500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="61" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9517,7 +9517,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K12">
-    <cfRule type="containsText" dxfId="60" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9534,12 +9534,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L47">
-    <cfRule type="containsText" dxfId="59" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L57">
-    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9556,7 +9556,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7">
-    <cfRule type="containsText" dxfId="57" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9585,7 +9585,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="containsText" dxfId="56" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9602,7 +9602,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58">
-    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10330,7 +10330,7 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="H3:I17">
-    <cfRule type="containsText" dxfId="54" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10347,7 +10347,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J17">
-    <cfRule type="containsText" dxfId="53" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10364,7 +10364,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:I18">
-    <cfRule type="containsText" dxfId="52" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10381,7 +10381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10398,7 +10398,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:I19">
-    <cfRule type="containsText" dxfId="50" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10415,7 +10415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10432,7 +10432,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:I20">
-    <cfRule type="containsText" dxfId="48" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10449,7 +10449,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10466,7 +10466,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:I21">
-    <cfRule type="containsText" dxfId="46" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10483,7 +10483,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10500,7 +10500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I22">
-    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10517,7 +10517,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10543,12 +10543,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11287,7 +11287,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11317,7 +11317,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11524,7 +11524,7 @@
         <v>432</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>2</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11707,7 +11707,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11737,7 +11737,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="9" t="str">
         <f t="shared" si="0"/>
@@ -11813,7 +11813,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H41">
-    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11830,7 +11830,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12647,7 +12647,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="containsText" dxfId="40" priority="74" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="74" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12664,17 +12664,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="39" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="38" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="77" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H11 H3">
-    <cfRule type="containsText" dxfId="37" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12691,17 +12691,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H11 H3">
-    <cfRule type="cellIs" dxfId="36" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H11 H3">
-    <cfRule type="cellIs" dxfId="35" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12718,17 +12718,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="33" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="32" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="31" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12745,17 +12745,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="30" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="29" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12772,17 +12772,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="27" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="26" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="25" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12799,17 +12799,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="24" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="23" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="22" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12826,17 +12826,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="21" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="20" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12853,17 +12853,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="18" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="17" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12880,17 +12880,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="15" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="14" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12907,17 +12907,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="12" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="11" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="10" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12934,17 +12934,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="9" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="8" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12961,7 +12961,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12978,17 +12978,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13005,12 +13005,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13024,8 +13024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
@@ -14603,7 +14603,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H59">
-    <cfRule type="containsText" dxfId="6" priority="78" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="78" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFB19A4-050F-40BF-8041-C667BB9C1FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167CADF3-9BCB-4899-8F9C-A50ABEB16419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -5349,7 +5349,7 @@
       <selection activeCell="K9" sqref="K9"/>
       <selection pane="topRight" activeCell="K9" sqref="K9"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
-      <selection pane="bottomRight" activeCell="A53" sqref="A53:XFD57"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7014,12 +7014,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10543,12 +10543,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11527,7 +11527,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="9" t="str">
         <f t="shared" si="0"/>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167CADF3-9BCB-4899-8F9C-A50ABEB16419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D83717-55C7-4DB0-9CC1-888306649DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="&quot;American_Innovation_Dollars&quot;" sheetId="3" r:id="rId8"/>
     <sheet name="Links" sheetId="4" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'"American_Innovation_Dollars"'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'"American_Women_Quarters"'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'"Linkoln_Cents"'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'"Presidential_Dollars"'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'"Sacagawea&amp;Native_Dollars"'!$B$2:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'"State&amp;Territorial_Quarters"'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'"The_Beautiful_Quarters"'!$B$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'"Westward_Journey_Nickels"'!$B$2:$G$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1029,7 +1039,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="727">
   <si>
     <t>Trustees’ Garden</t>
   </si>
@@ -2090,12 +2100,6 @@
     <t>25¢</t>
   </si>
   <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
     <t>George Washington</t>
   </si>
   <si>
@@ -3020,9 +3024,6 @@
     <t>American Women Quarter</t>
   </si>
   <si>
-    <t>Obv: Wounded Eagle</t>
-  </si>
-  <si>
     <t>Bluegrass Music</t>
   </si>
   <si>
@@ -3207,6 +3208,18 @@
   </si>
   <si>
     <t>Johnson Space Center, Houston</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#State</t>
+  </si>
+  <si>
+    <t>Wounded Eagle</t>
   </si>
 </sst>
 </file>
@@ -3366,7 +3379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -3426,17 +3439,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3626,7 +3628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3705,16 +3707,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -3745,6 +3747,36 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3760,32 +3792,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3793,56 +3801,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3850,19 +3849,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3874,7 +3873,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3883,7 +3882,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3902,20 +3901,20 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4816,49 +4815,50 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="10" width="3.81640625" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="10" width="3.6328125" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>660</v>
-      </c>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="79" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82" t="s">
-        <v>534</v>
-      </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="84"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81" t="s">
+        <v>532</v>
+      </c>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="74"/>
-      <c r="B2" s="76"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="102" t="s">
+        <v>658</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>723</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>353</v>
+        <v>724</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
@@ -4885,17 +4885,17 @@
         <v>2009</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="39" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>244</v>
@@ -4919,17 +4919,17 @@
         <v>2009</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="39" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G4" s="43" t="s">
         <v>244</v>
@@ -4953,17 +4953,17 @@
         <v>2009</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="39" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G5" s="43" t="s">
         <v>244</v>
@@ -4987,17 +4987,17 @@
         <v>2009</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="39" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G6" s="43" t="s">
         <v>244</v>
@@ -5017,9 +5017,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -5108,52 +5108,53 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="10" width="3.81640625" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="10" width="3.6328125" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>660</v>
-      </c>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="85" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="87" t="s">
-        <v>548</v>
-      </c>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86" t="s">
+        <v>546</v>
+      </c>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="74"/>
-      <c r="B2" s="76"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="102" t="s">
+        <v>658</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>723</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>353</v>
+        <v>724</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
@@ -5180,17 +5181,17 @@
         <v>2004</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="41" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>244</v>
@@ -5214,17 +5215,17 @@
         <v>2004</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="41" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G4" s="43" t="s">
         <v>244</v>
@@ -5248,17 +5249,17 @@
         <v>2005</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="41" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G5" s="43" t="s">
         <v>244</v>
@@ -5282,17 +5283,17 @@
         <v>2005</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="41" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G6" s="43" t="s">
         <v>244</v>
@@ -5312,9 +5313,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -5345,53 +5346,53 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K9" sqref="K9"/>
       <selection pane="topRight" activeCell="K9" sqref="K9"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
-      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="19" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="20" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="19" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="20" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="16" customWidth="1"/>
     <col min="10" max="28" width="8.7265625" style="16" customWidth="1"/>
     <col min="29" max="16384" width="14.453125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>660</v>
-      </c>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="79" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="77" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="76" t="s">
         <v>352</v>
       </c>
-      <c r="H1" s="90"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="74"/>
-      <c r="B2" s="76"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="102" t="s">
+        <v>658</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>723</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>353</v>
+        <v>724</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
@@ -5414,7 +5415,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="5" t="s">
@@ -6815,7 +6816,7 @@
         <v>183</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="5" t="s">
@@ -6843,7 +6844,7 @@
         <v>170</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="5" t="s">
@@ -6871,7 +6872,7 @@
         <v>171</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D55" s="22"/>
       <c r="E55" s="5" t="s">
@@ -6899,7 +6900,7 @@
         <v>172</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D56" s="22"/>
       <c r="E56" s="5" t="s">
@@ -6927,7 +6928,7 @@
         <v>180</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D57" s="22"/>
       <c r="E57" s="5" t="s">
@@ -6955,7 +6956,7 @@
         <v>182</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="5" t="s">
@@ -6980,8 +6981,8 @@
       <c r="F59" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:B2"/>
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:H1"/>
@@ -7014,58 +7015,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N15" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.36328125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="24.90625" style="2" customWidth="1"/>
-    <col min="5" max="8" width="12.453125" style="6" customWidth="1"/>
-    <col min="9" max="12" width="3.81640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="8" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="2" customWidth="1"/>
+    <col min="5" max="8" width="12.6328125" style="6" customWidth="1"/>
+    <col min="9" max="12" width="3.6328125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" style="2" customWidth="1"/>
     <col min="14" max="29" width="8.7265625" style="2" customWidth="1"/>
     <col min="30" max="16384" width="14.453125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>660</v>
-      </c>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="91" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="94" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="93" t="s">
         <v>352</v>
       </c>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="95"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="94"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="74"/>
-      <c r="B2" s="76"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="102" t="s">
+        <v>658</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>723</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>353</v>
+        <v>725</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
@@ -8812,7 +8813,7 @@
         <v>314</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H43" s="21" t="s">
         <v>15</v>
@@ -8854,7 +8855,7 @@
         <v>315</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H44" s="21" t="s">
         <v>15</v>
@@ -8896,7 +8897,7 @@
         <v>297</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H45" s="21" t="s">
         <v>15</v>
@@ -8938,7 +8939,7 @@
         <v>316</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H46" s="21" t="s">
         <v>15</v>
@@ -8980,7 +8981,7 @@
         <v>317</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H47" s="21" t="s">
         <v>15</v>
@@ -9016,13 +9017,13 @@
         <v>28</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>245</v>
@@ -9061,10 +9062,10 @@
         <v>314</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>245</v>
@@ -9100,13 +9101,13 @@
         <v>171</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>245</v>
@@ -9142,13 +9143,13 @@
         <v>50</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H51" s="10" t="s">
         <v>245</v>
@@ -9184,13 +9185,13 @@
         <v>65</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>245</v>
@@ -9226,13 +9227,13 @@
         <v>172</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H53" s="10" t="s">
         <v>245</v>
@@ -9268,13 +9269,13 @@
         <v>27</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>245</v>
@@ -9310,13 +9311,13 @@
         <v>238</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H55" s="10" t="s">
         <v>245</v>
@@ -9352,13 +9353,13 @@
         <v>36</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H56" s="10" t="s">
         <v>245</v>
@@ -9394,13 +9395,13 @@
         <v>56</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>299</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H57" s="10" t="s">
         <v>245</v>
@@ -9436,13 +9437,13 @@
         <v>44</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H58" s="21" t="s">
         <v>15</v>
@@ -9470,12 +9471,12 @@
       <c r="G59" s="2"/>
       <c r="H59" s="20"/>
       <c r="N59" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:B2"/>
+  <autoFilter ref="B2:H2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:H1"/>
@@ -9632,49 +9633,49 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
+      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="8" customWidth="1"/>
-    <col min="3" max="4" width="24.26953125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="12.453125" style="6" customWidth="1"/>
-    <col min="8" max="10" width="3.81640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="8" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="12.6328125" style="6" customWidth="1"/>
+    <col min="8" max="10" width="3.6328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>660</v>
-      </c>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="91" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="94" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="93" t="s">
         <v>352</v>
       </c>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="74"/>
-      <c r="B2" s="76"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="102" t="s">
+        <v>658</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>723</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>353</v>
+        <v>724</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
@@ -9700,20 +9701,20 @@
         <v>2022</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G3" s="43" t="s">
         <v>624</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>626</v>
       </c>
       <c r="H3" s="14">
         <v>1</v>
@@ -9734,20 +9735,20 @@
         <v>2022</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="G4" s="43" t="s">
         <v>627</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>629</v>
       </c>
       <c r="H4" s="14">
         <v>1</v>
@@ -9768,20 +9769,20 @@
         <v>2022</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="G5" s="43" t="s">
         <v>630</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>632</v>
       </c>
       <c r="H5" s="14">
         <v>1</v>
@@ -9802,20 +9803,20 @@
         <v>2022</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="5" t="s">
         <v>124</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H6" s="14">
         <v>1</v>
@@ -9836,20 +9837,20 @@
         <v>2022</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H7" s="14">
         <v>1</v>
@@ -9870,20 +9871,20 @@
         <v>2023</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="G8" s="43" t="s">
         <v>637</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>639</v>
       </c>
       <c r="H8" s="14">
         <v>1</v>
@@ -9904,20 +9905,20 @@
         <v>2023</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="G9" s="43" t="s">
         <v>640</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>642</v>
       </c>
       <c r="H9" s="14">
         <v>1</v>
@@ -9938,20 +9939,20 @@
         <v>2023</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="G10" s="43" t="s">
         <v>643</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>645</v>
       </c>
       <c r="H10" s="14">
         <v>1</v>
@@ -9972,20 +9973,20 @@
         <v>2023</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="G11" s="43" t="s">
         <v>646</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>648</v>
       </c>
       <c r="H11" s="14">
         <v>2</v>
@@ -10006,10 +10007,10 @@
         <v>2023</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="5" t="s">
@@ -10019,7 +10020,7 @@
         <v>346</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H12" s="14">
         <v>1</v>
@@ -10040,10 +10041,10 @@
         <v>2024</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="5"/>
@@ -10068,10 +10069,10 @@
         <v>2024</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="5"/>
@@ -10096,10 +10097,10 @@
         <v>2024</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="5"/>
@@ -10124,10 +10125,10 @@
         <v>2024</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="5"/>
@@ -10152,10 +10153,10 @@
         <v>2024</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="5"/>
@@ -10180,10 +10181,10 @@
         <v>2025</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="5"/>
@@ -10208,10 +10209,10 @@
         <v>2025</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="5"/>
@@ -10236,10 +10237,10 @@
         <v>2025</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="5"/>
@@ -10264,10 +10265,10 @@
         <v>2025</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="5"/>
@@ -10292,10 +10293,10 @@
         <v>2025</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="5"/>
@@ -10317,13 +10318,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G23" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{1FB08FCB-4607-4875-B1CE-F05341C08ADF}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -10548,48 +10549,48 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="8" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="20" customWidth="1"/>
-    <col min="7" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="8" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="20" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
     <col min="10" max="27" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>660</v>
-      </c>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="79" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="96" t="s">
-        <v>454</v>
-      </c>
-      <c r="H1" s="97"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="95" t="s">
+        <v>452</v>
+      </c>
+      <c r="H1" s="96"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="74"/>
-      <c r="B2" s="76"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="102" t="s">
+        <v>658</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>723</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>353</v>
+        <v>724</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
@@ -10609,19 +10610,19 @@
         <v>2007</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>455</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>357</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -10639,19 +10640,19 @@
         <v>2007</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>360</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -10669,19 +10670,19 @@
         <v>2007</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>457</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>363</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -10699,19 +10700,19 @@
         <v>2007</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>364</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>366</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -10729,19 +10730,19 @@
         <v>2008</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>369</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -10759,19 +10760,19 @@
         <v>2008</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>372</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -10789,19 +10790,19 @@
         <v>2008</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -10819,19 +10820,19 @@
         <v>2008</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>378</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -10849,19 +10850,19 @@
         <v>2009</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>379</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>381</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -10879,19 +10880,19 @@
         <v>2009</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
@@ -10909,19 +10910,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>386</v>
       </c>
       <c r="G13" s="1">
         <v>5</v>
@@ -10939,19 +10940,19 @@
         <v>2009</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>389</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -10969,19 +10970,19 @@
         <v>2010</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>392</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -10999,19 +11000,19 @@
         <v>2010</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>395</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -11029,19 +11030,19 @@
         <v>2010</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>398</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -11059,19 +11060,19 @@
         <v>2010</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="G18" s="24">
         <v>1</v>
@@ -11089,19 +11090,19 @@
         <v>2011</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -11119,19 +11120,19 @@
         <v>2011</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>407</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -11149,19 +11150,19 @@
         <v>2011</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -11179,19 +11180,19 @@
         <v>2011</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G22" s="1">
         <v>3</v>
@@ -11209,19 +11210,19 @@
         <v>2012</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -11239,19 +11240,19 @@
         <v>2012</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G24" s="1">
         <v>2</v>
@@ -11269,19 +11270,19 @@
         <v>2012</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>418</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -11299,19 +11300,19 @@
         <v>2012</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
@@ -11329,19 +11330,19 @@
         <v>2013</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>479</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>423</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -11359,19 +11360,19 @@
         <v>2013</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -11389,19 +11390,19 @@
         <v>2013</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -11419,19 +11420,19 @@
         <v>2013</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -11449,19 +11450,19 @@
         <v>2014</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>432</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -11479,19 +11480,19 @@
         <v>2014</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -11509,19 +11510,19 @@
         <v>2014</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -11539,19 +11540,19 @@
         <v>2014</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -11569,19 +11570,19 @@
         <v>2015</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>487</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>439</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -11599,19 +11600,19 @@
         <v>2015</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
@@ -11629,19 +11630,19 @@
         <v>2015</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -11659,19 +11660,19 @@
         <v>2015</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -11689,19 +11690,19 @@
         <v>2016</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -11719,19 +11720,19 @@
         <v>2016</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
@@ -11749,19 +11750,19 @@
         <v>2016</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>450</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>493</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>452</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -11779,19 +11780,19 @@
         <v>2020</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="D42" s="22" t="s">
+      <c r="F42" s="5" t="s">
         <v>651</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>653</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -11805,10 +11806,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
   </mergeCells>
@@ -11856,54 +11857,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C15" sqref="C15"/>
-      <selection pane="topRight" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="40.81640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="8" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
     <col min="10" max="18" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>660</v>
-      </c>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="85" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="100" t="s">
-        <v>454</v>
-      </c>
-      <c r="H1" s="100"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98" t="s">
+        <v>452</v>
+      </c>
+      <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="99"/>
-      <c r="B2" s="76"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="102" t="s">
+        <v>658</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>723</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>353</v>
+        <v>724</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>17</v>
@@ -11922,18 +11921,18 @@
       <c r="A3" s="26">
         <v>2000</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="C3" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="G3" s="71">
         <v>4</v>
@@ -11950,18 +11949,18 @@
       <c r="A4" s="26">
         <v>2001</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="C4" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>663</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="D4" s="22"/>
       <c r="E4" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -11978,18 +11977,18 @@
       <c r="A5" s="26">
         <v>2002</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="C5" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>663</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="D5" s="22"/>
       <c r="E5" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -12006,13 +12005,13 @@
       <c r="A6" s="26">
         <v>2003</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="C6" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>663</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="D6" s="22"/>
       <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
@@ -12034,18 +12033,18 @@
       <c r="A7" s="49">
         <v>2004</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="50" t="s">
+        <v>726</v>
+      </c>
       <c r="C7" s="51" t="s">
-        <v>494</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>663</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="D7" s="51"/>
       <c r="E7" s="52" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G7" s="53">
         <v>1</v>
@@ -12062,18 +12061,18 @@
       <c r="A8" s="54">
         <v>2005</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="C8" s="56" t="s">
-        <v>494</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>663</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="D8" s="56"/>
       <c r="E8" s="57" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G8" s="58">
         <v>1</v>
@@ -12090,15 +12089,15 @@
       <c r="A9" s="26">
         <v>2006</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="C9" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>663</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="D9" s="22"/>
       <c r="E9" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>7</v>
@@ -12118,18 +12117,18 @@
       <c r="A10" s="26">
         <v>2007</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="C10" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>663</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="D10" s="22"/>
       <c r="E10" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -12146,13 +12145,13 @@
       <c r="A11" s="26">
         <v>2008</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="C11" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>663</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="D11" s="22"/>
       <c r="E11" s="5" t="s">
         <v>9</v>
       </c>
@@ -12175,10 +12174,10 @@
         <v>2009</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D12" s="51"/>
       <c r="E12" s="52" t="s">
@@ -12203,10 +12202,10 @@
         <v>2010</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D13" s="56"/>
       <c r="E13" s="57" t="s">
@@ -12231,10 +12230,10 @@
         <v>2011</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="5" t="s">
@@ -12259,10 +12258,10 @@
         <v>2012</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="5" t="s">
@@ -12287,10 +12286,10 @@
         <v>2013</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="5" t="s">
@@ -12315,10 +12314,10 @@
         <v>2014</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D17" s="51"/>
       <c r="E17" s="52" t="s">
@@ -12343,10 +12342,10 @@
         <v>2015</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D18" s="56"/>
       <c r="E18" s="57" t="s">
@@ -12371,10 +12370,10 @@
         <v>2016</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="5" t="s">
@@ -12399,10 +12398,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="5" t="s">
@@ -12427,10 +12426,10 @@
         <v>2018</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="5" t="s">
@@ -12455,10 +12454,10 @@
         <v>2019</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D22" s="51"/>
       <c r="E22" s="52" t="s">
@@ -12483,10 +12482,10 @@
         <v>2020</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="47" t="s">
@@ -12511,17 +12510,17 @@
         <v>2021</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G24" s="1">
         <v>2</v>
@@ -12539,17 +12538,17 @@
         <v>2022</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G25" s="1">
         <v>2</v>
@@ -12567,17 +12566,17 @@
         <v>2023</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
@@ -12595,10 +12594,10 @@
         <v>2024</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="5"/>
@@ -12619,10 +12618,10 @@
         <v>2025</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="5"/>
@@ -12639,11 +12638,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F28" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:H22">
@@ -13025,51 +13024,52 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="27" customWidth="1"/>
-    <col min="2" max="3" width="24.81640625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="29" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="29" customWidth="1"/>
-    <col min="7" max="8" width="5" style="29" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="33.6328125" style="29" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="29" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>660</v>
-      </c>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="101" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="103" t="s">
-        <v>454</v>
-      </c>
-      <c r="H1" s="103"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="101" t="s">
+        <v>452</v>
+      </c>
+      <c r="H1" s="101"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="99"/>
-      <c r="B2" s="76"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="102" t="s">
+        <v>658</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>723</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>353</v>
+        <v>725</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>17</v>
@@ -13089,19 +13089,19 @@
         <v>2018</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G3" s="33">
         <v>1</v>
@@ -13119,19 +13119,19 @@
         <v>2019</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G4" s="33">
         <v>2</v>
@@ -13149,19 +13149,19 @@
         <v>2019</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G5" s="33">
         <v>3</v>
@@ -13179,19 +13179,19 @@
         <v>2019</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G6" s="33">
         <v>1</v>
@@ -13212,16 +13212,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D7" s="63" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="64" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G7" s="65">
         <v>1</v>
@@ -13239,19 +13239,19 @@
         <v>2020</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D8" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G8" s="70">
         <v>1</v>
@@ -13269,19 +13269,19 @@
         <v>2020</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G9" s="33">
         <v>1</v>
@@ -13299,19 +13299,19 @@
         <v>2020</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G10" s="33">
         <v>1</v>
@@ -13329,19 +13329,19 @@
         <v>2020</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G11" s="33">
         <v>1</v>
@@ -13359,19 +13359,19 @@
         <v>2021</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D12" s="63" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G12" s="65">
         <v>1</v>
@@ -13389,19 +13389,19 @@
         <v>2021</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D13" s="68" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G13" s="70">
         <v>1</v>
@@ -13419,19 +13419,19 @@
         <v>2021</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G14" s="33">
         <v>1</v>
@@ -13449,19 +13449,19 @@
         <v>2021</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G15" s="33">
         <v>1</v>
@@ -13479,19 +13479,19 @@
         <v>2022</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G16" s="33">
         <v>1</v>
@@ -13509,19 +13509,19 @@
         <v>2022</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D17" s="63" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G17" s="65">
         <v>1</v>
@@ -13539,19 +13539,19 @@
         <v>2022</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D18" s="68" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="69" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F18" s="69" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G18" s="70">
         <v>1</v>
@@ -13569,19 +13569,19 @@
         <v>2022</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G19" s="33">
         <v>1</v>
@@ -13599,19 +13599,19 @@
         <v>2023</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="G20" s="33">
         <v>2</v>
@@ -13629,19 +13629,19 @@
         <v>2023</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G21" s="33">
         <v>1</v>
@@ -13659,19 +13659,19 @@
         <v>2023</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D22" s="63" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="64" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F22" s="64" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G22" s="65">
         <v>1</v>
@@ -13689,19 +13689,19 @@
         <v>2023</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D23" s="68" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="69" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F23" s="69" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G23" s="70">
         <v>1</v>
@@ -13719,10 +13719,10 @@
         <v>2024</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>43</v>
@@ -13745,10 +13745,10 @@
         <v>2024</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>44</v>
@@ -13771,10 +13771,10 @@
         <v>2024</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>45</v>
@@ -13797,10 +13797,10 @@
         <v>2024</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D27" s="63" t="s">
         <v>46</v>
@@ -13823,10 +13823,10 @@
         <v>2025</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D28" s="46" t="s">
         <v>47</v>
@@ -13849,10 +13849,10 @@
         <v>2025</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>48</v>
@@ -13875,10 +13875,10 @@
         <v>2025</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>49</v>
@@ -13901,10 +13901,10 @@
         <v>2025</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>50</v>
@@ -13928,7 +13928,7 @@
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>51</v>
@@ -13952,7 +13952,7 @@
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>52</v>
@@ -13976,7 +13976,7 @@
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>53</v>
@@ -14000,7 +14000,7 @@
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>54</v>
@@ -14024,7 +14024,7 @@
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>55</v>
@@ -14048,7 +14048,7 @@
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>56</v>
@@ -14072,7 +14072,7 @@
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>57</v>
@@ -14096,7 +14096,7 @@
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>58</v>
@@ -14120,7 +14120,7 @@
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>59</v>
@@ -14144,7 +14144,7 @@
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>60</v>
@@ -14168,7 +14168,7 @@
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>61</v>
@@ -14192,7 +14192,7 @@
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>62</v>
@@ -14216,7 +14216,7 @@
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>63</v>
@@ -14240,7 +14240,7 @@
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>64</v>
@@ -14264,7 +14264,7 @@
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D46" s="22" t="s">
         <v>65</v>
@@ -14288,7 +14288,7 @@
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>66</v>
@@ -14312,7 +14312,7 @@
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D48" s="22" t="s">
         <v>67</v>
@@ -14336,7 +14336,7 @@
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>68</v>
@@ -14360,7 +14360,7 @@
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>69</v>
@@ -14384,7 +14384,7 @@
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>70</v>
@@ -14408,7 +14408,7 @@
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>71</v>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>72</v>
@@ -14456,7 +14456,7 @@
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D54" s="22" t="s">
         <v>183</v>
@@ -14480,7 +14480,7 @@
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D55" s="22" t="s">
         <v>170</v>
@@ -14504,7 +14504,7 @@
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>171</v>
@@ -14528,7 +14528,7 @@
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D57" s="22" t="s">
         <v>172</v>
@@ -14552,10 +14552,10 @@
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -14576,7 +14576,7 @@
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>182</v>
@@ -14595,10 +14595,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
@@ -14642,13 +14642,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>524</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>525</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -14656,10 +14656,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -14667,10 +14667,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -14678,10 +14678,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -14689,10 +14689,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D83717-55C7-4DB0-9CC1-888306649DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8E2D3C-56EA-4D75-9E04-9EB1255D00E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -3837,6 +3837,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3912,9 +3915,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4829,29 +4829,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="73"/>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81" t="s">
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82" t="s">
         <v>532</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="75"/>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="74" t="s">
         <v>658</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -5125,29 +5125,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="73"/>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="84" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="86" t="s">
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="75"/>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="74" t="s">
         <v>658</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -5366,26 +5366,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="73"/>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="76" t="s">
+      <c r="F1" s="89"/>
+      <c r="G1" s="77" t="s">
         <v>352</v>
       </c>
-      <c r="H1" s="89"/>
+      <c r="H1" s="90"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75"/>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="74" t="s">
         <v>658</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -7015,12 +7015,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7036,30 +7036,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="73"/>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="90" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="93" t="s">
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="94" t="s">
         <v>352</v>
       </c>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="94"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="95"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75"/>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="74" t="s">
         <v>658</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -9647,28 +9647,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="73"/>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="90" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="93" t="s">
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="94" t="s">
         <v>352</v>
       </c>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="75"/>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="74" t="s">
         <v>658</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -10564,26 +10564,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="73"/>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="95" t="s">
+      <c r="F1" s="89"/>
+      <c r="G1" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="H1" s="96"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75"/>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="74" t="s">
         <v>658</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -11857,11 +11857,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11876,26 +11876,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="73"/>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="84" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98" t="s">
+      <c r="F1" s="98"/>
+      <c r="G1" s="99" t="s">
         <v>452</v>
       </c>
-      <c r="H1" s="98"/>
+      <c r="H1" s="99"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75"/>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="74" t="s">
         <v>658</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -13028,7 +13028,7 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13043,26 +13043,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="73"/>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="99" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="101" t="s">
+      <c r="F1" s="101"/>
+      <c r="G1" s="102" t="s">
         <v>452</v>
       </c>
-      <c r="H1" s="101"/>
+      <c r="H1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75"/>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="74" t="s">
         <v>658</v>
       </c>
       <c r="C2" s="5" t="s">

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8E2D3C-56EA-4D75-9E04-9EB1255D00E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B15E42-D5F1-4507-8D2E-C1E1787488EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -7015,8 +7015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N18" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
@@ -9633,7 +9633,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10303,10 +10303,10 @@
       <c r="F22" s="5"/>
       <c r="G22" s="43"/>
       <c r="H22" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>15</v>
@@ -10549,7 +10549,7 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11861,7 +11861,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13023,12 +13023,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13837,7 +13837,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="9" t="str">
         <f t="shared" si="0"/>
@@ -13886,10 +13886,10 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="9" t="str">
         <f t="shared" si="0"/>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B15E42-D5F1-4507-8D2E-C1E1787488EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F6EF4B-E298-4FC5-9EBE-B68D574C00D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8340" yWindow="540" windowWidth="33150" windowHeight="17700" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -43,6 +43,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1039,7 +1042,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="736">
   <si>
     <t>Trustees’ Garden</t>
   </si>
@@ -3220,6 +3223,33 @@
   </si>
   <si>
     <t>Wounded Eagle</t>
+  </si>
+  <si>
+    <t>149,600,000</t>
+  </si>
+  <si>
+    <t>156,200,000</t>
+  </si>
+  <si>
+    <t>159,400,000</t>
+  </si>
+  <si>
+    <t>141,200,000</t>
+  </si>
+  <si>
+    <t>187,200,000</t>
+  </si>
+  <si>
+    <t>210,200,000</t>
+  </si>
+  <si>
+    <t>168,400,000</t>
+  </si>
+  <si>
+    <t>170,200,000</t>
+  </si>
+  <si>
+    <t>152,600,000</t>
   </si>
 </sst>
 </file>
@@ -3921,7 +3951,23 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="74">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4504,9 +4550,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -5025,7 +5071,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J5">
-    <cfRule type="containsText" dxfId="71" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5042,7 +5088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="70" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5059,7 +5105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5076,7 +5122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5321,7 +5367,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J6">
-    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5346,7 +5392,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K9" sqref="K9"/>
       <selection pane="topRight" activeCell="K9" sqref="K9"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
@@ -6989,7 +7035,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H58">
-    <cfRule type="containsText" dxfId="66" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7016,7 +7062,7 @@
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N30" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
@@ -9484,7 +9530,7 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="I3:J12 L48 L50:L51 I13:K58">
-    <cfRule type="containsText" dxfId="65" priority="18" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="18" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9501,7 +9547,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9518,7 +9564,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K12">
-    <cfRule type="containsText" dxfId="63" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9535,12 +9581,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L47">
-    <cfRule type="containsText" dxfId="62" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L57">
-    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9557,7 +9603,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7">
-    <cfRule type="containsText" dxfId="60" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9586,7 +9632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9603,7 +9649,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58">
-    <cfRule type="containsText" dxfId="58" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9633,7 +9679,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10047,8 +10093,12 @@
         <v>660</v>
       </c>
       <c r="D13" s="22"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="G13" s="43"/>
       <c r="H13" s="14">
         <v>1</v>
@@ -10075,8 +10125,12 @@
         <v>660</v>
       </c>
       <c r="D14" s="22"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>731</v>
+      </c>
       <c r="G14" s="43"/>
       <c r="H14" s="14">
         <v>1</v>
@@ -10103,8 +10157,12 @@
         <v>660</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>730</v>
+      </c>
       <c r="G15" s="43"/>
       <c r="H15" s="14">
         <v>1</v>
@@ -10131,8 +10189,12 @@
         <v>660</v>
       </c>
       <c r="D16" s="22"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>728</v>
+      </c>
       <c r="G16" s="43"/>
       <c r="H16" s="14">
         <v>2</v>
@@ -10159,8 +10221,12 @@
         <v>660</v>
       </c>
       <c r="D17" s="22"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>734</v>
+      </c>
       <c r="G17" s="43"/>
       <c r="H17" s="14">
         <v>1</v>
@@ -10331,7 +10397,7 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="H3:I17">
-    <cfRule type="containsText" dxfId="57" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10348,7 +10414,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J17">
-    <cfRule type="containsText" dxfId="56" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10365,7 +10431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:I18">
-    <cfRule type="containsText" dxfId="55" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10382,7 +10448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="54" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10399,7 +10465,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:I19">
-    <cfRule type="containsText" dxfId="53" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10416,7 +10482,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10433,7 +10499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:I20">
-    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10450,7 +10516,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="50" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10467,7 +10533,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:I21">
-    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10484,7 +10550,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10501,7 +10567,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I22">
-    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10518,7 +10584,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10545,7 +10611,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
@@ -11814,7 +11880,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H41">
-    <cfRule type="containsText" dxfId="45" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11831,7 +11897,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11857,11 +11923,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12600,8 +12666,12 @@
         <v>502</v>
       </c>
       <c r="D27" s="22"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>656</v>
+      </c>
       <c r="G27" s="1">
         <v>1</v>
       </c>
@@ -12646,7 +12716,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="containsText" dxfId="43" priority="74" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="74" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12663,17 +12733,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="42" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="41" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="77" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H11 H3">
-    <cfRule type="containsText" dxfId="40" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12690,17 +12760,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H11 H3">
-    <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="69" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H11 H3">
-    <cfRule type="cellIs" dxfId="38" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="37" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12717,17 +12787,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="36" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="35" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="34" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12744,17 +12814,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="33" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="32" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="31" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12771,17 +12841,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="30" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="29" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="28" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12798,17 +12868,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="27" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="26" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="25" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12825,17 +12895,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="24" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="23" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12852,17 +12922,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="21" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="20" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="19" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12879,17 +12949,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="18" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="17" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12906,17 +12976,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="15" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="14" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12933,17 +13003,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="12" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="11" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12960,7 +13030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12977,17 +13047,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13004,12 +13074,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13023,12 +13093,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13912,33 +13982,33 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="33">
+        <v>1</v>
+      </c>
+      <c r="H31" s="33">
+        <v>1</v>
+      </c>
+      <c r="I31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="61">
+        <v>2026</v>
+      </c>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63" t="s">
+        <v>517</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="65">
         <v>0</v>
       </c>
-      <c r="H31" s="33">
-        <v>0</v>
-      </c>
-      <c r="I31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="32">
-        <v>2026</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="33">
-        <v>0</v>
-      </c>
-      <c r="H32" s="33">
+      <c r="H32" s="65">
         <v>0</v>
       </c>
       <c r="I32" s="9" t="str">
@@ -14602,13 +14672,30 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:H59">
-    <cfRule type="containsText" dxfId="3" priority="78" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G3:H31 G33:H59">
+    <cfRule type="containsText" dxfId="5" priority="80" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H59">
-    <cfRule type="colorScale" priority="79">
+  <conditionalFormatting sqref="G3:H31 G33:H59">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:H32">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:H32">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14630,7 +14717,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F6EF4B-E298-4FC5-9EBE-B68D574C00D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F1A129-932F-4331-AF56-8EB85C07CC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="540" windowWidth="33150" windowHeight="17700" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -3951,14 +3951,15 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="73">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3967,15 +3968,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -4550,9 +4542,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -5071,7 +5063,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J5">
-    <cfRule type="containsText" dxfId="73" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5088,7 +5080,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="72" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5105,7 +5097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5122,7 +5114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5367,7 +5359,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:J6">
-    <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7035,7 +7027,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H58">
-    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9530,7 +9522,7 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="I3:J12 L48 L50:L51 I13:K58">
-    <cfRule type="containsText" dxfId="67" priority="18" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="18" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9547,7 +9539,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="66" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9564,7 +9556,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K12">
-    <cfRule type="containsText" dxfId="65" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9581,12 +9573,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L47">
-    <cfRule type="containsText" dxfId="64" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L57">
-    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9603,7 +9595,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7">
-    <cfRule type="containsText" dxfId="62" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9632,7 +9624,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="containsText" dxfId="61" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L49))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9649,7 +9641,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58">
-    <cfRule type="containsText" dxfId="60" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L58))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9675,11 +9667,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB08FCB-4607-4875-B1CE-F05341C08ADF}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10341,10 +10333,10 @@
       <c r="F21" s="5"/>
       <c r="G21" s="43"/>
       <c r="H21" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>15</v>
@@ -10397,7 +10389,7 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="H3:I17">
-    <cfRule type="containsText" dxfId="59" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10414,7 +10406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J17">
-    <cfRule type="containsText" dxfId="58" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10431,7 +10423,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:I18">
-    <cfRule type="containsText" dxfId="57" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10448,7 +10440,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="56" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10465,7 +10457,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:I19">
-    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10482,7 +10474,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10499,7 +10491,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:I20">
-    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10516,7 +10508,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10533,7 +10525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:I21">
-    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10550,7 +10542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10567,7 +10559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I22">
-    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10584,7 +10576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11880,7 +11872,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H41">
-    <cfRule type="containsText" dxfId="47" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11897,7 +11889,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11923,7 +11915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -12716,7 +12708,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="containsText" dxfId="45" priority="74" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="74" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12733,17 +12725,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="44" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H22">
-    <cfRule type="cellIs" dxfId="43" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="77" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H11 H3">
-    <cfRule type="containsText" dxfId="42" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12760,17 +12752,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H11 H3">
-    <cfRule type="cellIs" dxfId="41" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="69" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H11 H3">
-    <cfRule type="cellIs" dxfId="40" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="39" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12787,17 +12779,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="38" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="37" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="36" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12814,17 +12806,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="35" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="34" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="33" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12841,17 +12833,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="32" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="31" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="30" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12868,17 +12860,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="29" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="28" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="27" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12895,17 +12887,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="26" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="25" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="24" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12922,17 +12914,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="23" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="22" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="21" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12949,17 +12941,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="20" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="19" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12976,17 +12968,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="17" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="16" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13003,17 +12995,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="14" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="13" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13030,7 +13022,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13047,17 +13039,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13074,12 +13066,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13098,7 +13090,7 @@
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14673,7 +14665,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H31 G33:H59">
-    <cfRule type="containsText" dxfId="5" priority="80" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="80" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14690,7 +14682,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
+++ b/Collections/USA/#USA#Commemorative#[1999-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F1A129-932F-4331-AF56-8EB85C07CC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAC1B64-7FD4-4909-A466-244E7875320A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Linkoln_Cents&quot;" sheetId="7" r:id="rId1"/>
@@ -9667,11 +9667,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB08FCB-4607-4875-B1CE-F05341C08ADF}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10305,10 +10305,10 @@
       <c r="F20" s="5"/>
       <c r="G20" s="43"/>
       <c r="H20" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>15</v>
@@ -11915,11 +11915,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12689,10 +12689,10 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="9" t="str">
         <f t="shared" ref="I28" si="5">IF(OR(AND(G28&gt;1,G28&lt;&gt;"-"),AND(H28&gt;1,H28&lt;&gt;"-")),"Can exchange","")</f>
